--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44252</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44252</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44308</v>
+        <v>44166</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44308</v>
+        <v>44166</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44306</v>
+        <v>44239</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44306</v>
+        <v>44239</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44362</v>
+        <v>44299</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44362</v>
+        <v>44299</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44222</v>
+        <v>44349</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44222</v>
+        <v>44349</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44400</v>
+        <v>44237</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44400</v>
+        <v>44237</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44383</v>
+        <v>44194</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44383</v>
+        <v>44194</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44274</v>
+        <v>44336</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44274</v>
+        <v>44336</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44320</v>
+        <v>44274</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K64" t="n">
         <v>600</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K65" t="n">
         <v>500</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
         <v>600</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K67" t="n">
         <v>500</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44272</v>
+        <v>44160</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44272</v>
+        <v>44160</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44398</v>
+        <v>44272</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44398</v>
+        <v>44272</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44334</v>
+        <v>44217</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44334</v>
+        <v>44217</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6793,6 +6793,150 @@
         <v>1</v>
       </c>
       <c r="R89" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>11</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>200</v>
+      </c>
+      <c r="K90" t="n">
+        <v>600</v>
+      </c>
+      <c r="L90" t="n">
+        <v>700</v>
+      </c>
+      <c r="M90" t="n">
+        <v>650</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>11</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>100</v>
+      </c>
+      <c r="K91" t="n">
+        <v>500</v>
+      </c>
+      <c r="L91" t="n">
+        <v>500</v>
+      </c>
+      <c r="M91" t="n">
+        <v>500</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44405</v>
+        <v>44435</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K66" t="n">
         <v>600</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K67" t="n">
         <v>500</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K68" t="n">
         <v>600</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K69" t="n">
         <v>500</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44272</v>
+        <v>44316</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44272</v>
+        <v>44316</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44398</v>
+        <v>44160</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44398</v>
+        <v>44160</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44355</v>
+        <v>44272</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44355</v>
+        <v>44272</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44217</v>
+        <v>44398</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44217</v>
+        <v>44398</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44334</v>
+        <v>44355</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44334</v>
+        <v>44355</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44168</v>
+        <v>44217</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44168</v>
+        <v>44217</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6937,6 +6937,294 @@
         <v>1</v>
       </c>
       <c r="R91" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>11</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E92" t="n">
+        <v>8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>200</v>
+      </c>
+      <c r="K92" t="n">
+        <v>600</v>
+      </c>
+      <c r="L92" t="n">
+        <v>700</v>
+      </c>
+      <c r="M92" t="n">
+        <v>650</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>11</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E93" t="n">
+        <v>8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>100</v>
+      </c>
+      <c r="K93" t="n">
+        <v>500</v>
+      </c>
+      <c r="L93" t="n">
+        <v>500</v>
+      </c>
+      <c r="M93" t="n">
+        <v>500</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>11</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E94" t="n">
+        <v>8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>200</v>
+      </c>
+      <c r="K94" t="n">
+        <v>600</v>
+      </c>
+      <c r="L94" t="n">
+        <v>700</v>
+      </c>
+      <c r="M94" t="n">
+        <v>650</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>100</v>
+      </c>
+      <c r="K95" t="n">
+        <v>500</v>
+      </c>
+      <c r="L95" t="n">
+        <v>500</v>
+      </c>
+      <c r="M95" t="n">
+        <v>500</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R95"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44285</v>
+        <v>44350</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44285</v>
+        <v>44350</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44203</v>
+        <v>44349</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44203</v>
+        <v>44349</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44365</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44365</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44187</v>
+        <v>44280</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44187</v>
+        <v>44280</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44341</v>
+        <v>44383</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44341</v>
+        <v>44383</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44386</v>
+        <v>44336</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44386</v>
+        <v>44336</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44252</v>
+        <v>44160</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44252</v>
+        <v>44160</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44166</v>
+        <v>44285</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44166</v>
+        <v>44285</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44308</v>
+        <v>44425</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44308</v>
+        <v>44425</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44239</v>
+        <v>44386</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44239</v>
+        <v>44386</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44306</v>
+        <v>44166</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44306</v>
+        <v>44166</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44280</v>
+        <v>44405</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44280</v>
+        <v>44405</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44299</v>
+        <v>44308</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44299</v>
+        <v>44308</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44362</v>
+        <v>44231</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44362</v>
+        <v>44231</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44349</v>
+        <v>44355</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44349</v>
+        <v>44355</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44222</v>
+        <v>44203</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44237</v>
+        <v>44239</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44237</v>
+        <v>44239</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44400</v>
+        <v>44330</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44400</v>
+        <v>44330</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44194</v>
+        <v>44187</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44194</v>
+        <v>44187</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44383</v>
+        <v>44344</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44383</v>
+        <v>44344</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44336</v>
+        <v>44320</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44336</v>
+        <v>44320</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K46" t="n">
         <v>600</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44320</v>
+        <v>44250</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44320</v>
+        <v>44250</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44435</v>
+        <v>44334</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44435</v>
+        <v>44334</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44405</v>
+        <v>44299</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44405</v>
+        <v>44299</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44224</v>
+        <v>44252</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44224</v>
+        <v>44252</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44327</v>
+        <v>44292</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44327</v>
+        <v>44292</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44313</v>
+        <v>44217</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44313</v>
+        <v>44217</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44330</v>
+        <v>44362</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44330</v>
+        <v>44362</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44391</v>
+        <v>44168</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44391</v>
+        <v>44168</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44350</v>
+        <v>44272</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44350</v>
+        <v>44272</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44278</v>
+        <v>44365</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K68" t="n">
         <v>600</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44278</v>
+        <v>44365</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K69" t="n">
         <v>500</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44250</v>
+        <v>44433</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44250</v>
+        <v>44433</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44292</v>
+        <v>44274</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44292</v>
+        <v>44274</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44433</v>
+        <v>44194</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44433</v>
+        <v>44194</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44344</v>
+        <v>44222</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44344</v>
+        <v>44222</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44272</v>
+        <v>44341</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44272</v>
+        <v>44341</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44217</v>
+        <v>44313</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44217</v>
+        <v>44313</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44334</v>
+        <v>44442</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K92" t="n">
         <v>600</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44334</v>
+        <v>44442</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K93" t="n">
         <v>500</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44168</v>
+        <v>44435</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44168</v>
+        <v>44435</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7225,6 +7225,150 @@
         <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E96" t="n">
+        <v>8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>200</v>
+      </c>
+      <c r="K96" t="n">
+        <v>600</v>
+      </c>
+      <c r="L96" t="n">
+        <v>700</v>
+      </c>
+      <c r="M96" t="n">
+        <v>650</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>11</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E97" t="n">
+        <v>8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>100</v>
+      </c>
+      <c r="K97" t="n">
+        <v>500</v>
+      </c>
+      <c r="L97" t="n">
+        <v>500</v>
+      </c>
+      <c r="M97" t="n">
+        <v>500</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44224</v>
+        <v>44292</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44224</v>
+        <v>44292</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44362</v>
+        <v>44217</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44362</v>
+        <v>44217</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44168</v>
+        <v>44362</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44168</v>
+        <v>44362</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44237</v>
+        <v>44341</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44237</v>
+        <v>44341</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44391</v>
+        <v>44237</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44391</v>
+        <v>44237</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44313</v>
+        <v>44391</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44313</v>
+        <v>44391</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44442</v>
+        <v>44313</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K92" t="n">
         <v>600</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44442</v>
+        <v>44313</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K93" t="n">
         <v>500</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44400</v>
+        <v>44435</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44400</v>
+        <v>44435</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7369,6 +7369,150 @@
         <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>11</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E98" t="n">
+        <v>8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>200</v>
+      </c>
+      <c r="K98" t="n">
+        <v>600</v>
+      </c>
+      <c r="L98" t="n">
+        <v>700</v>
+      </c>
+      <c r="M98" t="n">
+        <v>650</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>11</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>100</v>
+      </c>
+      <c r="K99" t="n">
+        <v>500</v>
+      </c>
+      <c r="L99" t="n">
+        <v>500</v>
+      </c>
+      <c r="M99" t="n">
+        <v>500</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44405</v>
+        <v>44453</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44405</v>
+        <v>44453</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44308</v>
+        <v>44405</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44308</v>
+        <v>44405</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44231</v>
+        <v>44308</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44231</v>
+        <v>44308</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44355</v>
+        <v>44231</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44355</v>
+        <v>44231</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44203</v>
+        <v>44355</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44203</v>
+        <v>44355</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44330</v>
+        <v>44239</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44330</v>
+        <v>44239</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44344</v>
+        <v>44187</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44344</v>
+        <v>44187</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44320</v>
+        <v>44344</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44320</v>
+        <v>44344</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44278</v>
+        <v>44320</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
         <v>600</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44278</v>
+        <v>44320</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44250</v>
+        <v>44278</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K48" t="n">
         <v>600</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44250</v>
+        <v>44278</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K49" t="n">
         <v>500</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44252</v>
+        <v>44299</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44252</v>
+        <v>44299</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44447</v>
+        <v>44252</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44447</v>
+        <v>44252</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44224</v>
+        <v>44292</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44224</v>
+        <v>44292</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44362</v>
+        <v>44217</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44362</v>
+        <v>44217</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44168</v>
+        <v>44362</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44168</v>
+        <v>44362</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44341</v>
+        <v>44316</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44237</v>
+        <v>44341</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44237</v>
+        <v>44341</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44391</v>
+        <v>44237</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44391</v>
+        <v>44237</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44313</v>
+        <v>44391</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44313</v>
+        <v>44391</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44442</v>
+        <v>44313</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44442</v>
+        <v>44313</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
         <v>600</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44400</v>
+        <v>44435</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44400</v>
+        <v>44435</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7513,6 +7513,150 @@
         <v>1</v>
       </c>
       <c r="R99" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>11</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>200</v>
+      </c>
+      <c r="K100" t="n">
+        <v>600</v>
+      </c>
+      <c r="L100" t="n">
+        <v>700</v>
+      </c>
+      <c r="M100" t="n">
+        <v>650</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>11</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E101" t="n">
+        <v>8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>100</v>
+      </c>
+      <c r="K101" t="n">
+        <v>500</v>
+      </c>
+      <c r="L101" t="n">
+        <v>500</v>
+      </c>
+      <c r="M101" t="n">
+        <v>500</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44350</v>
+        <v>44278</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
         <v>600</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44350</v>
+        <v>44278</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
         <v>500</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44349</v>
+        <v>44194</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44349</v>
+        <v>44194</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44362</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44280</v>
+        <v>44398</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44280</v>
+        <v>44398</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44383</v>
+        <v>44222</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44383</v>
+        <v>44222</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44160</v>
+        <v>44231</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44160</v>
+        <v>44231</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44285</v>
+        <v>44435</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44285</v>
+        <v>44435</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44425</v>
+        <v>44224</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44425</v>
+        <v>44224</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44386</v>
+        <v>44313</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44386</v>
+        <v>44313</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44453</v>
+        <v>44355</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44453</v>
+        <v>44355</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44405</v>
+        <v>44299</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44405</v>
+        <v>44299</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44308</v>
+        <v>44320</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44308</v>
+        <v>44320</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44203</v>
+        <v>44250</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44203</v>
+        <v>44250</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44239</v>
+        <v>44327</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44239</v>
+        <v>44327</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44383</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44330</v>
+        <v>44383</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44187</v>
+        <v>44405</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44187</v>
+        <v>44405</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44344</v>
+        <v>44336</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44344</v>
+        <v>44336</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44320</v>
+        <v>44341</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44320</v>
+        <v>44341</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44278</v>
+        <v>44274</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
         <v>600</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44278</v>
+        <v>44274</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
         <v>500</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44250</v>
+        <v>44400</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44250</v>
+        <v>44400</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44334</v>
+        <v>44442</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" t="n">
         <v>600</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44334</v>
+        <v>44442</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K53" t="n">
         <v>500</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44299</v>
+        <v>44453</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44299</v>
+        <v>44453</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44447</v>
+        <v>44285</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44447</v>
+        <v>44285</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44292</v>
+        <v>44344</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44292</v>
+        <v>44344</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44224</v>
+        <v>44217</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44224</v>
+        <v>44217</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44217</v>
+        <v>44350</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44217</v>
+        <v>44350</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44168</v>
+        <v>44447</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44168</v>
+        <v>44447</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44272</v>
+        <v>44187</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44272</v>
+        <v>44187</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44365</v>
+        <v>44386</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44365</v>
+        <v>44386</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44358</v>
+        <v>44308</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44358</v>
+        <v>44308</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44433</v>
+        <v>44252</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44274</v>
+        <v>44166</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44274</v>
+        <v>44166</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44194</v>
+        <v>44168</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44194</v>
+        <v>44168</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44222</v>
+        <v>44433</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44222</v>
+        <v>44433</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44398</v>
+        <v>44316</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44398</v>
+        <v>44316</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44316</v>
+        <v>44160</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44316</v>
+        <v>44160</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44341</v>
+        <v>44365</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44341</v>
+        <v>44365</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44237</v>
+        <v>44306</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44237</v>
+        <v>44306</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44391</v>
+        <v>44203</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44391</v>
+        <v>44203</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44313</v>
+        <v>44239</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44313</v>
+        <v>44239</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44442</v>
+        <v>44292</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K96" t="n">
         <v>600</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44442</v>
+        <v>44292</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44435</v>
+        <v>44358</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44435</v>
+        <v>44358</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44400</v>
+        <v>44425</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44400</v>
+        <v>44425</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44280</v>
+        <v>44460</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44280</v>
+        <v>44460</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44187</v>
+        <v>44447</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44187</v>
+        <v>44447</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44203</v>
+        <v>44306</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44203</v>
+        <v>44306</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7657,6 +7657,150 @@
         <v>1</v>
       </c>
       <c r="R101" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>11</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E102" t="n">
+        <v>8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>200</v>
+      </c>
+      <c r="K102" t="n">
+        <v>600</v>
+      </c>
+      <c r="L102" t="n">
+        <v>700</v>
+      </c>
+      <c r="M102" t="n">
+        <v>650</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>11</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E103" t="n">
+        <v>8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>100</v>
+      </c>
+      <c r="K103" t="n">
+        <v>500</v>
+      </c>
+      <c r="L103" t="n">
+        <v>500</v>
+      </c>
+      <c r="M103" t="n">
+        <v>500</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44391</v>
+        <v>44320</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44391</v>
+        <v>44320</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44334</v>
+        <v>44391</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44334</v>
+        <v>44391</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44250</v>
+        <v>44334</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44250</v>
+        <v>44334</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44327</v>
+        <v>44250</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44327</v>
+        <v>44250</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44400</v>
+        <v>44274</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44400</v>
+        <v>44274</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44442</v>
+        <v>44400</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" t="n">
         <v>600</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44442</v>
+        <v>44400</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
         <v>500</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K54" t="n">
         <v>600</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K55" t="n">
         <v>500</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44237</v>
+        <v>44453</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44237</v>
+        <v>44453</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44344</v>
+        <v>44285</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44344</v>
+        <v>44285</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44460</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44460</v>
+        <v>44350</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44280</v>
+        <v>44460</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44280</v>
+        <v>44460</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44187</v>
+        <v>44447</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44187</v>
+        <v>44447</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44203</v>
+        <v>44306</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44203</v>
+        <v>44306</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44239</v>
+        <v>44203</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7801,6 +7801,150 @@
         <v>1</v>
       </c>
       <c r="R103" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>11</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E104" t="n">
+        <v>8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>200</v>
+      </c>
+      <c r="K104" t="n">
+        <v>600</v>
+      </c>
+      <c r="L104" t="n">
+        <v>700</v>
+      </c>
+      <c r="M104" t="n">
+        <v>650</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>11</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E105" t="n">
+        <v>8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>100</v>
+      </c>
+      <c r="K105" t="n">
+        <v>500</v>
+      </c>
+      <c r="L105" t="n">
+        <v>500</v>
+      </c>
+      <c r="M105" t="n">
+        <v>500</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44278</v>
+        <v>44400</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
         <v>600</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44278</v>
+        <v>44400</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
         <v>500</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44362</v>
+        <v>44285</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44398</v>
+        <v>44313</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44398</v>
+        <v>44313</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44222</v>
+        <v>44383</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44222</v>
+        <v>44383</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44349</v>
+        <v>44442</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
         <v>600</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44349</v>
+        <v>44442</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
         <v>500</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44330</v>
+        <v>44237</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44330</v>
+        <v>44237</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44231</v>
+        <v>44398</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44231</v>
+        <v>44398</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44435</v>
+        <v>44194</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44435</v>
+        <v>44194</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44224</v>
+        <v>44341</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44224</v>
+        <v>44341</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44313</v>
+        <v>44160</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44313</v>
+        <v>44160</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44272</v>
+        <v>44460</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44272</v>
+        <v>44460</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44355</v>
+        <v>44299</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44355</v>
+        <v>44299</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44469</v>
+        <v>44217</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44469</v>
+        <v>44217</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44299</v>
+        <v>44365</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44299</v>
+        <v>44365</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44320</v>
+        <v>44405</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44320</v>
+        <v>44405</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44391</v>
+        <v>44222</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44391</v>
+        <v>44222</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44334</v>
+        <v>44272</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44334</v>
+        <v>44272</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44250</v>
+        <v>44327</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44250</v>
+        <v>44327</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44327</v>
+        <v>44355</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44327</v>
+        <v>44355</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44383</v>
+        <v>44278</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K42" t="n">
         <v>600</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44383</v>
+        <v>44278</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K43" t="n">
         <v>500</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44405</v>
+        <v>44336</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44405</v>
+        <v>44336</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44336</v>
+        <v>44308</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44336</v>
+        <v>44308</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44341</v>
+        <v>44330</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44341</v>
+        <v>44330</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44274</v>
+        <v>44224</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44274</v>
+        <v>44224</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44400</v>
+        <v>44447</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44400</v>
+        <v>44447</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44442</v>
+        <v>44316</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K54" t="n">
         <v>600</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44442</v>
+        <v>44316</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
         <v>500</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44453</v>
+        <v>44203</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44453</v>
+        <v>44203</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44237</v>
+        <v>44469</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44237</v>
+        <v>44469</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44285</v>
+        <v>44168</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44285</v>
+        <v>44168</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44217</v>
+        <v>44280</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44217</v>
+        <v>44280</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44350</v>
+        <v>44274</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44350</v>
+        <v>44274</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44460</v>
+        <v>44344</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44460</v>
+        <v>44344</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44280</v>
+        <v>44358</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44280</v>
+        <v>44358</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44447</v>
+        <v>44391</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44447</v>
+        <v>44391</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44187</v>
+        <v>44231</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44187</v>
+        <v>44231</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44386</v>
+        <v>44320</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44386</v>
+        <v>44320</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44308</v>
+        <v>44475</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44308</v>
+        <v>44475</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44166</v>
+        <v>44362</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44166</v>
+        <v>44362</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44168</v>
+        <v>44349</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44168</v>
+        <v>44349</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44433</v>
+        <v>44350</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44433</v>
+        <v>44350</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44316</v>
+        <v>44453</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44316</v>
+        <v>44453</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44160</v>
+        <v>44435</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44160</v>
+        <v>44435</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44365</v>
+        <v>44433</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44365</v>
+        <v>44433</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44306</v>
+        <v>44166</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44306</v>
+        <v>44166</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44203</v>
+        <v>44334</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44203</v>
+        <v>44334</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44239</v>
+        <v>44386</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44239</v>
+        <v>44386</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44292</v>
+        <v>44306</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44292</v>
+        <v>44306</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44358</v>
+        <v>44425</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44358</v>
+        <v>44425</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44425</v>
+        <v>44187</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44425</v>
+        <v>44187</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7945,6 +7945,150 @@
         <v>1</v>
       </c>
       <c r="R105" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>11</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>200</v>
+      </c>
+      <c r="K106" t="n">
+        <v>600</v>
+      </c>
+      <c r="L106" t="n">
+        <v>700</v>
+      </c>
+      <c r="M106" t="n">
+        <v>650</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>11</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E107" t="n">
+        <v>8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>100</v>
+      </c>
+      <c r="K107" t="n">
+        <v>500</v>
+      </c>
+      <c r="L107" t="n">
+        <v>500</v>
+      </c>
+      <c r="M107" t="n">
+        <v>500</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,16 +8079,160 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>11</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>200</v>
+      </c>
+      <c r="K108" t="n">
+        <v>600</v>
+      </c>
+      <c r="L108" t="n">
+        <v>700</v>
+      </c>
+      <c r="M108" t="n">
+        <v>650</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P107" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>1</v>
-      </c>
-      <c r="R107" t="inlineStr">
+      <c r="P108" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>11</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E109" t="n">
+        <v>8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>100</v>
+      </c>
+      <c r="K109" t="n">
+        <v>500</v>
+      </c>
+      <c r="L109" t="n">
+        <v>500</v>
+      </c>
+      <c r="M109" t="n">
+        <v>500</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44280</v>
+        <v>44292</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44280</v>
+        <v>44292</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P84" t="n">
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P86" t="n">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P87" t="n">
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8223,16 +8223,160 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>11</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E110" t="n">
+        <v>8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>200</v>
+      </c>
+      <c r="K110" t="n">
+        <v>600</v>
+      </c>
+      <c r="L110" t="n">
+        <v>700</v>
+      </c>
+      <c r="M110" t="n">
+        <v>650</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P109" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>1</v>
-      </c>
-      <c r="R109" t="inlineStr">
+      <c r="P110" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>11</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E111" t="n">
+        <v>8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>100</v>
+      </c>
+      <c r="K111" t="n">
+        <v>500</v>
+      </c>
+      <c r="L111" t="n">
+        <v>500</v>
+      </c>
+      <c r="M111" t="n">
+        <v>500</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44383</v>
+        <v>44490</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44383</v>
+        <v>44490</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44442</v>
+        <v>44383</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
         <v>600</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44442</v>
+        <v>44383</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
         <v>500</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44237</v>
+        <v>44442</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
         <v>600</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44237</v>
+        <v>44442</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
         <v>500</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44194</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44194</v>
+        <v>44398</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44341</v>
+        <v>44194</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44341</v>
+        <v>44194</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44160</v>
+        <v>44341</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44160</v>
+        <v>44341</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44460</v>
+        <v>44160</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44460</v>
+        <v>44160</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44299</v>
+        <v>44460</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44299</v>
+        <v>44460</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44217</v>
+        <v>44299</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44217</v>
+        <v>44299</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44365</v>
+        <v>44217</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44365</v>
+        <v>44217</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44405</v>
+        <v>44365</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44405</v>
+        <v>44365</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44222</v>
+        <v>44405</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44222</v>
+        <v>44405</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44272</v>
+        <v>44222</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44272</v>
+        <v>44222</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44327</v>
+        <v>44272</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44327</v>
+        <v>44272</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44355</v>
+        <v>44327</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44355</v>
+        <v>44327</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44278</v>
+        <v>44355</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K42" t="n">
         <v>600</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44278</v>
+        <v>44355</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3453,7 +3453,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K43" t="n">
         <v>500</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44336</v>
+        <v>44278</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" t="n">
         <v>600</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44336</v>
+        <v>44278</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K45" t="n">
         <v>500</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44224</v>
+        <v>44330</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44224</v>
+        <v>44330</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44447</v>
+        <v>44224</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44447</v>
+        <v>44224</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44316</v>
+        <v>44447</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44316</v>
+        <v>44447</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44203</v>
+        <v>44316</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44203</v>
+        <v>44316</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44469</v>
+        <v>44203</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44280</v>
+        <v>44292</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44280</v>
+        <v>44292</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P86" t="n">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P87" t="n">
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P88" t="n">
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P89" t="n">
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44166</v>
+        <v>44433</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44425</v>
+        <v>44306</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8367,16 +8367,160 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>11</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E112" t="n">
+        <v>8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>200</v>
+      </c>
+      <c r="K112" t="n">
+        <v>600</v>
+      </c>
+      <c r="L112" t="n">
+        <v>700</v>
+      </c>
+      <c r="M112" t="n">
+        <v>650</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P111" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1</v>
-      </c>
-      <c r="R111" t="inlineStr">
+      <c r="P112" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>11</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>44250</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>100</v>
+      </c>
+      <c r="K113" t="n">
+        <v>500</v>
+      </c>
+      <c r="L113" t="n">
+        <v>500</v>
+      </c>
+      <c r="M113" t="n">
+        <v>500</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44400</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44400</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44239</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44239</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44285</v>
+        <v>44239</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44285</v>
+        <v>44239</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44313</v>
+        <v>44285</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44313</v>
+        <v>44285</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44490</v>
+        <v>44460</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44490</v>
+        <v>44460</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44383</v>
+        <v>44349</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44383</v>
+        <v>44349</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44442</v>
+        <v>44187</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
         <v>600</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44442</v>
+        <v>44187</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>500</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44237</v>
+        <v>44203</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44237</v>
+        <v>44203</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44398</v>
+        <v>44475</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44398</v>
+        <v>44475</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44194</v>
+        <v>44299</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44194</v>
+        <v>44299</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44341</v>
+        <v>44320</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44341</v>
+        <v>44320</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44160</v>
+        <v>44231</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44160</v>
+        <v>44231</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44460</v>
+        <v>44391</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44460</v>
+        <v>44391</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44299</v>
+        <v>44365</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44299</v>
+        <v>44365</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44217</v>
+        <v>44252</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44217</v>
+        <v>44252</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44365</v>
+        <v>44355</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44405</v>
+        <v>44237</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44405</v>
+        <v>44237</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44222</v>
+        <v>44344</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44222</v>
+        <v>44344</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44272</v>
+        <v>44447</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44272</v>
+        <v>44447</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44355</v>
+        <v>44488</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44355</v>
+        <v>44488</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44278</v>
+        <v>44435</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K44" t="n">
         <v>600</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44278</v>
+        <v>44435</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
         <v>500</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44336</v>
+        <v>44313</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44336</v>
+        <v>44313</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44224</v>
+        <v>44358</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44224</v>
+        <v>44358</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44447</v>
+        <v>44336</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44447</v>
+        <v>44336</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44316</v>
+        <v>44194</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44316</v>
+        <v>44194</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44469</v>
+        <v>44274</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44469</v>
+        <v>44274</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44488</v>
+        <v>44222</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44488</v>
+        <v>44222</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44292</v>
+        <v>44405</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44292</v>
+        <v>44405</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44280</v>
+        <v>44350</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44280</v>
+        <v>44350</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K70" t="n">
         <v>600</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K71" t="n">
         <v>500</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44344</v>
+        <v>44272</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44344</v>
+        <v>44272</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44358</v>
+        <v>44341</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44358</v>
+        <v>44341</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44391</v>
+        <v>44308</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44391</v>
+        <v>44308</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44231</v>
+        <v>44398</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44231</v>
+        <v>44398</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44320</v>
+        <v>44490</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44320</v>
+        <v>44490</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44475</v>
+        <v>44316</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44475</v>
+        <v>44316</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44252</v>
+        <v>44453</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44252</v>
+        <v>44453</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44349</v>
+        <v>44442</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K88" t="n">
         <v>600</v>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P88" t="n">
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44349</v>
+        <v>44442</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K89" t="n">
         <v>500</v>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P89" t="n">
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44350</v>
+        <v>44476</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44350</v>
+        <v>44476</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44453</v>
+        <v>44166</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44453</v>
+        <v>44166</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44435</v>
+        <v>44292</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44435</v>
+        <v>44292</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44433</v>
+        <v>44306</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44433</v>
+        <v>44306</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44166</v>
+        <v>44469</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44166</v>
+        <v>44469</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44334</v>
+        <v>44425</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44334</v>
+        <v>44425</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44476</v>
+        <v>44168</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44476</v>
+        <v>44168</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44386</v>
+        <v>44400</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44386</v>
+        <v>44400</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44425</v>
+        <v>44217</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44425</v>
+        <v>44217</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44187</v>
+        <v>44383</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44187</v>
+        <v>44383</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44250</v>
+        <v>44433</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44250</v>
+        <v>44433</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P113" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44160</v>
+        <v>44512</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44222</v>
+        <v>44274</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44222</v>
+        <v>44274</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44334</v>
+        <v>44222</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44334</v>
+        <v>44222</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K70" t="n">
         <v>600</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K71" t="n">
         <v>500</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K72" t="n">
         <v>600</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44272</v>
+        <v>44278</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K73" t="n">
         <v>500</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44341</v>
+        <v>44272</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44341</v>
+        <v>44272</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44308</v>
+        <v>44341</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44308</v>
+        <v>44341</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44398</v>
+        <v>44308</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44398</v>
+        <v>44308</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44490</v>
+        <v>44398</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44490</v>
+        <v>44398</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44316</v>
+        <v>44490</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44316</v>
+        <v>44490</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44280</v>
+        <v>44453</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44280</v>
+        <v>44453</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44442</v>
+        <v>44280</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K88" t="n">
         <v>600</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44442</v>
+        <v>44280</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K89" t="n">
         <v>500</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K90" t="n">
         <v>600</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44476</v>
+        <v>44442</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K91" t="n">
         <v>500</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44166</v>
+        <v>44476</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44166</v>
+        <v>44476</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44292</v>
+        <v>44166</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44292</v>
+        <v>44166</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44306</v>
+        <v>44292</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44306</v>
+        <v>44292</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44425</v>
+        <v>44469</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44425</v>
+        <v>44469</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44400</v>
+        <v>44168</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44400</v>
+        <v>44168</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44330</v>
+        <v>44400</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44330</v>
+        <v>44400</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8521,6 +8521,150 @@
         <v>1</v>
       </c>
       <c r="R113" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>11</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>200</v>
+      </c>
+      <c r="K114" t="n">
+        <v>600</v>
+      </c>
+      <c r="L114" t="n">
+        <v>700</v>
+      </c>
+      <c r="M114" t="n">
+        <v>650</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>11</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="E115" t="n">
+        <v>8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>100</v>
+      </c>
+      <c r="K115" t="n">
+        <v>500</v>
+      </c>
+      <c r="L115" t="n">
+        <v>500</v>
+      </c>
+      <c r="M115" t="n">
+        <v>500</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>44231</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44231</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44362</v>
+        <v>44488</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44239</v>
+        <v>44285</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44239</v>
+        <v>44285</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44285</v>
+        <v>44274</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44285</v>
+        <v>44274</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44460</v>
+        <v>44490</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44460</v>
+        <v>44490</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44349</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44349</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44187</v>
+        <v>44160</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44203</v>
+        <v>44365</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44203</v>
+        <v>44365</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44299</v>
+        <v>44313</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44299</v>
+        <v>44313</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44320</v>
+        <v>44334</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44320</v>
+        <v>44334</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44231</v>
+        <v>44316</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44231</v>
+        <v>44316</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44391</v>
+        <v>44280</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44252</v>
+        <v>44383</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44252</v>
+        <v>44383</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44355</v>
+        <v>44433</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44355</v>
+        <v>44433</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44237</v>
+        <v>44224</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44237</v>
+        <v>44224</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44344</v>
+        <v>44512</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44344</v>
+        <v>44512</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44447</v>
+        <v>44460</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44447</v>
+        <v>44460</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44224</v>
+        <v>44355</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44224</v>
+        <v>44355</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44488</v>
+        <v>44358</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44488</v>
+        <v>44358</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44435</v>
+        <v>44405</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44313</v>
+        <v>44250</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44313</v>
+        <v>44250</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44327</v>
+        <v>44435</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44327</v>
+        <v>44435</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44358</v>
+        <v>44442</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" t="n">
         <v>600</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44358</v>
+        <v>44442</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K53" t="n">
         <v>500</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44336</v>
+        <v>44168</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44336</v>
+        <v>44168</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44194</v>
+        <v>44203</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44194</v>
+        <v>44203</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44512</v>
+        <v>44475</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44512</v>
+        <v>44475</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44160</v>
+        <v>44217</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44160</v>
+        <v>44217</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44274</v>
+        <v>44320</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44274</v>
+        <v>44320</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44334</v>
+        <v>44292</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44334</v>
+        <v>44292</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44405</v>
+        <v>44308</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44405</v>
+        <v>44308</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44278</v>
+        <v>44349</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K72" t="n">
         <v>600</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44278</v>
+        <v>44349</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K73" t="n">
         <v>500</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44272</v>
+        <v>44306</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44272</v>
+        <v>44306</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44341</v>
+        <v>44278</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K76" t="n">
         <v>600</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44341</v>
+        <v>44278</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K77" t="n">
         <v>500</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44308</v>
+        <v>44237</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44308</v>
+        <v>44237</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44398</v>
+        <v>44469</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44398</v>
+        <v>44469</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44490</v>
+        <v>44453</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44490</v>
+        <v>44453</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44453</v>
+        <v>44336</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44453</v>
+        <v>44336</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44280</v>
+        <v>44239</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44280</v>
+        <v>44239</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44442</v>
+        <v>44222</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K90" t="n">
         <v>600</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44442</v>
+        <v>44222</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K91" t="n">
         <v>500</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44476</v>
+        <v>44362</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44476</v>
+        <v>44362</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44166</v>
+        <v>44341</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44166</v>
+        <v>44341</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44306</v>
+        <v>44272</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44306</v>
+        <v>44272</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44469</v>
+        <v>44166</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44469</v>
+        <v>44166</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44400</v>
+        <v>44327</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44400</v>
+        <v>44327</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44383</v>
+        <v>44194</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44383</v>
+        <v>44194</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44433</v>
+        <v>44400</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44433</v>
+        <v>44400</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44299</v>
+        <v>44523</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44299</v>
+        <v>44523</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44336</v>
+        <v>44299</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44336</v>
+        <v>44299</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44239</v>
+        <v>44336</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44239</v>
+        <v>44336</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44341</v>
+        <v>44362</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44341</v>
+        <v>44362</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44272</v>
+        <v>44350</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44272</v>
+        <v>44350</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44327</v>
+        <v>44425</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44327</v>
+        <v>44425</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44194</v>
+        <v>44330</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44194</v>
+        <v>44330</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44400</v>
+        <v>44194</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44400</v>
+        <v>44194</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8665,6 +8665,150 @@
         <v>1</v>
       </c>
       <c r="R115" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>11</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E116" t="n">
+        <v>8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>200</v>
+      </c>
+      <c r="K116" t="n">
+        <v>600</v>
+      </c>
+      <c r="L116" t="n">
+        <v>700</v>
+      </c>
+      <c r="M116" t="n">
+        <v>650</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>11</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E117" t="n">
+        <v>8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>100</v>
+      </c>
+      <c r="K117" t="n">
+        <v>500</v>
+      </c>
+      <c r="L117" t="n">
+        <v>500</v>
+      </c>
+      <c r="M117" t="n">
+        <v>500</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44433</v>
+        <v>44525</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44433</v>
+        <v>44525</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44224</v>
+        <v>44433</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44224</v>
+        <v>44433</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44512</v>
+        <v>44224</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44512</v>
+        <v>44224</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44460</v>
+        <v>44512</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44460</v>
+        <v>44512</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44355</v>
+        <v>44460</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44355</v>
+        <v>44460</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44405</v>
+        <v>44358</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44405</v>
+        <v>44358</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44250</v>
+        <v>44405</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44250</v>
+        <v>44405</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44386</v>
+        <v>44250</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44386</v>
+        <v>44250</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44435</v>
+        <v>44386</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44435</v>
+        <v>44386</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" t="n">
         <v>600</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
         <v>500</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44168</v>
+        <v>44442</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K54" t="n">
         <v>600</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44168</v>
+        <v>44442</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K55" t="n">
         <v>500</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44203</v>
+        <v>44168</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44475</v>
+        <v>44203</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44475</v>
+        <v>44203</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44217</v>
+        <v>44475</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44217</v>
+        <v>44475</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44320</v>
+        <v>44217</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44320</v>
+        <v>44217</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44252</v>
+        <v>44320</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44252</v>
+        <v>44320</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44292</v>
+        <v>44252</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44292</v>
+        <v>44252</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44308</v>
+        <v>44292</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44308</v>
+        <v>44292</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44398</v>
+        <v>44308</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44398</v>
+        <v>44308</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44306</v>
+        <v>44349</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44306</v>
+        <v>44349</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44278</v>
+        <v>44306</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K76" t="n">
         <v>600</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44278</v>
+        <v>44306</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K77" t="n">
         <v>500</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44237</v>
+        <v>44278</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K78" t="n">
         <v>600</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44237</v>
+        <v>44278</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K79" t="n">
         <v>500</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44453</v>
+        <v>44469</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44453</v>
+        <v>44469</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44523</v>
+        <v>44453</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44523</v>
+        <v>44453</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44299</v>
+        <v>44523</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44299</v>
+        <v>44523</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44336</v>
+        <v>44299</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44336</v>
+        <v>44299</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44239</v>
+        <v>44336</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44239</v>
+        <v>44336</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44222</v>
+        <v>44239</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44362</v>
+        <v>44222</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44341</v>
+        <v>44362</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44341</v>
+        <v>44362</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44272</v>
+        <v>44350</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44272</v>
+        <v>44350</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44327</v>
+        <v>44425</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44327</v>
+        <v>44425</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44330</v>
+        <v>44391</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44194</v>
+        <v>44330</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44194</v>
+        <v>44330</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44400</v>
+        <v>44194</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44400</v>
+        <v>44194</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8809,6 +8809,150 @@
         <v>1</v>
       </c>
       <c r="R117" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>11</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E118" t="n">
+        <v>8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>200</v>
+      </c>
+      <c r="K118" t="n">
+        <v>600</v>
+      </c>
+      <c r="L118" t="n">
+        <v>700</v>
+      </c>
+      <c r="M118" t="n">
+        <v>650</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>11</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E119" t="n">
+        <v>8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>100</v>
+      </c>
+      <c r="K119" t="n">
+        <v>500</v>
+      </c>
+      <c r="L119" t="n">
+        <v>500</v>
+      </c>
+      <c r="M119" t="n">
+        <v>500</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44231</v>
+        <v>44203</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44475</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44488</v>
+        <v>44475</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44285</v>
+        <v>44217</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44285</v>
+        <v>44217</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44274</v>
+        <v>44391</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44274</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44490</v>
+        <v>44433</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44490</v>
+        <v>44433</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44405</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44405</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44160</v>
+        <v>44488</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44160</v>
+        <v>44488</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44365</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44365</v>
+        <v>44425</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44476</v>
+        <v>44187</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44476</v>
+        <v>44187</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44313</v>
+        <v>44523</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44313</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44316</v>
+        <v>44330</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44280</v>
+        <v>44222</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44280</v>
+        <v>44222</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44344</v>
+        <v>44460</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44344</v>
+        <v>44460</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44383</v>
+        <v>44442</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K30" t="n">
         <v>600</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44383</v>
+        <v>44442</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K31" t="n">
         <v>500</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44525</v>
+        <v>44320</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44525</v>
+        <v>44320</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44433</v>
+        <v>44194</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44433</v>
+        <v>44194</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44224</v>
+        <v>44341</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44224</v>
+        <v>44341</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44512</v>
+        <v>44365</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44512</v>
+        <v>44365</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44460</v>
+        <v>44349</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44460</v>
+        <v>44349</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44405</v>
+        <v>44327</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44405</v>
+        <v>44327</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44250</v>
+        <v>44272</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44250</v>
+        <v>44272</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44386</v>
+        <v>44308</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44386</v>
+        <v>44308</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44435</v>
+        <v>44336</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44435</v>
+        <v>44336</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44442</v>
+        <v>44292</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K54" t="n">
         <v>600</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44442</v>
+        <v>44292</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K55" t="n">
         <v>500</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44203</v>
+        <v>44400</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44203</v>
+        <v>44400</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44475</v>
+        <v>44250</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44475</v>
+        <v>44250</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44217</v>
+        <v>44476</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44217</v>
+        <v>44476</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44320</v>
+        <v>44306</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44320</v>
+        <v>44306</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44252</v>
+        <v>44285</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44252</v>
+        <v>44285</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44308</v>
+        <v>44355</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44308</v>
+        <v>44355</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44398</v>
+        <v>44386</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44398</v>
+        <v>44386</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44349</v>
+        <v>44168</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44349</v>
+        <v>44168</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44306</v>
+        <v>44313</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44278</v>
+        <v>44435</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K78" t="n">
         <v>600</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44278</v>
+        <v>44435</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K79" t="n">
         <v>500</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44469</v>
+        <v>44166</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44469</v>
+        <v>44166</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44453</v>
+        <v>44278</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K84" t="n">
         <v>600</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44453</v>
+        <v>44278</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K85" t="n">
         <v>500</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44523</v>
+        <v>44280</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44523</v>
+        <v>44280</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44299</v>
+        <v>44525</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44299</v>
+        <v>44525</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44239</v>
+        <v>44299</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44239</v>
+        <v>44299</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44222</v>
+        <v>44316</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44222</v>
+        <v>44316</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44362</v>
+        <v>44239</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44362</v>
+        <v>44239</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44341</v>
+        <v>44512</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44341</v>
+        <v>44512</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44350</v>
+        <v>44469</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44350</v>
+        <v>44469</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44272</v>
+        <v>44160</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44272</v>
+        <v>44160</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44166</v>
+        <v>44350</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44166</v>
+        <v>44350</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44447</v>
+        <v>44358</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44447</v>
+        <v>44358</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44425</v>
+        <v>44453</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44425</v>
+        <v>44453</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44327</v>
+        <v>44344</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44327</v>
+        <v>44344</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44391</v>
+        <v>44224</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44330</v>
+        <v>44447</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44330</v>
+        <v>44447</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44400</v>
+        <v>44490</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44400</v>
+        <v>44490</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44203</v>
+        <v>44460</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44203</v>
+        <v>44460</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44475</v>
+        <v>44400</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44475</v>
+        <v>44400</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44433</v>
+        <v>44334</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44433</v>
+        <v>44334</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44405</v>
+        <v>44453</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44405</v>
+        <v>44453</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44488</v>
+        <v>44362</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44488</v>
+        <v>44362</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44187</v>
+        <v>44336</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44187</v>
+        <v>44336</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44334</v>
+        <v>44355</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44334</v>
+        <v>44355</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44330</v>
+        <v>44442</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K24" t="n">
         <v>600</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44330</v>
+        <v>44442</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K25" t="n">
         <v>500</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44222</v>
+        <v>44358</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44222</v>
+        <v>44358</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44460</v>
+        <v>44512</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44460</v>
+        <v>44512</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44442</v>
+        <v>44203</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K30" t="n">
         <v>600</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44442</v>
+        <v>44203</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
         <v>500</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44194</v>
+        <v>44274</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44365</v>
+        <v>44237</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44365</v>
+        <v>44237</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44349</v>
+        <v>44252</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44362</v>
+        <v>44349</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44362</v>
+        <v>44349</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44327</v>
+        <v>44222</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44327</v>
+        <v>44222</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44272</v>
+        <v>44292</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44272</v>
+        <v>44292</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44308</v>
+        <v>44299</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44308</v>
+        <v>44299</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44336</v>
+        <v>44166</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44336</v>
+        <v>44166</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44292</v>
+        <v>44327</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44292</v>
+        <v>44327</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44252</v>
+        <v>44316</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44252</v>
+        <v>44316</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44400</v>
+        <v>44469</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44400</v>
+        <v>44469</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44306</v>
+        <v>44525</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44306</v>
+        <v>44525</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44285</v>
+        <v>44306</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44285</v>
+        <v>44306</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44237</v>
+        <v>44475</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44237</v>
+        <v>44475</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44355</v>
+        <v>44425</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44355</v>
+        <v>44425</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44313</v>
+        <v>44168</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44313</v>
+        <v>44168</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44435</v>
+        <v>44447</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44435</v>
+        <v>44447</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44231</v>
+        <v>44285</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44166</v>
+        <v>44160</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44278</v>
+        <v>44231</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6405,7 +6405,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K84" t="n">
         <v>600</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44278</v>
+        <v>44231</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K85" t="n">
         <v>500</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44280</v>
+        <v>44490</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44280</v>
+        <v>44490</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44525</v>
+        <v>44341</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44525</v>
+        <v>44341</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44383</v>
+        <v>44391</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44383</v>
+        <v>44391</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44299</v>
+        <v>44386</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44299</v>
+        <v>44386</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44316</v>
+        <v>44278</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44316</v>
+        <v>44278</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44512</v>
+        <v>44187</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44512</v>
+        <v>44187</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44469</v>
+        <v>44350</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44469</v>
+        <v>44350</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44160</v>
+        <v>44405</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44160</v>
+        <v>44405</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44350</v>
+        <v>44224</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44350</v>
+        <v>44224</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44358</v>
+        <v>44398</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44358</v>
+        <v>44398</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44453</v>
+        <v>44239</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44453</v>
+        <v>44239</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44224</v>
+        <v>44365</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44224</v>
+        <v>44365</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44447</v>
+        <v>44194</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44447</v>
+        <v>44194</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44274</v>
+        <v>44313</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44274</v>
+        <v>44313</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44490</v>
+        <v>44272</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44490</v>
+        <v>44272</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44341</v>
+        <v>44490</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44341</v>
+        <v>44490</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44391</v>
+        <v>44341</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44391</v>
+        <v>44341</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44386</v>
+        <v>44391</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44386</v>
+        <v>44391</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44278</v>
+        <v>44386</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44278</v>
+        <v>44386</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
         <v>600</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44398</v>
+        <v>44224</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44398</v>
+        <v>44224</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44239</v>
+        <v>44398</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44239</v>
+        <v>44398</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44272</v>
+        <v>44313</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44272</v>
+        <v>44313</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8953,6 +8953,150 @@
         <v>1</v>
       </c>
       <c r="R119" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>11</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E120" t="n">
+        <v>8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>200</v>
+      </c>
+      <c r="K120" t="n">
+        <v>600</v>
+      </c>
+      <c r="L120" t="n">
+        <v>700</v>
+      </c>
+      <c r="M120" t="n">
+        <v>650</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>11</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E121" t="n">
+        <v>8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>100</v>
+      </c>
+      <c r="K121" t="n">
+        <v>500</v>
+      </c>
+      <c r="L121" t="n">
+        <v>500</v>
+      </c>
+      <c r="M121" t="n">
+        <v>500</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1</v>
+      </c>
+      <c r="R121" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R121"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44336</v>
+        <v>44565</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44336</v>
+        <v>44565</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44523</v>
+        <v>44336</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44336</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44355</v>
+        <v>44523</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44355</v>
+        <v>44523</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44442</v>
+        <v>44355</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K24" t="n">
         <v>600</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44442</v>
+        <v>44355</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K25" t="n">
         <v>500</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44358</v>
+        <v>44442</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K26" t="n">
         <v>600</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44358</v>
+        <v>44442</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K27" t="n">
         <v>500</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44512</v>
+        <v>44358</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44512</v>
+        <v>44358</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44203</v>
+        <v>44512</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44203</v>
+        <v>44512</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44320</v>
+        <v>44203</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44320</v>
+        <v>44203</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44274</v>
+        <v>44320</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44274</v>
+        <v>44320</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44488</v>
+        <v>44274</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44488</v>
+        <v>44274</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44237</v>
+        <v>44488</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44237</v>
+        <v>44488</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44383</v>
+        <v>44252</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44383</v>
+        <v>44252</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44349</v>
+        <v>44383</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44349</v>
+        <v>44383</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44222</v>
+        <v>44349</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44222</v>
+        <v>44349</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44292</v>
+        <v>44222</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44292</v>
+        <v>44222</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44299</v>
+        <v>44292</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44299</v>
+        <v>44292</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44166</v>
+        <v>44299</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44166</v>
+        <v>44299</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44327</v>
+        <v>44166</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44327</v>
+        <v>44166</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44330</v>
+        <v>44469</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44330</v>
+        <v>44469</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44280</v>
+        <v>44330</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44280</v>
+        <v>44330</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44525</v>
+        <v>44280</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44525</v>
+        <v>44280</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44306</v>
+        <v>44525</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44306</v>
+        <v>44525</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44475</v>
+        <v>44306</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44475</v>
+        <v>44306</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44425</v>
+        <v>44475</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44425</v>
+        <v>44475</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44476</v>
+        <v>44425</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44476</v>
+        <v>44425</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44447</v>
+        <v>44168</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44447</v>
+        <v>44168</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44553</v>
+        <v>44447</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44553</v>
+        <v>44447</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44285</v>
+        <v>44553</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44231</v>
+        <v>44160</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44341</v>
+        <v>44490</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44341</v>
+        <v>44490</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44391</v>
+        <v>44341</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44391</v>
+        <v>44341</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44386</v>
+        <v>44391</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44386</v>
+        <v>44391</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44278</v>
+        <v>44386</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K96" t="n">
         <v>600</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44278</v>
+        <v>44386</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K98" t="n">
         <v>600</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K99" t="n">
         <v>500</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44398</v>
+        <v>44224</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44398</v>
+        <v>44224</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44239</v>
+        <v>44398</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44239</v>
+        <v>44398</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44272</v>
+        <v>44313</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44272</v>
+        <v>44313</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9097,6 +9097,150 @@
         <v>1</v>
       </c>
       <c r="R121" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>11</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E122" t="n">
+        <v>8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>200</v>
+      </c>
+      <c r="K122" t="n">
+        <v>600</v>
+      </c>
+      <c r="L122" t="n">
+        <v>700</v>
+      </c>
+      <c r="M122" t="n">
+        <v>650</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1</v>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>11</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E123" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>100</v>
+      </c>
+      <c r="K123" t="n">
+        <v>500</v>
+      </c>
+      <c r="L123" t="n">
+        <v>500</v>
+      </c>
+      <c r="M123" t="n">
+        <v>500</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44460</v>
+        <v>44386</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44460</v>
+        <v>44386</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44400</v>
+        <v>44224</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44400</v>
+        <v>44224</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44217</v>
+        <v>44274</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44217</v>
+        <v>44274</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44433</v>
+        <v>44203</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44433</v>
+        <v>44203</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44334</v>
+        <v>44565</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44334</v>
+        <v>44565</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44453</v>
+        <v>44355</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44453</v>
+        <v>44355</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44362</v>
+        <v>44553</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44362</v>
+        <v>44553</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44435</v>
+        <v>44252</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44435</v>
+        <v>44252</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44565</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44565</v>
+        <v>44398</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44336</v>
+        <v>44447</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44336</v>
+        <v>44447</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44523</v>
+        <v>44222</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44523</v>
+        <v>44222</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44355</v>
+        <v>44469</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44355</v>
+        <v>44469</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44442</v>
+        <v>44362</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K26" t="n">
         <v>600</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44442</v>
+        <v>44362</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K27" t="n">
         <v>500</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44358</v>
+        <v>44383</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44358</v>
+        <v>44383</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44512</v>
+        <v>44358</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44512</v>
+        <v>44358</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44203</v>
+        <v>44425</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44203</v>
+        <v>44425</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44320</v>
+        <v>44365</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44320</v>
+        <v>44365</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44274</v>
+        <v>44217</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44274</v>
+        <v>44217</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44488</v>
+        <v>44344</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44488</v>
+        <v>44344</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44237</v>
+        <v>44285</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44237</v>
+        <v>44285</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44383</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44383</v>
+        <v>44166</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44349</v>
+        <v>44442</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K46" t="n">
         <v>600</v>
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44349</v>
+        <v>44442</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44222</v>
+        <v>44435</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44222</v>
+        <v>44435</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44292</v>
+        <v>44231</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44292</v>
+        <v>44231</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44299</v>
+        <v>44349</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44299</v>
+        <v>44349</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44166</v>
+        <v>44187</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44166</v>
+        <v>44187</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44327</v>
+        <v>44391</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44327</v>
+        <v>44391</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44330</v>
+        <v>44400</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44330</v>
+        <v>44400</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44280</v>
+        <v>44350</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44280</v>
+        <v>44350</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44525</v>
+        <v>44453</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44525</v>
+        <v>44453</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44306</v>
+        <v>44475</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44306</v>
+        <v>44475</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44475</v>
+        <v>44523</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44475</v>
+        <v>44523</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44425</v>
+        <v>44292</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44476</v>
+        <v>44168</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44476</v>
+        <v>44168</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44250</v>
+        <v>44299</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44250</v>
+        <v>44299</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44168</v>
+        <v>44160</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44168</v>
+        <v>44160</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44447</v>
+        <v>44308</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44447</v>
+        <v>44308</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44553</v>
+        <v>44320</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44553</v>
+        <v>44320</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44285</v>
+        <v>44306</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44285</v>
+        <v>44306</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44160</v>
+        <v>44316</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44231</v>
+        <v>44460</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44231</v>
+        <v>44460</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44490</v>
+        <v>44272</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44490</v>
+        <v>44272</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44341</v>
+        <v>44313</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44341</v>
+        <v>44313</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44391</v>
+        <v>44334</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44391</v>
+        <v>44334</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44386</v>
+        <v>44405</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44386</v>
+        <v>44405</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7413,7 +7413,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K98" t="n">
         <v>600</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44278</v>
+        <v>44280</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K99" t="n">
         <v>500</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44308</v>
+        <v>44330</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44308</v>
+        <v>44330</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44187</v>
+        <v>44239</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44187</v>
+        <v>44239</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44350</v>
+        <v>44476</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44350</v>
+        <v>44476</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44405</v>
+        <v>44250</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44405</v>
+        <v>44250</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44224</v>
+        <v>44488</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44224</v>
+        <v>44488</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44398</v>
+        <v>44341</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44398</v>
+        <v>44341</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44239</v>
+        <v>44278</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K112" t="n">
         <v>600</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44239</v>
+        <v>44278</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8493,7 +8493,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K113" t="n">
         <v>500</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44344</v>
+        <v>44194</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44344</v>
+        <v>44194</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44365</v>
+        <v>44490</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44365</v>
+        <v>44490</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44194</v>
+        <v>44525</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44194</v>
+        <v>44525</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44272</v>
+        <v>44512</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44272</v>
+        <v>44512</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R123"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44168</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44299</v>
+        <v>44168</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44160</v>
+        <v>44299</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44160</v>
+        <v>44299</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44460</v>
+        <v>44316</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44460</v>
+        <v>44316</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44272</v>
+        <v>44460</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44272</v>
+        <v>44460</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44313</v>
+        <v>44272</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44313</v>
+        <v>44272</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44280</v>
+        <v>44405</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44280</v>
+        <v>44405</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44239</v>
+        <v>44330</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44239</v>
+        <v>44330</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44476</v>
+        <v>44239</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44476</v>
+        <v>44239</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44488</v>
+        <v>44250</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44488</v>
+        <v>44250</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K112" t="n">
         <v>600</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8493,7 +8493,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K113" t="n">
         <v>500</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
         <v>600</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K115" t="n">
         <v>500</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44490</v>
+        <v>44194</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44490</v>
+        <v>44194</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44525</v>
+        <v>44490</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44525</v>
+        <v>44490</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44512</v>
+        <v>44327</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44512</v>
+        <v>44327</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9241,6 +9241,150 @@
         <v>1</v>
       </c>
       <c r="R123" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>11</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E124" t="n">
+        <v>8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>200</v>
+      </c>
+      <c r="K124" t="n">
+        <v>600</v>
+      </c>
+      <c r="L124" t="n">
+        <v>700</v>
+      </c>
+      <c r="M124" t="n">
+        <v>650</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>11</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E125" t="n">
+        <v>8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>100</v>
+      </c>
+      <c r="K125" t="n">
+        <v>500</v>
+      </c>
+      <c r="L125" t="n">
+        <v>500</v>
+      </c>
+      <c r="M125" t="n">
+        <v>500</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R125" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R125"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44349</v>
+        <v>44579</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44349</v>
+        <v>44579</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44187</v>
+        <v>44349</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44187</v>
+        <v>44349</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44391</v>
+        <v>44187</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44391</v>
+        <v>44187</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44237</v>
+        <v>44433</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44237</v>
+        <v>44433</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44400</v>
+        <v>44237</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44400</v>
+        <v>44237</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44350</v>
+        <v>44400</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44400</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44453</v>
+        <v>44350</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44475</v>
+        <v>44453</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44475</v>
+        <v>44453</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44523</v>
+        <v>44475</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44523</v>
+        <v>44475</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44292</v>
+        <v>44523</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44292</v>
+        <v>44523</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44574</v>
+        <v>44292</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44574</v>
+        <v>44292</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44299</v>
+        <v>44168</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44299</v>
+        <v>44168</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44160</v>
+        <v>44299</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44160</v>
+        <v>44299</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44460</v>
+        <v>44316</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44460</v>
+        <v>44316</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44272</v>
+        <v>44460</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44272</v>
+        <v>44460</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44313</v>
+        <v>44272</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44313</v>
+        <v>44272</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44280</v>
+        <v>44405</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44280</v>
+        <v>44405</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44239</v>
+        <v>44330</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44239</v>
+        <v>44330</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44476</v>
+        <v>44239</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44476</v>
+        <v>44239</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44488</v>
+        <v>44250</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44488</v>
+        <v>44250</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K114" t="n">
         <v>600</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K115" t="n">
         <v>500</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
         <v>600</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K117" t="n">
         <v>500</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44490</v>
+        <v>44194</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44490</v>
+        <v>44194</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44525</v>
+        <v>44490</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44525</v>
+        <v>44490</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44512</v>
+        <v>44327</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44512</v>
+        <v>44327</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9385,6 +9385,150 @@
         <v>1</v>
       </c>
       <c r="R125" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>11</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E126" t="n">
+        <v>8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>200</v>
+      </c>
+      <c r="K126" t="n">
+        <v>600</v>
+      </c>
+      <c r="L126" t="n">
+        <v>700</v>
+      </c>
+      <c r="M126" t="n">
+        <v>650</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1</v>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>11</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E127" t="n">
+        <v>8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>100</v>
+      </c>
+      <c r="K127" t="n">
+        <v>500</v>
+      </c>
+      <c r="L127" t="n">
+        <v>500</v>
+      </c>
+      <c r="M127" t="n">
+        <v>500</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:R129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44160</v>
+        <v>44582</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44160</v>
+        <v>44582</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44316</v>
+        <v>44306</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44460</v>
+        <v>44316</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44460</v>
+        <v>44316</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44272</v>
+        <v>44460</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44272</v>
+        <v>44460</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44313</v>
+        <v>44272</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44313</v>
+        <v>44272</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44405</v>
+        <v>44334</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44280</v>
+        <v>44405</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44280</v>
+        <v>44405</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44239</v>
+        <v>44330</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44239</v>
+        <v>44330</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44476</v>
+        <v>44239</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44476</v>
+        <v>44239</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44488</v>
+        <v>44250</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44488</v>
+        <v>44250</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K116" t="n">
         <v>600</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K117" t="n">
         <v>500</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K118" t="n">
         <v>600</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44194</v>
+        <v>44278</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K119" t="n">
         <v>500</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44490</v>
+        <v>44194</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44490</v>
+        <v>44194</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44525</v>
+        <v>44490</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44525</v>
+        <v>44490</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44512</v>
+        <v>44327</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44512</v>
+        <v>44327</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9529,6 +9529,150 @@
         <v>1</v>
       </c>
       <c r="R127" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>11</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>200</v>
+      </c>
+      <c r="K128" t="n">
+        <v>600</v>
+      </c>
+      <c r="L128" t="n">
+        <v>700</v>
+      </c>
+      <c r="M128" t="n">
+        <v>650</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>11</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>44512</v>
+      </c>
+      <c r="E129" t="n">
+        <v>8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>100</v>
+      </c>
+      <c r="K129" t="n">
+        <v>500</v>
+      </c>
+      <c r="L129" t="n">
+        <v>500</v>
+      </c>
+      <c r="M129" t="n">
+        <v>500</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R129" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44386</v>
+        <v>44365</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44386</v>
+        <v>44365</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44224</v>
+        <v>44341</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44224</v>
+        <v>44341</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44274</v>
+        <v>44490</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44274</v>
+        <v>44490</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44203</v>
+        <v>44525</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44203</v>
+        <v>44525</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44565</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44565</v>
+        <v>44355</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44355</v>
+        <v>44292</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44355</v>
+        <v>44292</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44553</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44553</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44252</v>
+        <v>44320</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44252</v>
+        <v>44320</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44447</v>
+        <v>44460</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44447</v>
+        <v>44460</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44222</v>
+        <v>44425</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44222</v>
+        <v>44425</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44469</v>
+        <v>44239</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44469</v>
+        <v>44239</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44362</v>
+        <v>44565</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44362</v>
+        <v>44565</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44383</v>
+        <v>44222</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44383</v>
+        <v>44222</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44358</v>
+        <v>44488</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44358</v>
+        <v>44488</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44425</v>
+        <v>44469</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44425</v>
+        <v>44469</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44365</v>
+        <v>44224</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44365</v>
+        <v>44224</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44217</v>
+        <v>44168</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44217</v>
+        <v>44168</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44344</v>
+        <v>44308</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44344</v>
+        <v>44308</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44336</v>
+        <v>44579</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44336</v>
+        <v>44579</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44398</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44166</v>
+        <v>44398</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44442</v>
+        <v>44574</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
         <v>600</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44442</v>
+        <v>44574</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44435</v>
+        <v>44231</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44435</v>
+        <v>44231</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44579</v>
+        <v>44237</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44579</v>
+        <v>44237</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44349</v>
+        <v>44336</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P54" t="n">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44349</v>
+        <v>44336</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44187</v>
+        <v>44350</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44187</v>
+        <v>44350</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44391</v>
+        <v>44553</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44391</v>
+        <v>44553</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44433</v>
+        <v>44405</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44433</v>
+        <v>44405</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44237</v>
+        <v>44358</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44237</v>
+        <v>44358</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44400</v>
+        <v>44476</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44400</v>
+        <v>44476</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44350</v>
+        <v>44433</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44350</v>
+        <v>44433</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44453</v>
+        <v>44252</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44453</v>
+        <v>44252</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44475</v>
+        <v>44327</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44475</v>
+        <v>44327</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44523</v>
+        <v>44582</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44523</v>
+        <v>44582</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44292</v>
+        <v>44362</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44292</v>
+        <v>44362</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44574</v>
+        <v>44313</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44574</v>
+        <v>44313</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44168</v>
+        <v>44400</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44168</v>
+        <v>44400</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44299</v>
+        <v>44217</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44299</v>
+        <v>44217</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44582</v>
+        <v>44512</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44582</v>
+        <v>44512</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44160</v>
+        <v>44166</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44320</v>
+        <v>44203</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44320</v>
+        <v>44203</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44316</v>
+        <v>44280</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44316</v>
+        <v>44280</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44272</v>
+        <v>44344</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44272</v>
+        <v>44344</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44313</v>
+        <v>44334</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44313</v>
+        <v>44334</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44334</v>
+        <v>44187</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44334</v>
+        <v>44187</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44405</v>
+        <v>44447</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44405</v>
+        <v>44447</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44280</v>
+        <v>44391</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44280</v>
+        <v>44391</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44239</v>
+        <v>44250</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44239</v>
+        <v>44250</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44476</v>
+        <v>44285</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44476</v>
+        <v>44285</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44250</v>
+        <v>44523</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44250</v>
+        <v>44523</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44488</v>
+        <v>44316</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44488</v>
+        <v>44316</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44341</v>
+        <v>44475</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44341</v>
+        <v>44475</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44194</v>
+        <v>44453</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44194</v>
+        <v>44453</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44490</v>
+        <v>44272</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44490</v>
+        <v>44272</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44525</v>
+        <v>44306</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44525</v>
+        <v>44306</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44327</v>
+        <v>44299</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44327</v>
+        <v>44299</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44512</v>
+        <v>44274</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44512</v>
+        <v>44274</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44365</v>
+        <v>44274</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44365</v>
+        <v>44274</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44490</v>
+        <v>44425</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44490</v>
+        <v>44425</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44525</v>
+        <v>44344</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44525</v>
+        <v>44344</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44168</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44355</v>
+        <v>44168</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44292</v>
+        <v>44525</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44292</v>
+        <v>44525</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44327</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44327</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44320</v>
+        <v>44239</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44320</v>
+        <v>44239</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44383</v>
+        <v>44447</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44383</v>
+        <v>44447</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44460</v>
+        <v>44523</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44460</v>
+        <v>44523</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44425</v>
+        <v>44512</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44425</v>
+        <v>44512</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44565</v>
+        <v>44308</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44565</v>
+        <v>44308</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44222</v>
+        <v>44476</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44222</v>
+        <v>44476</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44488</v>
+        <v>44453</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44488</v>
+        <v>44453</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44469</v>
+        <v>44391</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44469</v>
+        <v>44391</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44224</v>
+        <v>44187</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44224</v>
+        <v>44187</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44308</v>
+        <v>44405</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44308</v>
+        <v>44405</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44349</v>
+        <v>44306</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44349</v>
+        <v>44306</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44579</v>
+        <v>44222</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44579</v>
+        <v>44222</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44574</v>
+        <v>44469</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44574</v>
+        <v>44469</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44231</v>
+        <v>44278</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K48" t="n">
         <v>600</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44231</v>
+        <v>44278</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K49" t="n">
         <v>500</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44237</v>
+        <v>44292</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44237</v>
+        <v>44292</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44336</v>
+        <v>44203</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44336</v>
+        <v>44203</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44553</v>
+        <v>44442</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K58" t="n">
         <v>600</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44553</v>
+        <v>44442</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K59" t="n">
         <v>500</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44358</v>
+        <v>44574</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44358</v>
+        <v>44574</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44476</v>
+        <v>44398</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44476</v>
+        <v>44398</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44252</v>
+        <v>44316</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44252</v>
+        <v>44316</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44327</v>
+        <v>44582</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44327</v>
+        <v>44582</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44582</v>
+        <v>44386</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44582</v>
+        <v>44386</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44313</v>
+        <v>44475</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44313</v>
+        <v>44475</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44217</v>
+        <v>44313</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44217</v>
+        <v>44313</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44512</v>
+        <v>44460</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44512</v>
+        <v>44460</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44166</v>
+        <v>44194</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44166</v>
+        <v>44194</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44160</v>
+        <v>44217</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44160</v>
+        <v>44217</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44203</v>
+        <v>44166</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44203</v>
+        <v>44166</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44386</v>
+        <v>44579</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44386</v>
+        <v>44579</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44280</v>
+        <v>44237</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44280</v>
+        <v>44237</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44442</v>
+        <v>44252</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44442</v>
+        <v>44252</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44344</v>
+        <v>44336</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44344</v>
+        <v>44336</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44334</v>
+        <v>44231</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44334</v>
+        <v>44231</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44187</v>
+        <v>44565</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44187</v>
+        <v>44565</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44447</v>
+        <v>44400</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44447</v>
+        <v>44400</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44391</v>
+        <v>44334</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44391</v>
+        <v>44334</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44250</v>
+        <v>44362</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44250</v>
+        <v>44362</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44285</v>
+        <v>44365</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44285</v>
+        <v>44365</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44523</v>
+        <v>44553</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44523</v>
+        <v>44553</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44316</v>
+        <v>44490</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44316</v>
+        <v>44490</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44475</v>
+        <v>44355</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44475</v>
+        <v>44355</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44278</v>
+        <v>44330</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8853,7 +8853,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K118" t="n">
         <v>600</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44278</v>
+        <v>44330</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8925,7 +8925,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K119" t="n">
         <v>500</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44453</v>
+        <v>44272</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44453</v>
+        <v>44272</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44272</v>
+        <v>44299</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44272</v>
+        <v>44299</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44306</v>
+        <v>44349</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44306</v>
+        <v>44349</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44299</v>
+        <v>44285</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44299</v>
+        <v>44285</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R129"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44391</v>
+        <v>44607</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44391</v>
+        <v>44607</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44187</v>
+        <v>44391</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44187</v>
+        <v>44391</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44405</v>
+        <v>44250</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44405</v>
+        <v>44250</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44306</v>
+        <v>44405</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44306</v>
+        <v>44405</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44222</v>
+        <v>44306</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44222</v>
+        <v>44306</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44383</v>
+        <v>44222</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44383</v>
+        <v>44222</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44469</v>
+        <v>44383</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44469</v>
+        <v>44383</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44278</v>
+        <v>44469</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
         <v>600</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44278</v>
+        <v>44469</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
         <v>500</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44435</v>
+        <v>44278</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K50" t="n">
         <v>600</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44435</v>
+        <v>44278</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K51" t="n">
         <v>500</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44292</v>
+        <v>44435</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44292</v>
+        <v>44435</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44203</v>
+        <v>44292</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44203</v>
+        <v>44292</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44341</v>
+        <v>44203</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44341</v>
+        <v>44203</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44442</v>
+        <v>44341</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4533,7 +4533,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K58" t="n">
         <v>600</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44442</v>
+        <v>44341</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K59" t="n">
         <v>500</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" t="n">
         <v>600</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K61" t="n">
         <v>500</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44574</v>
+        <v>44350</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44574</v>
+        <v>44350</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44398</v>
+        <v>44574</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44398</v>
+        <v>44574</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44582</v>
+        <v>44316</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44582</v>
+        <v>44316</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44386</v>
+        <v>44582</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44386</v>
+        <v>44582</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44320</v>
+        <v>44386</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44320</v>
+        <v>44386</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44358</v>
+        <v>44475</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44358</v>
+        <v>44475</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44460</v>
+        <v>44313</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44460</v>
+        <v>44313</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44166</v>
+        <v>44217</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44166</v>
+        <v>44217</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44579</v>
+        <v>44166</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44579</v>
+        <v>44166</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44237</v>
+        <v>44579</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44237</v>
+        <v>44579</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44336</v>
+        <v>44252</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44336</v>
+        <v>44252</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44334</v>
+        <v>44400</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44334</v>
+        <v>44400</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44553</v>
+        <v>44365</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44553</v>
+        <v>44365</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44355</v>
+        <v>44490</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44355</v>
+        <v>44490</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44272</v>
+        <v>44330</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44272</v>
+        <v>44330</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44299</v>
+        <v>44272</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44299</v>
+        <v>44272</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44349</v>
+        <v>44299</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44349</v>
+        <v>44299</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9673,6 +9673,150 @@
         <v>1</v>
       </c>
       <c r="R129" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>11</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E130" t="n">
+        <v>8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>200</v>
+      </c>
+      <c r="K130" t="n">
+        <v>600</v>
+      </c>
+      <c r="L130" t="n">
+        <v>700</v>
+      </c>
+      <c r="M130" t="n">
+        <v>650</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1</v>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>11</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E131" t="n">
+        <v>8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>100</v>
+      </c>
+      <c r="K131" t="n">
+        <v>500</v>
+      </c>
+      <c r="L131" t="n">
+        <v>500</v>
+      </c>
+      <c r="M131" t="n">
+        <v>500</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1</v>
+      </c>
+      <c r="R131" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44252</v>
+        <v>44609</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44252</v>
+        <v>44609</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44336</v>
+        <v>44252</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44336</v>
+        <v>44252</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P105" t="n">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44334</v>
+        <v>44400</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44334</v>
+        <v>44400</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44553</v>
+        <v>44365</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44553</v>
+        <v>44365</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44355</v>
+        <v>44490</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44355</v>
+        <v>44490</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44272</v>
+        <v>44330</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44272</v>
+        <v>44330</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44299</v>
+        <v>44272</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44299</v>
+        <v>44272</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44349</v>
+        <v>44299</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44349</v>
+        <v>44299</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9817,6 +9817,150 @@
         <v>1</v>
       </c>
       <c r="R131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>11</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E132" t="n">
+        <v>8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>200</v>
+      </c>
+      <c r="K132" t="n">
+        <v>600</v>
+      </c>
+      <c r="L132" t="n">
+        <v>700</v>
+      </c>
+      <c r="M132" t="n">
+        <v>650</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>1</v>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>11</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E133" t="n">
+        <v>8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>100</v>
+      </c>
+      <c r="K133" t="n">
+        <v>500</v>
+      </c>
+      <c r="L133" t="n">
+        <v>500</v>
+      </c>
+      <c r="M133" t="n">
+        <v>500</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1</v>
+      </c>
+      <c r="R133" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44525</v>
+        <v>44616</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44525</v>
+        <v>44616</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44239</v>
+        <v>44327</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44239</v>
+        <v>44327</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44447</v>
+        <v>44239</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44447</v>
+        <v>44239</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44523</v>
+        <v>44447</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44523</v>
+        <v>44447</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44512</v>
+        <v>44523</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44224</v>
+        <v>44512</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44224</v>
+        <v>44512</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44308</v>
+        <v>44224</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44308</v>
+        <v>44224</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44476</v>
+        <v>44308</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44476</v>
+        <v>44308</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44453</v>
+        <v>44476</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44453</v>
+        <v>44476</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44607</v>
+        <v>44453</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44607</v>
+        <v>44453</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44391</v>
+        <v>44607</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44391</v>
+        <v>44607</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44187</v>
+        <v>44391</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44187</v>
+        <v>44391</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44405</v>
+        <v>44250</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44405</v>
+        <v>44250</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44306</v>
+        <v>44405</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44306</v>
+        <v>44405</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44222</v>
+        <v>44306</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44222</v>
+        <v>44306</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44383</v>
+        <v>44222</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44383</v>
+        <v>44222</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44469</v>
+        <v>44383</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44469</v>
+        <v>44383</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44278</v>
+        <v>44469</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K50" t="n">
         <v>600</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44278</v>
+        <v>44469</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
         <v>500</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44435</v>
+        <v>44278</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" t="n">
         <v>600</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44435</v>
+        <v>44278</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K53" t="n">
         <v>500</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44292</v>
+        <v>44435</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44292</v>
+        <v>44435</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44203</v>
+        <v>44292</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44203</v>
+        <v>44292</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44341</v>
+        <v>44203</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44341</v>
+        <v>44203</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44442</v>
+        <v>44341</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K60" t="n">
         <v>600</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44442</v>
+        <v>44341</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4749,7 +4749,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K61" t="n">
         <v>500</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K62" t="n">
         <v>600</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44350</v>
+        <v>44442</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K63" t="n">
         <v>500</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44574</v>
+        <v>44350</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44574</v>
+        <v>44350</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44398</v>
+        <v>44574</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44398</v>
+        <v>44574</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44582</v>
+        <v>44316</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44582</v>
+        <v>44316</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44386</v>
+        <v>44582</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44386</v>
+        <v>44582</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44320</v>
+        <v>44386</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44320</v>
+        <v>44386</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44358</v>
+        <v>44475</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44358</v>
+        <v>44475</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44313</v>
+        <v>44358</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44460</v>
+        <v>44313</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44460</v>
+        <v>44313</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44217</v>
+        <v>44194</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44166</v>
+        <v>44217</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44166</v>
+        <v>44217</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44579</v>
+        <v>44166</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44579</v>
+        <v>44166</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44237</v>
+        <v>44579</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44237</v>
+        <v>44579</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44609</v>
+        <v>44237</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44609</v>
+        <v>44237</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44252</v>
+        <v>44609</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44252</v>
+        <v>44609</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44336</v>
+        <v>44252</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44336</v>
+        <v>44252</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44231</v>
+        <v>44336</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P105" t="n">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44334</v>
+        <v>44400</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44334</v>
+        <v>44400</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44365</v>
+        <v>44362</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44553</v>
+        <v>44365</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44553</v>
+        <v>44365</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44490</v>
+        <v>44553</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44355</v>
+        <v>44490</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44355</v>
+        <v>44490</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44330</v>
+        <v>44355</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44272</v>
+        <v>44330</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44272</v>
+        <v>44330</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44299</v>
+        <v>44272</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44299</v>
+        <v>44272</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44349</v>
+        <v>44299</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44349</v>
+        <v>44299</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44160</v>
+        <v>44285</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9961,6 +9961,150 @@
         <v>1</v>
       </c>
       <c r="R133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>11</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E134" t="n">
+        <v>8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>200</v>
+      </c>
+      <c r="K134" t="n">
+        <v>600</v>
+      </c>
+      <c r="L134" t="n">
+        <v>700</v>
+      </c>
+      <c r="M134" t="n">
+        <v>650</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>11</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>100</v>
+      </c>
+      <c r="K135" t="n">
+        <v>500</v>
+      </c>
+      <c r="L135" t="n">
+        <v>500</v>
+      </c>
+      <c r="M135" t="n">
+        <v>500</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1</v>
+      </c>
+      <c r="R135" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44274</v>
+        <v>44222</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44274</v>
+        <v>44222</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44425</v>
+        <v>44280</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44425</v>
+        <v>44280</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44344</v>
+        <v>44272</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44344</v>
+        <v>44272</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44168</v>
+        <v>44350</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44168</v>
+        <v>44350</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44616</v>
+        <v>44217</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44616</v>
+        <v>44217</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44525</v>
+        <v>44362</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44525</v>
+        <v>44362</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44239</v>
+        <v>44344</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44239</v>
+        <v>44344</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44447</v>
+        <v>44320</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44447</v>
+        <v>44320</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44523</v>
+        <v>44579</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44523</v>
+        <v>44579</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44512</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44512</v>
+        <v>44285</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44224</v>
+        <v>44308</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44224</v>
+        <v>44308</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44308</v>
+        <v>44187</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44308</v>
+        <v>44187</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44476</v>
+        <v>44160</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44476</v>
+        <v>44160</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44453</v>
+        <v>44609</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44453</v>
+        <v>44609</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44607</v>
+        <v>44224</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44607</v>
+        <v>44224</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44391</v>
+        <v>44400</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44391</v>
+        <v>44400</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44187</v>
+        <v>44433</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44187</v>
+        <v>44433</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44250</v>
+        <v>44398</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44250</v>
+        <v>44398</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P41" t="n">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44405</v>
+        <v>44194</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44405</v>
+        <v>44194</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44306</v>
+        <v>44574</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44306</v>
+        <v>44574</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44222</v>
+        <v>44327</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44222</v>
+        <v>44327</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44383</v>
+        <v>44306</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44383</v>
+        <v>44306</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44469</v>
+        <v>44391</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44469</v>
+        <v>44391</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44278</v>
+        <v>44512</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" t="n">
         <v>600</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44278</v>
+        <v>44512</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
         <v>500</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44435</v>
+        <v>44274</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44435</v>
+        <v>44274</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44292</v>
+        <v>44442</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K56" t="n">
         <v>600</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44292</v>
+        <v>44442</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K57" t="n">
         <v>500</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44203</v>
+        <v>44292</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44203</v>
+        <v>44292</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44341</v>
+        <v>44435</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44341</v>
+        <v>44435</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44442</v>
+        <v>44203</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" t="n">
         <v>600</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44442</v>
+        <v>44203</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K63" t="n">
         <v>500</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44350</v>
+        <v>44166</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44166</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44574</v>
+        <v>44355</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44574</v>
+        <v>44355</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44398</v>
+        <v>44616</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44398</v>
+        <v>44616</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44433</v>
+        <v>44460</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44433</v>
+        <v>44460</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44316</v>
+        <v>44341</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44316</v>
+        <v>44341</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44582</v>
+        <v>44386</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44582</v>
+        <v>44386</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44386</v>
+        <v>44525</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44386</v>
+        <v>44525</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44320</v>
+        <v>44316</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44475</v>
+        <v>44553</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44475</v>
+        <v>44553</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44358</v>
+        <v>44447</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44358</v>
+        <v>44447</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44313</v>
+        <v>44237</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44313</v>
+        <v>44237</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44460</v>
+        <v>44336</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44460</v>
+        <v>44336</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44194</v>
+        <v>44299</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44194</v>
+        <v>44299</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44217</v>
+        <v>44239</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44217</v>
+        <v>44239</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44166</v>
+        <v>44365</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44166</v>
+        <v>44365</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44579</v>
+        <v>44330</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44579</v>
+        <v>44330</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44609</v>
+        <v>44469</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44609</v>
+        <v>44469</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44336</v>
+        <v>44476</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44336</v>
+        <v>44476</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44231</v>
+        <v>44425</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44231</v>
+        <v>44425</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44565</v>
+        <v>44475</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44565</v>
+        <v>44475</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44400</v>
+        <v>44278</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8133,7 +8133,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K108" t="n">
         <v>600</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44400</v>
+        <v>44278</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K109" t="n">
         <v>500</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44334</v>
+        <v>44523</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44334</v>
+        <v>44523</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44280</v>
+        <v>44231</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44280</v>
+        <v>44231</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44362</v>
+        <v>44565</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44362</v>
+        <v>44565</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P115" t="n">
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44365</v>
+        <v>44313</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44365</v>
+        <v>44313</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44553</v>
+        <v>44453</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44553</v>
+        <v>44453</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44490</v>
+        <v>44250</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P120" t="n">
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44490</v>
+        <v>44250</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P121" t="n">
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44355</v>
+        <v>44607</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44355</v>
+        <v>44607</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44330</v>
+        <v>44168</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44330</v>
+        <v>44168</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44272</v>
+        <v>44582</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44272</v>
+        <v>44582</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44299</v>
+        <v>44349</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44299</v>
+        <v>44349</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44349</v>
+        <v>44383</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44349</v>
+        <v>44383</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44285</v>
+        <v>44334</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44285</v>
+        <v>44334</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44160</v>
+        <v>44358</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44160</v>
+        <v>44358</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44488</v>
+        <v>44336</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44488</v>
+        <v>44336</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44280</v>
+        <v>44453</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44280</v>
+        <v>44453</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44272</v>
+        <v>44308</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44272</v>
+        <v>44308</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44350</v>
+        <v>44398</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44217</v>
+        <v>44278</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
         <v>600</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44217</v>
+        <v>44278</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K13" t="n">
         <v>500</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44362</v>
+        <v>44574</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44362</v>
+        <v>44574</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44344</v>
+        <v>44168</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44344</v>
+        <v>44168</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44320</v>
+        <v>44391</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44579</v>
+        <v>44460</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44579</v>
+        <v>44460</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44285</v>
+        <v>44344</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44285</v>
+        <v>44344</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44187</v>
+        <v>44313</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44187</v>
+        <v>44313</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44160</v>
+        <v>44327</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44160</v>
+        <v>44327</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44609</v>
+        <v>44525</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44609</v>
+        <v>44525</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44224</v>
+        <v>44490</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44224</v>
+        <v>44490</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44400</v>
+        <v>44425</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44400</v>
+        <v>44425</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44433</v>
+        <v>44579</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44433</v>
+        <v>44579</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44398</v>
+        <v>44166</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44398</v>
+        <v>44166</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44194</v>
+        <v>44433</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44194</v>
+        <v>44433</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44574</v>
+        <v>44400</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44574</v>
+        <v>44400</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44327</v>
+        <v>44350</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44327</v>
+        <v>44350</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44306</v>
+        <v>44476</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44306</v>
+        <v>44476</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44391</v>
+        <v>44565</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44391</v>
+        <v>44565</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44512</v>
+        <v>44316</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44512</v>
+        <v>44316</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44274</v>
+        <v>44488</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44274</v>
+        <v>44488</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44442</v>
+        <v>44250</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4389,7 +4389,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K56" t="n">
         <v>600</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44442</v>
+        <v>44250</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K57" t="n">
         <v>500</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44292</v>
+        <v>44222</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44292</v>
+        <v>44222</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44435</v>
+        <v>44239</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44435</v>
+        <v>44239</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44203</v>
+        <v>44217</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44203</v>
+        <v>44217</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44166</v>
+        <v>44469</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44166</v>
+        <v>44469</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44616</v>
+        <v>44475</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44616</v>
+        <v>44475</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44460</v>
+        <v>44523</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44460</v>
+        <v>44523</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44341</v>
+        <v>44272</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44341</v>
+        <v>44272</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44386</v>
+        <v>44607</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44386</v>
+        <v>44607</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44525</v>
+        <v>44442</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K76" t="n">
         <v>600</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44525</v>
+        <v>44442</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K77" t="n">
         <v>500</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44316</v>
+        <v>44160</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44316</v>
+        <v>44160</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44553</v>
+        <v>44292</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44553</v>
+        <v>44292</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44447</v>
+        <v>44274</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44447</v>
+        <v>44274</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44237</v>
+        <v>44187</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44237</v>
+        <v>44187</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44336</v>
+        <v>44405</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44299</v>
+        <v>44365</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44299</v>
+        <v>44365</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44239</v>
+        <v>44341</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44239</v>
+        <v>44341</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44365</v>
+        <v>44280</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44365</v>
+        <v>44280</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44330</v>
+        <v>44362</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44330</v>
+        <v>44362</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44490</v>
+        <v>44355</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44490</v>
+        <v>44355</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44469</v>
+        <v>44285</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44469</v>
+        <v>44285</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44252</v>
+        <v>44512</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44252</v>
+        <v>44512</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44476</v>
+        <v>44582</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44476</v>
+        <v>44582</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44475</v>
+        <v>44299</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44475</v>
+        <v>44299</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44278</v>
+        <v>44231</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8133,7 +8133,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K108" t="n">
         <v>600</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44278</v>
+        <v>44231</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K109" t="n">
         <v>500</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44523</v>
+        <v>44237</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44523</v>
+        <v>44237</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44565</v>
+        <v>44553</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P114" t="n">
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44565</v>
+        <v>44553</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P115" t="n">
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44313</v>
+        <v>44616</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44313</v>
+        <v>44616</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44453</v>
+        <v>44386</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44453</v>
+        <v>44386</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P120" t="n">
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P121" t="n">
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44607</v>
+        <v>44330</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44607</v>
+        <v>44330</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44168</v>
+        <v>44609</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44168</v>
+        <v>44609</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44582</v>
+        <v>44203</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44582</v>
+        <v>44203</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44349</v>
+        <v>44435</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44349</v>
+        <v>44435</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44334</v>
+        <v>44349</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44334</v>
+        <v>44349</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44358</v>
+        <v>44383</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44358</v>
+        <v>44383</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R135"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44582</v>
+        <v>44663</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44582</v>
+        <v>44663</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44447</v>
+        <v>44582</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44447</v>
+        <v>44582</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44299</v>
+        <v>44447</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44299</v>
+        <v>44447</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44231</v>
+        <v>44299</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44231</v>
+        <v>44299</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44224</v>
+        <v>44237</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44224</v>
+        <v>44237</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44553</v>
+        <v>44224</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44553</v>
+        <v>44224</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44616</v>
+        <v>44553</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44616</v>
+        <v>44553</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44386</v>
+        <v>44616</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44386</v>
+        <v>44616</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44252</v>
+        <v>44386</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44252</v>
+        <v>44386</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44330</v>
+        <v>44252</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44330</v>
+        <v>44252</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44609</v>
+        <v>44330</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44609</v>
+        <v>44330</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44203</v>
+        <v>44609</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44203</v>
+        <v>44609</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44435</v>
+        <v>44203</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44435</v>
+        <v>44203</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44358</v>
+        <v>44435</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44358</v>
+        <v>44435</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44349</v>
+        <v>44358</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44349</v>
+        <v>44358</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44383</v>
+        <v>44349</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44383</v>
+        <v>44349</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -10105,6 +10105,150 @@
         <v>1</v>
       </c>
       <c r="R135" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>11</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="E136" t="n">
+        <v>8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>200</v>
+      </c>
+      <c r="K136" t="n">
+        <v>600</v>
+      </c>
+      <c r="L136" t="n">
+        <v>700</v>
+      </c>
+      <c r="M136" t="n">
+        <v>650</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>11</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="E137" t="n">
+        <v>8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>100</v>
+      </c>
+      <c r="K137" t="n">
+        <v>500</v>
+      </c>
+      <c r="L137" t="n">
+        <v>500</v>
+      </c>
+      <c r="M137" t="n">
+        <v>500</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R137"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44350</v>
+        <v>44665</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44350</v>
+        <v>44665</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44476</v>
+        <v>44350</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44476</v>
+        <v>44350</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44565</v>
+        <v>44476</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44565</v>
+        <v>44476</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P51" t="n">
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44316</v>
+        <v>44565</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44316</v>
+        <v>44565</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44488</v>
+        <v>44316</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44488</v>
+        <v>44316</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44250</v>
+        <v>44488</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44250</v>
+        <v>44488</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44222</v>
+        <v>44250</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44222</v>
+        <v>44250</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44239</v>
+        <v>44222</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44239</v>
+        <v>44222</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44217</v>
+        <v>44239</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44217</v>
+        <v>44239</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44469</v>
+        <v>44217</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44469</v>
+        <v>44217</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44334</v>
+        <v>44469</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44334</v>
+        <v>44469</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44475</v>
+        <v>44334</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44475</v>
+        <v>44334</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44523</v>
+        <v>44475</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44523</v>
+        <v>44475</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44272</v>
+        <v>44523</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44272</v>
+        <v>44523</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44607</v>
+        <v>44272</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44607</v>
+        <v>44272</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44442</v>
+        <v>44607</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K76" t="n">
         <v>600</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44442</v>
+        <v>44607</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K77" t="n">
         <v>500</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44160</v>
+        <v>44442</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K78" t="n">
         <v>600</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44160</v>
+        <v>44442</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K79" t="n">
         <v>500</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44292</v>
+        <v>44160</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44292</v>
+        <v>44160</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44274</v>
+        <v>44292</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44274</v>
+        <v>44292</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44187</v>
+        <v>44274</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44187</v>
+        <v>44274</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44405</v>
+        <v>44187</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44405</v>
+        <v>44187</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44365</v>
+        <v>44405</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44365</v>
+        <v>44405</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44341</v>
+        <v>44365</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44341</v>
+        <v>44365</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44280</v>
+        <v>44341</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44280</v>
+        <v>44341</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44362</v>
+        <v>44280</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44285</v>
+        <v>44355</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44285</v>
+        <v>44355</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44512</v>
+        <v>44285</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44512</v>
+        <v>44285</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44663</v>
+        <v>44512</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44663</v>
+        <v>44512</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44582</v>
+        <v>44663</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44582</v>
+        <v>44663</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44447</v>
+        <v>44582</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44447</v>
+        <v>44582</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44299</v>
+        <v>44447</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44299</v>
+        <v>44447</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44231</v>
+        <v>44299</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44231</v>
+        <v>44299</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44237</v>
+        <v>44231</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44224</v>
+        <v>44237</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44224</v>
+        <v>44237</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44553</v>
+        <v>44224</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44553</v>
+        <v>44224</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44616</v>
+        <v>44553</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44616</v>
+        <v>44553</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44386</v>
+        <v>44616</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44386</v>
+        <v>44616</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44252</v>
+        <v>44386</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44252</v>
+        <v>44386</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44330</v>
+        <v>44252</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44330</v>
+        <v>44252</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44609</v>
+        <v>44330</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44609</v>
+        <v>44330</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44203</v>
+        <v>44609</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44203</v>
+        <v>44609</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44435</v>
+        <v>44203</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44435</v>
+        <v>44203</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44358</v>
+        <v>44435</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44358</v>
+        <v>44435</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44349</v>
+        <v>44358</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44349</v>
+        <v>44358</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44383</v>
+        <v>44349</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44383</v>
+        <v>44349</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10249,6 +10249,150 @@
         <v>1</v>
       </c>
       <c r="R137" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>11</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>200</v>
+      </c>
+      <c r="K138" t="n">
+        <v>600</v>
+      </c>
+      <c r="L138" t="n">
+        <v>700</v>
+      </c>
+      <c r="M138" t="n">
+        <v>650</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1</v>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>11</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>100</v>
+      </c>
+      <c r="K139" t="n">
+        <v>500</v>
+      </c>
+      <c r="L139" t="n">
+        <v>500</v>
+      </c>
+      <c r="M139" t="n">
+        <v>500</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1</v>
+      </c>
+      <c r="R139" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44194</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44194</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44336</v>
+        <v>44239</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44336</v>
+        <v>44239</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44453</v>
+        <v>44272</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44453</v>
+        <v>44272</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44308</v>
+        <v>44336</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44398</v>
+        <v>44663</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44398</v>
+        <v>44663</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44278</v>
+        <v>44349</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
         <v>600</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44278</v>
+        <v>44349</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
         <v>500</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44574</v>
+        <v>44231</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44574</v>
+        <v>44231</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44320</v>
+        <v>44355</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44320</v>
+        <v>44355</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44168</v>
+        <v>44365</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44168</v>
+        <v>44365</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44460</v>
+        <v>44278</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
         <v>600</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44460</v>
+        <v>44278</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
         <v>500</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44344</v>
+        <v>44187</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44344</v>
+        <v>44187</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44306</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44306</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44313</v>
+        <v>44553</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44313</v>
+        <v>44553</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44327</v>
+        <v>44447</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44327</v>
+        <v>44447</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44525</v>
+        <v>44469</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44525</v>
+        <v>44469</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44490</v>
+        <v>44168</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44490</v>
+        <v>44168</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44425</v>
+        <v>44280</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44425</v>
+        <v>44280</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44579</v>
+        <v>44217</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44579</v>
+        <v>44217</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44166</v>
+        <v>44224</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44166</v>
+        <v>44224</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44433</v>
+        <v>44344</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44433</v>
+        <v>44344</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44400</v>
+        <v>44316</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44400</v>
+        <v>44316</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44665</v>
+        <v>44313</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44665</v>
+        <v>44313</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44476</v>
+        <v>44665</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44476</v>
+        <v>44665</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44565</v>
+        <v>44308</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44565</v>
+        <v>44308</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44316</v>
+        <v>44391</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44316</v>
+        <v>44391</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44488</v>
+        <v>44330</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44488</v>
+        <v>44330</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44250</v>
+        <v>44476</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44222</v>
+        <v>44386</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44222</v>
+        <v>44386</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44239</v>
+        <v>44579</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44239</v>
+        <v>44579</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44217</v>
+        <v>44488</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44334</v>
+        <v>44292</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44334</v>
+        <v>44292</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44475</v>
+        <v>44616</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44475</v>
+        <v>44616</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44523</v>
+        <v>44490</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44523</v>
+        <v>44490</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44272</v>
+        <v>44609</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44272</v>
+        <v>44609</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44607</v>
+        <v>44453</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44607</v>
+        <v>44453</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44442</v>
+        <v>44320</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K78" t="n">
         <v>600</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44442</v>
+        <v>44320</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6045,7 +6045,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K79" t="n">
         <v>500</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44160</v>
+        <v>44475</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44160</v>
+        <v>44475</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44292</v>
+        <v>44327</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44292</v>
+        <v>44327</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44274</v>
+        <v>44350</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44274</v>
+        <v>44350</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44187</v>
+        <v>44574</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44187</v>
+        <v>44574</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44405</v>
+        <v>44523</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44405</v>
+        <v>44523</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44365</v>
+        <v>44400</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44365</v>
+        <v>44400</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44341</v>
+        <v>44252</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44341</v>
+        <v>44252</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44280</v>
+        <v>44299</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44280</v>
+        <v>44299</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44362</v>
+        <v>44460</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44362</v>
+        <v>44460</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44285</v>
+        <v>44565</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44285</v>
+        <v>44565</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44512</v>
+        <v>44405</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44512</v>
+        <v>44405</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44663</v>
+        <v>44358</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44663</v>
+        <v>44358</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44582</v>
+        <v>44383</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44582</v>
+        <v>44383</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44447</v>
+        <v>44582</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44447</v>
+        <v>44582</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44299</v>
+        <v>44525</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44299</v>
+        <v>44525</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44231</v>
+        <v>44435</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44237</v>
+        <v>44442</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K114" t="n">
         <v>600</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44237</v>
+        <v>44442</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K115" t="n">
         <v>500</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44553</v>
+        <v>44398</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44553</v>
+        <v>44398</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44616</v>
+        <v>44512</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44616</v>
+        <v>44512</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44386</v>
+        <v>44222</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44386</v>
+        <v>44222</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44252</v>
+        <v>44285</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44252</v>
+        <v>44285</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44330</v>
+        <v>44203</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44330</v>
+        <v>44203</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44609</v>
+        <v>44274</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44609</v>
+        <v>44274</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44203</v>
+        <v>44607</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44203</v>
+        <v>44607</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44358</v>
+        <v>44250</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44358</v>
+        <v>44250</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44349</v>
+        <v>44306</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44349</v>
+        <v>44306</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44383</v>
+        <v>44160</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44383</v>
+        <v>44160</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44476</v>
+        <v>44330</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44476</v>
+        <v>44330</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44579</v>
+        <v>44386</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44579</v>
+        <v>44386</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44488</v>
+        <v>44579</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44488</v>
+        <v>44579</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44237</v>
+        <v>44488</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44237</v>
+        <v>44488</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44616</v>
+        <v>44292</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44616</v>
+        <v>44292</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44490</v>
+        <v>44616</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44490</v>
+        <v>44616</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44609</v>
+        <v>44490</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44609</v>
+        <v>44490</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44453</v>
+        <v>44609</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44453</v>
+        <v>44609</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44320</v>
+        <v>44453</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44320</v>
+        <v>44453</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44327</v>
+        <v>44475</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44327</v>
+        <v>44475</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44350</v>
+        <v>44327</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44574</v>
+        <v>44350</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44574</v>
+        <v>44350</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44523</v>
+        <v>44574</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44523</v>
+        <v>44574</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44400</v>
+        <v>44523</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44400</v>
+        <v>44523</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44252</v>
+        <v>44400</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44252</v>
+        <v>44400</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44299</v>
+        <v>44252</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44299</v>
+        <v>44252</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44460</v>
+        <v>44299</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44460</v>
+        <v>44299</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44334</v>
+        <v>44460</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44334</v>
+        <v>44460</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44565</v>
+        <v>44334</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44565</v>
+        <v>44334</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44405</v>
+        <v>44565</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44405</v>
+        <v>44565</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44358</v>
+        <v>44405</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44358</v>
+        <v>44405</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44383</v>
+        <v>44358</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44582</v>
+        <v>44383</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44582</v>
+        <v>44383</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44525</v>
+        <v>44582</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44525</v>
+        <v>44582</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44435</v>
+        <v>44525</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44435</v>
+        <v>44525</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8565,7 +8565,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K114" t="n">
         <v>600</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K115" t="n">
         <v>500</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44194</v>
+        <v>44442</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K116" t="n">
         <v>600</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44194</v>
+        <v>44442</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K117" t="n">
         <v>500</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44398</v>
+        <v>44194</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44512</v>
+        <v>44398</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44512</v>
+        <v>44398</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44222</v>
+        <v>44512</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44222</v>
+        <v>44512</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44285</v>
+        <v>44222</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44285</v>
+        <v>44222</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44203</v>
+        <v>44285</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44203</v>
+        <v>44285</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44274</v>
+        <v>44203</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44274</v>
+        <v>44203</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44607</v>
+        <v>44274</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44607</v>
+        <v>44274</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44425</v>
+        <v>44607</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44425</v>
+        <v>44607</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44250</v>
+        <v>44425</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44250</v>
+        <v>44425</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44306</v>
+        <v>44250</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44306</v>
+        <v>44250</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44160</v>
+        <v>44306</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44160</v>
+        <v>44306</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10393,6 +10393,150 @@
         <v>1</v>
       </c>
       <c r="R139" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>11</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E140" t="n">
+        <v>8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>200</v>
+      </c>
+      <c r="K140" t="n">
+        <v>600</v>
+      </c>
+      <c r="L140" t="n">
+        <v>700</v>
+      </c>
+      <c r="M140" t="n">
+        <v>650</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>11</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E141" t="n">
+        <v>8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>100</v>
+      </c>
+      <c r="K141" t="n">
+        <v>500</v>
+      </c>
+      <c r="L141" t="n">
+        <v>500</v>
+      </c>
+      <c r="M141" t="n">
+        <v>500</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44239</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44239</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
         <v>600</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44336</v>
+        <v>44475</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44336</v>
+        <v>44475</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44663</v>
+        <v>44488</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44663</v>
+        <v>44488</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44349</v>
+        <v>44453</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44349</v>
+        <v>44453</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44231</v>
+        <v>44350</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44231</v>
+        <v>44350</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44355</v>
+        <v>44168</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44355</v>
+        <v>44168</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44365</v>
+        <v>44574</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44365</v>
+        <v>44574</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
         <v>600</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
         <v>500</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44187</v>
+        <v>44616</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44187</v>
+        <v>44616</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44400</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44400</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44553</v>
+        <v>44299</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44553</v>
+        <v>44299</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44447</v>
+        <v>44344</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44447</v>
+        <v>44344</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44469</v>
+        <v>44565</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44469</v>
+        <v>44565</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44168</v>
+        <v>44425</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44280</v>
+        <v>44224</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44280</v>
+        <v>44224</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44217</v>
+        <v>44679</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44217</v>
+        <v>44679</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44224</v>
+        <v>44336</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44224</v>
+        <v>44336</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44344</v>
+        <v>44490</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44344</v>
+        <v>44490</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44316</v>
+        <v>44386</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44313</v>
+        <v>44476</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44313</v>
+        <v>44476</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44341</v>
+        <v>44231</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44341</v>
+        <v>44231</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44665</v>
+        <v>44355</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44665</v>
+        <v>44355</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44308</v>
+        <v>44292</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44308</v>
+        <v>44292</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44391</v>
+        <v>44609</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44391</v>
+        <v>44609</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44679</v>
+        <v>44523</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44679</v>
+        <v>44523</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44330</v>
+        <v>44250</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44330</v>
+        <v>44250</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44476</v>
+        <v>44391</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44476</v>
+        <v>44391</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44386</v>
+        <v>44525</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44386</v>
+        <v>44525</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44579</v>
+        <v>44222</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44579</v>
+        <v>44222</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44488</v>
+        <v>44582</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44488</v>
+        <v>44582</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44237</v>
+        <v>44398</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44237</v>
+        <v>44398</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44292</v>
+        <v>44663</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44292</v>
+        <v>44663</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44616</v>
+        <v>44274</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44616</v>
+        <v>44274</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44490</v>
+        <v>44334</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44490</v>
+        <v>44334</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44609</v>
+        <v>44469</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44609</v>
+        <v>44469</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44453</v>
+        <v>44313</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44453</v>
+        <v>44313</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44320</v>
+        <v>44166</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44320</v>
+        <v>44166</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44327</v>
+        <v>44341</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44327</v>
+        <v>44341</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44350</v>
+        <v>44692</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44350</v>
+        <v>44692</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44574</v>
+        <v>44306</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44574</v>
+        <v>44306</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44523</v>
+        <v>44160</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44523</v>
+        <v>44160</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44400</v>
+        <v>44239</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44400</v>
+        <v>44239</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44252</v>
+        <v>44280</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44299</v>
+        <v>44512</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44299</v>
+        <v>44512</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44460</v>
+        <v>44285</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44460</v>
+        <v>44285</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44334</v>
+        <v>44320</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44334</v>
+        <v>44320</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44565</v>
+        <v>44553</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44565</v>
+        <v>44553</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44405</v>
+        <v>44278</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K104" t="n">
         <v>600</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44405</v>
+        <v>44278</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K105" t="n">
         <v>500</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44358</v>
+        <v>44349</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44358</v>
+        <v>44349</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44383</v>
+        <v>44447</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44383</v>
+        <v>44447</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44582</v>
+        <v>44316</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44582</v>
+        <v>44316</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44525</v>
+        <v>44433</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44525</v>
+        <v>44433</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44435</v>
+        <v>44203</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44435</v>
+        <v>44203</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44442</v>
+        <v>44308</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K116" t="n">
         <v>600</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44442</v>
+        <v>44308</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K117" t="n">
         <v>500</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44194</v>
+        <v>44665</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44194</v>
+        <v>44665</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44512</v>
+        <v>44272</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44512</v>
+        <v>44272</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44222</v>
+        <v>44237</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44222</v>
+        <v>44237</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44285</v>
+        <v>44330</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44285</v>
+        <v>44330</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44203</v>
+        <v>44187</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44203</v>
+        <v>44187</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44274</v>
+        <v>44194</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44274</v>
+        <v>44194</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44607</v>
+        <v>44365</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44607</v>
+        <v>44365</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44425</v>
+        <v>44327</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44425</v>
+        <v>44327</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44306</v>
+        <v>44217</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44306</v>
+        <v>44217</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44160</v>
+        <v>44460</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44160</v>
+        <v>44460</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10537,6 +10537,150 @@
         <v>1</v>
       </c>
       <c r="R141" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>11</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="E142" t="n">
+        <v>8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>200</v>
+      </c>
+      <c r="K142" t="n">
+        <v>600</v>
+      </c>
+      <c r="L142" t="n">
+        <v>700</v>
+      </c>
+      <c r="M142" t="n">
+        <v>650</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>1</v>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>11</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="E143" t="n">
+        <v>8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>100</v>
+      </c>
+      <c r="K143" t="n">
+        <v>500</v>
+      </c>
+      <c r="L143" t="n">
+        <v>500</v>
+      </c>
+      <c r="M143" t="n">
+        <v>500</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>1</v>
+      </c>
+      <c r="R143" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R143"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44433</v>
+        <v>44694</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44433</v>
+        <v>44694</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44203</v>
+        <v>44433</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44203</v>
+        <v>44433</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44308</v>
+        <v>44203</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44308</v>
+        <v>44203</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44665</v>
+        <v>44308</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44665</v>
+        <v>44308</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44383</v>
+        <v>44665</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44383</v>
+        <v>44665</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44272</v>
+        <v>44383</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44272</v>
+        <v>44383</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44237</v>
+        <v>44272</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44237</v>
+        <v>44272</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44330</v>
+        <v>44237</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44330</v>
+        <v>44237</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44194</v>
+        <v>44187</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44194</v>
+        <v>44187</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44365</v>
+        <v>44194</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44365</v>
+        <v>44194</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44327</v>
+        <v>44365</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44327</v>
+        <v>44365</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44358</v>
+        <v>44327</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44358</v>
+        <v>44327</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44217</v>
+        <v>44358</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44217</v>
+        <v>44358</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44460</v>
+        <v>44217</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44607</v>
+        <v>44460</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44607</v>
+        <v>44460</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10681,6 +10681,150 @@
         <v>1</v>
       </c>
       <c r="R143" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>11</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="E144" t="n">
+        <v>8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>200</v>
+      </c>
+      <c r="K144" t="n">
+        <v>600</v>
+      </c>
+      <c r="L144" t="n">
+        <v>700</v>
+      </c>
+      <c r="M144" t="n">
+        <v>650</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>11</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>100</v>
+      </c>
+      <c r="K145" t="n">
+        <v>500</v>
+      </c>
+      <c r="L145" t="n">
+        <v>500</v>
+      </c>
+      <c r="M145" t="n">
+        <v>500</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44252</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44252</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44362</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44442</v>
+        <v>44391</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
         <v>600</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44442</v>
+        <v>44391</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44488</v>
+        <v>44320</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44488</v>
+        <v>44320</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44453</v>
+        <v>44336</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44453</v>
+        <v>44336</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44350</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44350</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44168</v>
+        <v>44299</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44168</v>
+        <v>44299</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44574</v>
+        <v>44512</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44574</v>
+        <v>44512</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44579</v>
+        <v>44224</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44579</v>
+        <v>44224</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44616</v>
+        <v>44168</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44616</v>
+        <v>44168</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44400</v>
+        <v>44460</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44400</v>
+        <v>44460</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44565</v>
+        <v>44386</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44565</v>
+        <v>44386</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44425</v>
+        <v>44313</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44425</v>
+        <v>44313</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44224</v>
+        <v>44194</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44679</v>
+        <v>44285</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44679</v>
+        <v>44285</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44336</v>
+        <v>44203</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44336</v>
+        <v>44203</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44490</v>
+        <v>44274</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44490</v>
+        <v>44274</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44386</v>
+        <v>44222</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44386</v>
+        <v>44222</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44476</v>
+        <v>44278</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K46" t="n">
         <v>600</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44476</v>
+        <v>44278</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44231</v>
+        <v>44663</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44231</v>
+        <v>44663</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44355</v>
+        <v>44306</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44355</v>
+        <v>44306</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44292</v>
+        <v>44665</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44292</v>
+        <v>44665</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44609</v>
+        <v>44272</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44609</v>
+        <v>44272</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44523</v>
+        <v>44525</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44250</v>
+        <v>44308</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44250</v>
+        <v>44308</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44391</v>
+        <v>44553</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44391</v>
+        <v>44553</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44525</v>
+        <v>44476</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44525</v>
+        <v>44476</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44222</v>
+        <v>44350</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44222</v>
+        <v>44350</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44582</v>
+        <v>44398</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44582</v>
+        <v>44398</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44398</v>
+        <v>44327</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44398</v>
+        <v>44327</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44663</v>
+        <v>44383</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44663</v>
+        <v>44383</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44274</v>
+        <v>44362</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44274</v>
+        <v>44362</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44334</v>
+        <v>44607</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44334</v>
+        <v>44607</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44313</v>
+        <v>44252</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44313</v>
+        <v>44252</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44166</v>
+        <v>44453</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44166</v>
+        <v>44453</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44405</v>
+        <v>44616</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44405</v>
+        <v>44616</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44692</v>
+        <v>44609</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44692</v>
+        <v>44609</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44306</v>
+        <v>44330</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44160</v>
+        <v>44250</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44160</v>
+        <v>44250</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44239</v>
+        <v>44334</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44239</v>
+        <v>44334</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44512</v>
+        <v>44582</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44512</v>
+        <v>44582</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44285</v>
+        <v>44217</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44285</v>
+        <v>44217</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44320</v>
+        <v>44349</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44320</v>
+        <v>44349</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44553</v>
+        <v>44405</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44553</v>
+        <v>44405</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44278</v>
+        <v>44475</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K104" t="n">
         <v>600</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44278</v>
+        <v>44475</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K105" t="n">
         <v>500</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44349</v>
+        <v>44239</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44349</v>
+        <v>44239</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44447</v>
+        <v>44358</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44447</v>
+        <v>44358</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44316</v>
+        <v>44400</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44316</v>
+        <v>44400</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44694</v>
+        <v>44187</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44694</v>
+        <v>44187</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44433</v>
+        <v>44694</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44433</v>
+        <v>44694</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44203</v>
+        <v>44488</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44203</v>
+        <v>44488</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44308</v>
+        <v>44166</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44308</v>
+        <v>44166</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44665</v>
+        <v>44316</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44665</v>
+        <v>44316</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44383</v>
+        <v>44469</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44383</v>
+        <v>44469</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44272</v>
+        <v>44579</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44272</v>
+        <v>44579</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44237</v>
+        <v>44160</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44237</v>
+        <v>44160</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44330</v>
+        <v>44490</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44330</v>
+        <v>44490</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44187</v>
+        <v>44679</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44187</v>
+        <v>44679</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44194</v>
+        <v>44365</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44365</v>
+        <v>44565</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44365</v>
+        <v>44565</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44327</v>
+        <v>44447</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44327</v>
+        <v>44447</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44358</v>
+        <v>44523</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44358</v>
+        <v>44523</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44460</v>
+        <v>44692</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44460</v>
+        <v>44692</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44607</v>
+        <v>44442</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44607</v>
+        <v>44442</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44699</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44699</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44336</v>
+        <v>44320</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44336</v>
+        <v>44320</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44336</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44336</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44299</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44299</v>
+        <v>44425</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44512</v>
+        <v>44299</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44512</v>
+        <v>44299</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44433</v>
+        <v>44512</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44433</v>
+        <v>44512</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44224</v>
+        <v>44433</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44224</v>
+        <v>44433</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44168</v>
+        <v>44224</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44168</v>
+        <v>44224</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44460</v>
+        <v>44168</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44460</v>
+        <v>44168</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44355</v>
+        <v>44460</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44355</v>
+        <v>44460</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44292</v>
+        <v>44355</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44292</v>
+        <v>44355</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44386</v>
+        <v>44292</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44386</v>
+        <v>44292</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44313</v>
+        <v>44386</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44313</v>
+        <v>44386</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44194</v>
+        <v>44313</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44194</v>
+        <v>44313</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44285</v>
+        <v>44194</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44285</v>
+        <v>44194</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44203</v>
+        <v>44285</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44203</v>
+        <v>44285</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44274</v>
+        <v>44203</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44274</v>
+        <v>44203</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44222</v>
+        <v>44274</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44222</v>
+        <v>44274</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
         <v>600</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44663</v>
+        <v>44278</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K48" t="n">
         <v>600</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44663</v>
+        <v>44278</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K49" t="n">
         <v>500</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44306</v>
+        <v>44663</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44306</v>
+        <v>44663</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44665</v>
+        <v>44306</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44665</v>
+        <v>44306</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44272</v>
+        <v>44665</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44272</v>
+        <v>44665</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44525</v>
+        <v>44272</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44525</v>
+        <v>44272</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44308</v>
+        <v>44525</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44308</v>
+        <v>44525</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44553</v>
+        <v>44308</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44553</v>
+        <v>44308</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44476</v>
+        <v>44553</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44476</v>
+        <v>44553</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44350</v>
+        <v>44476</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44350</v>
+        <v>44476</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44398</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44398</v>
+        <v>44350</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44327</v>
+        <v>44398</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44327</v>
+        <v>44398</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44362</v>
+        <v>44383</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44362</v>
+        <v>44383</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44607</v>
+        <v>44362</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44607</v>
+        <v>44362</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44237</v>
+        <v>44607</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44237</v>
+        <v>44607</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44453</v>
+        <v>44252</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44453</v>
+        <v>44252</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44616</v>
+        <v>44453</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44616</v>
+        <v>44453</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44341</v>
+        <v>44616</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44341</v>
+        <v>44616</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44330</v>
+        <v>44609</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44330</v>
+        <v>44609</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44582</v>
+        <v>44280</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44582</v>
+        <v>44280</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44349</v>
+        <v>44217</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7575,7 +7575,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44349</v>
+        <v>44217</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44405</v>
+        <v>44349</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44405</v>
+        <v>44349</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44239</v>
+        <v>44475</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44239</v>
+        <v>44475</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44694</v>
+        <v>44187</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44694</v>
+        <v>44187</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44488</v>
+        <v>44694</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44488</v>
+        <v>44694</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44316</v>
+        <v>44166</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44316</v>
+        <v>44166</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44579</v>
+        <v>44469</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44579</v>
+        <v>44469</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44160</v>
+        <v>44579</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44160</v>
+        <v>44579</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44490</v>
+        <v>44160</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44490</v>
+        <v>44160</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44679</v>
+        <v>44490</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44679</v>
+        <v>44490</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44365</v>
+        <v>44679</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44365</v>
+        <v>44679</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44565</v>
+        <v>44365</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44565</v>
+        <v>44365</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44447</v>
+        <v>44565</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44447</v>
+        <v>44565</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44523</v>
+        <v>44447</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44523</v>
+        <v>44447</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44344</v>
+        <v>44523</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44344</v>
+        <v>44523</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44692</v>
+        <v>44344</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44692</v>
+        <v>44344</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44442</v>
+        <v>44692</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10773,58 +10773,202 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="E145" t="n">
+        <v>8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>100</v>
+      </c>
+      <c r="K145" t="n">
+        <v>500</v>
+      </c>
+      <c r="L145" t="n">
+        <v>500</v>
+      </c>
+      <c r="M145" t="n">
+        <v>500</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>11</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="E145" t="n">
-        <v>8</v>
-      </c>
-      <c r="F145" t="n">
-        <v>100112044</v>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Perejil</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
+      <c r="E146" t="n">
+        <v>8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>300</v>
+      </c>
+      <c r="K146" t="n">
+        <v>600</v>
+      </c>
+      <c r="L146" t="n">
+        <v>700</v>
+      </c>
+      <c r="M146" t="n">
+        <v>650</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1</v>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>11</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E147" t="n">
+        <v>8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J145" t="n">
+      <c r="J147" t="n">
         <v>150</v>
       </c>
-      <c r="K145" t="n">
-        <v>500</v>
-      </c>
-      <c r="L145" t="n">
-        <v>500</v>
-      </c>
-      <c r="M145" t="n">
-        <v>500</v>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>$/atado 0,5 a 1 kilo</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="P145" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q145" t="n">
-        <v>1</v>
-      </c>
-      <c r="R145" t="inlineStr">
+      <c r="K147" t="n">
+        <v>500</v>
+      </c>
+      <c r="L147" t="n">
+        <v>500</v>
+      </c>
+      <c r="M147" t="n">
+        <v>500</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44327</v>
+        <v>44705</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44327</v>
+        <v>44705</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44362</v>
+        <v>44383</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44362</v>
+        <v>44383</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44607</v>
+        <v>44362</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44607</v>
+        <v>44362</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44237</v>
+        <v>44607</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44237</v>
+        <v>44607</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44453</v>
+        <v>44252</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44453</v>
+        <v>44252</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44616</v>
+        <v>44453</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44616</v>
+        <v>44453</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44341</v>
+        <v>44616</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44341</v>
+        <v>44616</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44330</v>
+        <v>44609</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44330</v>
+        <v>44609</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44582</v>
+        <v>44280</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44582</v>
+        <v>44280</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44349</v>
+        <v>44217</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44349</v>
+        <v>44217</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44405</v>
+        <v>44349</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44405</v>
+        <v>44349</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P105" t="n">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44239</v>
+        <v>44475</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44239</v>
+        <v>44475</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44694</v>
+        <v>44187</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44694</v>
+        <v>44187</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44488</v>
+        <v>44694</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44488</v>
+        <v>44694</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44316</v>
+        <v>44166</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44316</v>
+        <v>44166</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44579</v>
+        <v>44469</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44579</v>
+        <v>44469</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44160</v>
+        <v>44579</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44160</v>
+        <v>44579</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44490</v>
+        <v>44160</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44490</v>
+        <v>44160</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44679</v>
+        <v>44490</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44679</v>
+        <v>44490</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44365</v>
+        <v>44679</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44365</v>
+        <v>44679</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44565</v>
+        <v>44365</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44565</v>
+        <v>44365</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44447</v>
+        <v>44565</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44447</v>
+        <v>44565</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44523</v>
+        <v>44447</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44523</v>
+        <v>44447</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44344</v>
+        <v>44523</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10594,7 +10594,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44344</v>
+        <v>44523</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44692</v>
+        <v>44344</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44692</v>
+        <v>44344</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44442</v>
+        <v>44692</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K146" t="n">
         <v>600</v>
@@ -10917,58 +10917,202 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="E147" t="n">
+        <v>8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>100</v>
+      </c>
+      <c r="K147" t="n">
+        <v>500</v>
+      </c>
+      <c r="L147" t="n">
+        <v>500</v>
+      </c>
+      <c r="M147" t="n">
+        <v>500</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>11</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="E147" t="n">
-        <v>8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>100112044</v>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Perejil</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
+      <c r="E148" t="n">
+        <v>8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>300</v>
+      </c>
+      <c r="K148" t="n">
+        <v>600</v>
+      </c>
+      <c r="L148" t="n">
+        <v>700</v>
+      </c>
+      <c r="M148" t="n">
+        <v>650</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>11</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E149" t="n">
+        <v>8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J147" t="n">
+      <c r="J149" t="n">
         <v>150</v>
       </c>
-      <c r="K147" t="n">
-        <v>500</v>
-      </c>
-      <c r="L147" t="n">
-        <v>500</v>
-      </c>
-      <c r="M147" t="n">
-        <v>500</v>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>$/atado 0,5 a 1 kilo</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="P147" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q147" t="n">
-        <v>1</v>
-      </c>
-      <c r="R147" t="inlineStr">
+      <c r="K149" t="n">
+        <v>500</v>
+      </c>
+      <c r="L149" t="n">
+        <v>500</v>
+      </c>
+      <c r="M149" t="n">
+        <v>500</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R149"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44222</v>
+        <v>44708</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44222</v>
+        <v>44708</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
         <v>600</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44278</v>
+        <v>44222</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3885,7 +3885,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K49" t="n">
         <v>500</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44663</v>
+        <v>44278</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K50" t="n">
         <v>600</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44663</v>
+        <v>44278</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K51" t="n">
         <v>500</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44306</v>
+        <v>44663</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44306</v>
+        <v>44663</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44665</v>
+        <v>44306</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44665</v>
+        <v>44306</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44272</v>
+        <v>44665</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44272</v>
+        <v>44665</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44525</v>
+        <v>44272</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44525</v>
+        <v>44272</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44308</v>
+        <v>44525</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44308</v>
+        <v>44525</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44553</v>
+        <v>44308</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44553</v>
+        <v>44308</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44476</v>
+        <v>44553</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44476</v>
+        <v>44553</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44350</v>
+        <v>44476</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44350</v>
+        <v>44476</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44398</v>
+        <v>44350</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44398</v>
+        <v>44350</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44705</v>
+        <v>44398</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44705</v>
+        <v>44398</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44327</v>
+        <v>44705</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44327</v>
+        <v>44705</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44383</v>
+        <v>44327</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44362</v>
+        <v>44383</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44362</v>
+        <v>44383</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44607</v>
+        <v>44362</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44607</v>
+        <v>44362</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44237</v>
+        <v>44607</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44237</v>
+        <v>44607</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44252</v>
+        <v>44237</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44453</v>
+        <v>44252</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44453</v>
+        <v>44252</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44616</v>
+        <v>44453</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44616</v>
+        <v>44453</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44341</v>
+        <v>44616</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44341</v>
+        <v>44616</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44330</v>
+        <v>44609</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44330</v>
+        <v>44609</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44334</v>
+        <v>44250</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44280</v>
+        <v>44334</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44582</v>
+        <v>44280</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44582</v>
+        <v>44280</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44217</v>
+        <v>44582</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44349</v>
+        <v>44217</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44349</v>
+        <v>44217</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P105" t="n">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44405</v>
+        <v>44349</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44405</v>
+        <v>44349</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44475</v>
+        <v>44405</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44239</v>
+        <v>44475</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44239</v>
+        <v>44475</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44694</v>
+        <v>44187</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44694</v>
+        <v>44187</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44488</v>
+        <v>44694</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44488</v>
+        <v>44694</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44166</v>
+        <v>44488</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44316</v>
+        <v>44166</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44316</v>
+        <v>44166</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44469</v>
+        <v>44316</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44579</v>
+        <v>44469</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44579</v>
+        <v>44469</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44160</v>
+        <v>44579</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44160</v>
+        <v>44579</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44490</v>
+        <v>44160</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44490</v>
+        <v>44160</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44679</v>
+        <v>44490</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44679</v>
+        <v>44490</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44365</v>
+        <v>44679</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44365</v>
+        <v>44679</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44565</v>
+        <v>44365</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P138" t="n">
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44565</v>
+        <v>44365</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P139" t="n">
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44447</v>
+        <v>44565</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44447</v>
+        <v>44565</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44523</v>
+        <v>44447</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44523</v>
+        <v>44447</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44344</v>
+        <v>44523</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44344</v>
+        <v>44523</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10810,7 +10810,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44692</v>
+        <v>44344</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44692</v>
+        <v>44344</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44442</v>
+        <v>44692</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K148" t="n">
         <v>600</v>
@@ -11061,58 +11061,202 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="E149" t="n">
+        <v>8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>100</v>
+      </c>
+      <c r="K149" t="n">
+        <v>500</v>
+      </c>
+      <c r="L149" t="n">
+        <v>500</v>
+      </c>
+      <c r="M149" t="n">
+        <v>500</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>11</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="E149" t="n">
-        <v>8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>100112044</v>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Perejil</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
+      <c r="E150" t="n">
+        <v>8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>300</v>
+      </c>
+      <c r="K150" t="n">
+        <v>600</v>
+      </c>
+      <c r="L150" t="n">
+        <v>700</v>
+      </c>
+      <c r="M150" t="n">
+        <v>650</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>11</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="E151" t="n">
+        <v>8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J149" t="n">
+      <c r="J151" t="n">
         <v>150</v>
       </c>
-      <c r="K149" t="n">
-        <v>500</v>
-      </c>
-      <c r="L149" t="n">
-        <v>500</v>
-      </c>
-      <c r="M149" t="n">
-        <v>500</v>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>$/atado 0,5 a 1 kilo</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="P149" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>1</v>
-      </c>
-      <c r="R149" t="inlineStr">
+      <c r="K151" t="n">
+        <v>500</v>
+      </c>
+      <c r="L151" t="n">
+        <v>500</v>
+      </c>
+      <c r="M151" t="n">
+        <v>500</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>1</v>
+      </c>
+      <c r="R151" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44488</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44488</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44699</v>
+        <v>44391</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44699</v>
+        <v>44391</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44391</v>
+        <v>44616</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44391</v>
+        <v>44616</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44231</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44231</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44320</v>
+        <v>44475</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44320</v>
+        <v>44475</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44336</v>
+        <v>44442</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
         <v>600</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44336</v>
+        <v>44442</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K15" t="n">
         <v>500</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44222</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44425</v>
+        <v>44222</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44299</v>
+        <v>44231</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44299</v>
+        <v>44231</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44512</v>
+        <v>44553</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44512</v>
+        <v>44553</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44433</v>
+        <v>44344</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44433</v>
+        <v>44344</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44168</v>
+        <v>44460</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44168</v>
+        <v>44460</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44460</v>
+        <v>44250</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44460</v>
+        <v>44250</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44355</v>
+        <v>44607</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44355</v>
+        <v>44607</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44292</v>
+        <v>44278</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
         <v>600</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44292</v>
+        <v>44278</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K33" t="n">
         <v>500</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44386</v>
+        <v>44525</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44386</v>
+        <v>44525</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44313</v>
+        <v>44239</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44313</v>
+        <v>44239</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44194</v>
+        <v>44237</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44194</v>
+        <v>44237</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44285</v>
+        <v>44476</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44285</v>
+        <v>44476</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44203</v>
+        <v>44383</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44203</v>
+        <v>44383</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44274</v>
+        <v>44217</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44274</v>
+        <v>44217</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44708</v>
+        <v>44327</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44708</v>
+        <v>44327</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44222</v>
+        <v>44705</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44222</v>
+        <v>44705</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44278</v>
+        <v>44194</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K50" t="n">
         <v>600</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44278</v>
+        <v>44194</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
         <v>500</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44663</v>
+        <v>44574</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44663</v>
+        <v>44574</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44665</v>
+        <v>44365</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44665</v>
+        <v>44365</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44272</v>
+        <v>44280</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44272</v>
+        <v>44280</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44525</v>
+        <v>44692</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44525</v>
+        <v>44692</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44308</v>
+        <v>44694</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44308</v>
+        <v>44694</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44553</v>
+        <v>44252</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44553</v>
+        <v>44252</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44476</v>
+        <v>44582</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44476</v>
+        <v>44582</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44350</v>
+        <v>44306</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44350</v>
+        <v>44306</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44398</v>
+        <v>44316</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44398</v>
+        <v>44316</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44705</v>
+        <v>44358</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44705</v>
+        <v>44358</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44327</v>
+        <v>44425</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44327</v>
+        <v>44425</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44383</v>
+        <v>44665</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44383</v>
+        <v>44665</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44362</v>
+        <v>44349</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44362</v>
+        <v>44349</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44607</v>
+        <v>44334</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44607</v>
+        <v>44334</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44237</v>
+        <v>44336</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44237</v>
+        <v>44336</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44252</v>
+        <v>44272</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44252</v>
+        <v>44272</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44453</v>
+        <v>44523</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44453</v>
+        <v>44523</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44616</v>
+        <v>44400</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44616</v>
+        <v>44400</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44609</v>
+        <v>44362</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44609</v>
+        <v>44362</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44330</v>
+        <v>44320</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44330</v>
+        <v>44320</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44250</v>
+        <v>44350</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44250</v>
+        <v>44350</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44334</v>
+        <v>44447</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44334</v>
+        <v>44447</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44280</v>
+        <v>44308</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44280</v>
+        <v>44308</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44582</v>
+        <v>44435</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44582</v>
+        <v>44435</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44349</v>
+        <v>44512</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44349</v>
+        <v>44512</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44405</v>
+        <v>44490</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44405</v>
+        <v>44490</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44475</v>
+        <v>44203</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44475</v>
+        <v>44203</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44239</v>
+        <v>44679</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44239</v>
+        <v>44679</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44358</v>
+        <v>44663</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44358</v>
+        <v>44663</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44400</v>
+        <v>44313</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44400</v>
+        <v>44313</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44187</v>
+        <v>44274</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44187</v>
+        <v>44274</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44694</v>
+        <v>44433</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44694</v>
+        <v>44433</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44488</v>
+        <v>44292</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44488</v>
+        <v>44292</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44166</v>
+        <v>44330</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44166</v>
+        <v>44330</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44469</v>
+        <v>44579</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44469</v>
+        <v>44579</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44579</v>
+        <v>44285</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44579</v>
+        <v>44285</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44160</v>
+        <v>44708</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44160</v>
+        <v>44708</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44490</v>
+        <v>44160</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44490</v>
+        <v>44160</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44679</v>
+        <v>44565</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44679</v>
+        <v>44565</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44365</v>
+        <v>44187</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44365</v>
+        <v>44187</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44565</v>
+        <v>44609</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P140" t="n">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44565</v>
+        <v>44609</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P141" t="n">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44523</v>
+        <v>44168</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44523</v>
+        <v>44168</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44344</v>
+        <v>44699</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44344</v>
+        <v>44699</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44692</v>
+        <v>44299</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44692</v>
+        <v>44299</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44442</v>
+        <v>44453</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K150" t="n">
         <v>600</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44442</v>
+        <v>44453</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K151" t="n">
         <v>500</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:R153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44336</v>
+        <v>44719</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44336</v>
+        <v>44719</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44272</v>
+        <v>44336</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44272</v>
+        <v>44336</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44523</v>
+        <v>44272</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44523</v>
+        <v>44272</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44400</v>
+        <v>44523</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44400</v>
+        <v>44523</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44341</v>
+        <v>44400</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44341</v>
+        <v>44400</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44362</v>
+        <v>44341</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44362</v>
+        <v>44341</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44350</v>
+        <v>44320</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44350</v>
+        <v>44320</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44447</v>
+        <v>44350</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44447</v>
+        <v>44350</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44435</v>
+        <v>44308</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44435</v>
+        <v>44308</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44224</v>
+        <v>44435</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44512</v>
+        <v>44224</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44512</v>
+        <v>44224</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44490</v>
+        <v>44512</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44490</v>
+        <v>44512</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44203</v>
+        <v>44490</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44203</v>
+        <v>44490</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44679</v>
+        <v>44203</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44679</v>
+        <v>44203</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44663</v>
+        <v>44679</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44663</v>
+        <v>44679</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44313</v>
+        <v>44663</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44313</v>
+        <v>44663</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44274</v>
+        <v>44313</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44274</v>
+        <v>44313</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44433</v>
+        <v>44274</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44433</v>
+        <v>44274</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44292</v>
+        <v>44433</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44292</v>
+        <v>44433</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44330</v>
+        <v>44292</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44330</v>
+        <v>44292</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44398</v>
+        <v>44330</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44398</v>
+        <v>44330</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44579</v>
+        <v>44398</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44579</v>
+        <v>44398</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44285</v>
+        <v>44579</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44285</v>
+        <v>44579</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44708</v>
+        <v>44285</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44708</v>
+        <v>44285</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44160</v>
+        <v>44708</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44160</v>
+        <v>44708</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44565</v>
+        <v>44160</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10167,7 +10167,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44565</v>
+        <v>44160</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44187</v>
+        <v>44565</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44187</v>
+        <v>44565</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44609</v>
+        <v>44187</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44609</v>
+        <v>44187</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44166</v>
+        <v>44609</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44166</v>
+        <v>44609</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44699</v>
+        <v>44168</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44699</v>
+        <v>44168</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44299</v>
+        <v>44699</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44299</v>
+        <v>44699</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44453</v>
+        <v>44299</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44453</v>
+        <v>44299</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11257,6 +11257,150 @@
         <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>11</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>200</v>
+      </c>
+      <c r="K152" t="n">
+        <v>600</v>
+      </c>
+      <c r="L152" t="n">
+        <v>700</v>
+      </c>
+      <c r="M152" t="n">
+        <v>650</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>11</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="E153" t="n">
+        <v>8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>100</v>
+      </c>
+      <c r="K153" t="n">
+        <v>500</v>
+      </c>
+      <c r="L153" t="n">
+        <v>500</v>
+      </c>
+      <c r="M153" t="n">
+        <v>500</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R153" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44488</v>
+        <v>44237</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44488</v>
+        <v>44237</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44391</v>
+        <v>44292</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44391</v>
+        <v>44292</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44442</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
         <v>600</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44442</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44616</v>
+        <v>44663</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44616</v>
+        <v>44663</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44398</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44469</v>
+        <v>44398</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44475</v>
+        <v>44525</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44475</v>
+        <v>44525</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44442</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
         <v>600</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44442</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>500</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44222</v>
+        <v>44349</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44222</v>
+        <v>44349</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44231</v>
+        <v>44400</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44231</v>
+        <v>44400</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44553</v>
+        <v>44665</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44553</v>
+        <v>44665</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44344</v>
+        <v>44609</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44344</v>
+        <v>44609</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44405</v>
+        <v>44425</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44405</v>
+        <v>44425</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44460</v>
+        <v>44299</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44460</v>
+        <v>44299</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44250</v>
+        <v>44607</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44250</v>
+        <v>44607</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44607</v>
+        <v>44433</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44607</v>
+        <v>44433</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44278</v>
+        <v>44344</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
         <v>600</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44278</v>
+        <v>44344</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
         <v>500</v>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44525</v>
+        <v>44679</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44525</v>
+        <v>44679</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44239</v>
+        <v>44355</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44239</v>
+        <v>44355</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44237</v>
+        <v>44272</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44237</v>
+        <v>44272</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44476</v>
+        <v>44692</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44476</v>
+        <v>44692</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44383</v>
+        <v>44274</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44383</v>
+        <v>44274</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44217</v>
+        <v>44705</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44217</v>
+        <v>44705</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44327</v>
+        <v>44574</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44327</v>
+        <v>44574</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44705</v>
+        <v>44694</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44705</v>
+        <v>44694</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44194</v>
+        <v>44252</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44194</v>
+        <v>44252</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44574</v>
+        <v>44719</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44574</v>
+        <v>44719</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44386</v>
+        <v>44460</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44386</v>
+        <v>44460</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44365</v>
+        <v>44582</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44365</v>
+        <v>44582</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44280</v>
+        <v>44239</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44280</v>
+        <v>44239</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44692</v>
+        <v>44280</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44692</v>
+        <v>44280</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44694</v>
+        <v>44405</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44694</v>
+        <v>44405</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44252</v>
+        <v>44488</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44252</v>
+        <v>44488</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44582</v>
+        <v>44469</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44582</v>
+        <v>44469</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44306</v>
+        <v>44523</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44306</v>
+        <v>44523</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44316</v>
+        <v>44285</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44316</v>
+        <v>44285</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44358</v>
+        <v>44327</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44358</v>
+        <v>44327</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44425</v>
+        <v>44320</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44425</v>
+        <v>44320</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44665</v>
+        <v>44386</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44665</v>
+        <v>44386</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44349</v>
+        <v>44166</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44349</v>
+        <v>44166</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44334</v>
+        <v>44616</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44334</v>
+        <v>44616</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44719</v>
+        <v>44341</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44719</v>
+        <v>44341</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44336</v>
+        <v>44222</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44336</v>
+        <v>44222</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44272</v>
+        <v>44336</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44272</v>
+        <v>44336</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44523</v>
+        <v>44217</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44523</v>
+        <v>44217</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44400</v>
+        <v>44334</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44400</v>
+        <v>44334</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44341</v>
+        <v>44579</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44341</v>
+        <v>44579</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44362</v>
+        <v>44308</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44362</v>
+        <v>44308</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44447</v>
+        <v>44306</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44447</v>
+        <v>44306</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44308</v>
+        <v>44447</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44435</v>
+        <v>44365</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44435</v>
+        <v>44365</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44224</v>
+        <v>44330</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44224</v>
+        <v>44330</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44512</v>
+        <v>44708</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44512</v>
+        <v>44708</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44490</v>
+        <v>44475</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44490</v>
+        <v>44475</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44203</v>
+        <v>44160</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44679</v>
+        <v>44553</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44679</v>
+        <v>44553</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44663</v>
+        <v>44250</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P116" t="n">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44663</v>
+        <v>44250</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P117" t="n">
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44313</v>
+        <v>44699</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44274</v>
+        <v>44453</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44274</v>
+        <v>44453</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44433</v>
+        <v>44231</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44433</v>
+        <v>44231</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44292</v>
+        <v>44316</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44292</v>
+        <v>44316</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44330</v>
+        <v>44168</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44330</v>
+        <v>44168</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44398</v>
+        <v>44490</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44398</v>
+        <v>44490</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44579</v>
+        <v>44435</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44579</v>
+        <v>44435</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44285</v>
+        <v>44565</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44285</v>
+        <v>44565</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44708</v>
+        <v>44476</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44708</v>
+        <v>44476</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44160</v>
+        <v>44187</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44160</v>
+        <v>44187</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44565</v>
+        <v>44358</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P138" t="n">
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44565</v>
+        <v>44358</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P139" t="n">
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44187</v>
+        <v>44224</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44187</v>
+        <v>44224</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44609</v>
+        <v>44383</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44609</v>
+        <v>44383</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44166</v>
+        <v>44313</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44166</v>
+        <v>44313</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44168</v>
+        <v>44278</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K146" t="n">
         <v>600</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44168</v>
+        <v>44278</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K147" t="n">
         <v>500</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44699</v>
+        <v>44350</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44699</v>
+        <v>44350</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44299</v>
+        <v>44203</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44299</v>
+        <v>44203</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44453</v>
+        <v>44512</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44453</v>
+        <v>44512</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44237</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44237</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44292</v>
+        <v>44574</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44292</v>
+        <v>44574</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44442</v>
+        <v>44694</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
         <v>600</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44442</v>
+        <v>44694</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44663</v>
+        <v>44565</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44663</v>
+        <v>44565</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44398</v>
+        <v>44607</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44398</v>
+        <v>44607</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44525</v>
+        <v>44285</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44525</v>
+        <v>44285</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44405</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44405</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44349</v>
+        <v>44320</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44349</v>
+        <v>44320</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44400</v>
+        <v>44355</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44400</v>
+        <v>44355</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44665</v>
+        <v>44292</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44665</v>
+        <v>44292</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44609</v>
+        <v>44349</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44609</v>
+        <v>44349</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44425</v>
+        <v>44250</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44425</v>
+        <v>44250</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44299</v>
+        <v>44475</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44299</v>
+        <v>44475</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44607</v>
+        <v>44460</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44607</v>
+        <v>44460</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44433</v>
+        <v>44365</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44433</v>
+        <v>44365</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44344</v>
+        <v>44512</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44344</v>
+        <v>44512</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44679</v>
+        <v>44719</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44679</v>
+        <v>44719</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44355</v>
+        <v>44203</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44355</v>
+        <v>44203</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44272</v>
+        <v>44313</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44272</v>
+        <v>44313</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44692</v>
+        <v>44665</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44692</v>
+        <v>44665</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44274</v>
+        <v>44616</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44274</v>
+        <v>44616</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44705</v>
+        <v>44166</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44705</v>
+        <v>44166</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44574</v>
+        <v>44217</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44574</v>
+        <v>44217</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44694</v>
+        <v>44274</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44694</v>
+        <v>44274</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44252</v>
+        <v>44278</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K50" t="n">
         <v>600</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44252</v>
+        <v>44278</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K51" t="n">
         <v>500</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44719</v>
+        <v>44306</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44719</v>
+        <v>44306</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44460</v>
+        <v>44316</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44460</v>
+        <v>44316</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44582</v>
+        <v>44168</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44582</v>
+        <v>44168</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44239</v>
+        <v>44224</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44280</v>
+        <v>44525</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44280</v>
+        <v>44525</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44405</v>
+        <v>44222</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44405</v>
+        <v>44222</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44488</v>
+        <v>44383</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44488</v>
+        <v>44383</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44469</v>
+        <v>44391</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44469</v>
+        <v>44391</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44523</v>
+        <v>44358</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44523</v>
+        <v>44358</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44285</v>
+        <v>44523</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44285</v>
+        <v>44523</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44327</v>
+        <v>44280</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44327</v>
+        <v>44280</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44320</v>
+        <v>44308</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44386</v>
+        <v>44341</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44386</v>
+        <v>44341</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44166</v>
+        <v>44708</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44166</v>
+        <v>44708</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44616</v>
+        <v>44334</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44616</v>
+        <v>44334</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44341</v>
+        <v>44679</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44341</v>
+        <v>44679</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44222</v>
+        <v>44705</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44222</v>
+        <v>44705</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44336</v>
+        <v>44447</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44336</v>
+        <v>44447</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44217</v>
+        <v>44160</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44217</v>
+        <v>44160</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44334</v>
+        <v>44692</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44334</v>
+        <v>44692</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44579</v>
+        <v>44400</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44579</v>
+        <v>44400</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44308</v>
+        <v>44362</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44308</v>
+        <v>44362</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44362</v>
+        <v>44453</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44362</v>
+        <v>44453</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44306</v>
+        <v>44490</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44306</v>
+        <v>44490</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44447</v>
+        <v>44330</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44447</v>
+        <v>44330</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44365</v>
+        <v>44488</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44365</v>
+        <v>44488</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44330</v>
+        <v>44252</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44330</v>
+        <v>44252</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44708</v>
+        <v>44350</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44708</v>
+        <v>44350</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44475</v>
+        <v>44469</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44475</v>
+        <v>44469</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44160</v>
+        <v>44435</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44160</v>
+        <v>44435</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44553</v>
+        <v>44237</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44553</v>
+        <v>44237</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44250</v>
+        <v>44299</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P116" t="n">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44250</v>
+        <v>44299</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P117" t="n">
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44699</v>
+        <v>44476</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44699</v>
+        <v>44476</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44453</v>
+        <v>44579</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44453</v>
+        <v>44579</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P121" t="n">
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44231</v>
+        <v>44609</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44231</v>
+        <v>44609</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44168</v>
+        <v>44553</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44168</v>
+        <v>44553</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44490</v>
+        <v>44336</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44490</v>
+        <v>44336</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44435</v>
+        <v>44699</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44435</v>
+        <v>44699</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44565</v>
+        <v>44239</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44565</v>
+        <v>44239</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44476</v>
+        <v>44272</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44476</v>
+        <v>44272</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44187</v>
+        <v>44386</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44187</v>
+        <v>44386</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44358</v>
+        <v>44582</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44358</v>
+        <v>44582</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44224</v>
+        <v>44344</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44224</v>
+        <v>44344</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44383</v>
+        <v>44433</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44383</v>
+        <v>44433</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44313</v>
+        <v>44442</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44313</v>
+        <v>44442</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44278</v>
+        <v>44663</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K146" t="n">
         <v>600</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44278</v>
+        <v>44663</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K147" t="n">
         <v>500</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44203</v>
+        <v>44231</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44203</v>
+        <v>44231</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44512</v>
+        <v>44194</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44512</v>
+        <v>44194</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44574</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44574</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44694</v>
+        <v>44400</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44694</v>
+        <v>44400</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44565</v>
+        <v>44330</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44565</v>
+        <v>44330</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44607</v>
+        <v>44512</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44607</v>
+        <v>44512</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44285</v>
+        <v>44433</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44285</v>
+        <v>44433</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44405</v>
+        <v>44316</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44405</v>
+        <v>44316</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44355</v>
+        <v>44350</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44355</v>
+        <v>44350</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44292</v>
+        <v>44708</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44292</v>
+        <v>44708</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44349</v>
+        <v>44694</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44349</v>
+        <v>44694</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44250</v>
+        <v>44383</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44250</v>
+        <v>44383</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44475</v>
+        <v>44306</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44475</v>
+        <v>44306</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44460</v>
+        <v>44194</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44460</v>
+        <v>44194</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44365</v>
+        <v>44308</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44365</v>
+        <v>44308</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44512</v>
+        <v>44488</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44512</v>
+        <v>44488</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44719</v>
+        <v>44285</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44719</v>
+        <v>44285</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44203</v>
+        <v>44313</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44203</v>
+        <v>44313</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44313</v>
+        <v>44341</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44313</v>
+        <v>44341</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44665</v>
+        <v>44447</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44665</v>
+        <v>44447</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44616</v>
+        <v>44336</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44616</v>
+        <v>44336</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44166</v>
+        <v>44442</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" t="n">
         <v>600</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44166</v>
+        <v>44442</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K45" t="n">
         <v>500</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44217</v>
+        <v>44168</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44217</v>
+        <v>44168</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44274</v>
+        <v>44187</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44274</v>
+        <v>44187</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44278</v>
+        <v>44237</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K50" t="n">
         <v>600</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44278</v>
+        <v>44237</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K51" t="n">
         <v>500</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44306</v>
+        <v>44386</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44316</v>
+        <v>44607</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44316</v>
+        <v>44607</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44168</v>
+        <v>44523</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44168</v>
+        <v>44523</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44224</v>
+        <v>44663</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44224</v>
+        <v>44663</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44525</v>
+        <v>44239</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44525</v>
+        <v>44239</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44222</v>
+        <v>44490</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44222</v>
+        <v>44490</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44383</v>
+        <v>44391</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44383</v>
+        <v>44391</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44391</v>
+        <v>44222</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44391</v>
+        <v>44222</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44358</v>
+        <v>44160</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44358</v>
+        <v>44160</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44523</v>
+        <v>44274</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44523</v>
+        <v>44274</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44280</v>
+        <v>44553</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44280</v>
+        <v>44553</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44308</v>
+        <v>44579</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44308</v>
+        <v>44579</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44341</v>
+        <v>44272</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44341</v>
+        <v>44272</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44708</v>
+        <v>44679</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44708</v>
+        <v>44679</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44334</v>
+        <v>44203</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44334</v>
+        <v>44203</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44679</v>
+        <v>44616</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44679</v>
+        <v>44616</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44705</v>
+        <v>44292</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44705</v>
+        <v>44292</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44447</v>
+        <v>44231</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44447</v>
+        <v>44231</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44160</v>
+        <v>44252</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44160</v>
+        <v>44252</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44692</v>
+        <v>44250</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44692</v>
+        <v>44250</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44400</v>
+        <v>44469</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44400</v>
+        <v>44469</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44362</v>
+        <v>44224</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44362</v>
+        <v>44224</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44327</v>
+        <v>44692</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44327</v>
+        <v>44692</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44490</v>
+        <v>44327</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44490</v>
+        <v>44327</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44330</v>
+        <v>44665</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44330</v>
+        <v>44665</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44488</v>
+        <v>44460</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44488</v>
+        <v>44460</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44252</v>
+        <v>44476</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44252</v>
+        <v>44476</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44350</v>
+        <v>44525</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44350</v>
+        <v>44525</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44469</v>
+        <v>44475</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44469</v>
+        <v>44475</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44435</v>
+        <v>44582</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44435</v>
+        <v>44582</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44237</v>
+        <v>44365</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44237</v>
+        <v>44365</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44299</v>
+        <v>44217</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44299</v>
+        <v>44217</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44476</v>
+        <v>44453</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44476</v>
+        <v>44453</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44579</v>
+        <v>44609</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P120" t="n">
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44579</v>
+        <v>44609</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P121" t="n">
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44609</v>
+        <v>44405</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44609</v>
+        <v>44405</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44398</v>
+        <v>44334</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44398</v>
+        <v>44334</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44553</v>
+        <v>44398</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44553</v>
+        <v>44398</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44336</v>
+        <v>44349</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44699</v>
+        <v>44425</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44699</v>
+        <v>44425</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44239</v>
+        <v>44280</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44272</v>
+        <v>44719</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44272</v>
+        <v>44719</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44386</v>
+        <v>44699</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44386</v>
+        <v>44699</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44582</v>
+        <v>44705</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44582</v>
+        <v>44705</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44344</v>
+        <v>44358</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44344</v>
+        <v>44358</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44433</v>
+        <v>44278</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K142" t="n">
         <v>600</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44433</v>
+        <v>44278</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K143" t="n">
         <v>500</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44442</v>
+        <v>44355</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44442</v>
+        <v>44355</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44663</v>
+        <v>44362</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44663</v>
+        <v>44362</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44187</v>
+        <v>44166</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44231</v>
+        <v>44320</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44231</v>
+        <v>44320</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44194</v>
+        <v>44344</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44194</v>
+        <v>44344</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11386,7 +11386,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R153"/>
+  <dimension ref="A1:R155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44398</v>
+        <v>44754</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44398</v>
+        <v>44754</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44425</v>
+        <v>44349</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44425</v>
+        <v>44349</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44280</v>
+        <v>44425</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44280</v>
+        <v>44425</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44719</v>
+        <v>44280</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44719</v>
+        <v>44280</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44699</v>
+        <v>44719</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44699</v>
+        <v>44719</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44358</v>
+        <v>44705</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44358</v>
+        <v>44705</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44278</v>
+        <v>44358</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K142" t="n">
         <v>600</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44278</v>
+        <v>44358</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K143" t="n">
         <v>500</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44355</v>
+        <v>44278</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44355</v>
+        <v>44278</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44166</v>
+        <v>44362</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44166</v>
+        <v>44362</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44320</v>
+        <v>44166</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44320</v>
+        <v>44166</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44344</v>
+        <v>44320</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44344</v>
+        <v>44320</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11386,21 +11386,165 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>1</v>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>11</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="E154" t="n">
+        <v>8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>200</v>
+      </c>
+      <c r="K154" t="n">
+        <v>600</v>
+      </c>
+      <c r="L154" t="n">
+        <v>700</v>
+      </c>
+      <c r="M154" t="n">
+        <v>650</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
           <t>$/docena de 1 kilo</t>
         </is>
       </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="P153" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>1</v>
-      </c>
-      <c r="R153" t="inlineStr">
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>11</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="E155" t="n">
+        <v>8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>100</v>
+      </c>
+      <c r="K155" t="n">
+        <v>500</v>
+      </c>
+      <c r="L155" t="n">
+        <v>500</v>
+      </c>
+      <c r="M155" t="n">
+        <v>500</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>$/docena de 1 kilo</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R155" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R155"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44330</v>
+        <v>44756</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L8" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44330</v>
+        <v>44756</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44512</v>
+        <v>44330</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44512</v>
+        <v>44330</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44433</v>
+        <v>44512</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44433</v>
+        <v>44512</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44708</v>
+        <v>44350</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44708</v>
+        <v>44350</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44694</v>
+        <v>44708</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44694</v>
+        <v>44708</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44383</v>
+        <v>44694</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44383</v>
+        <v>44694</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44306</v>
+        <v>44383</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44306</v>
+        <v>44383</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44194</v>
+        <v>44306</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44194</v>
+        <v>44306</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44308</v>
+        <v>44194</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44308</v>
+        <v>44194</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44488</v>
+        <v>44308</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44488</v>
+        <v>44308</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44285</v>
+        <v>44488</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44285</v>
+        <v>44488</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44313</v>
+        <v>44285</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44313</v>
+        <v>44285</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44341</v>
+        <v>44313</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44341</v>
+        <v>44313</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44447</v>
+        <v>44341</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44447</v>
+        <v>44341</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44336</v>
+        <v>44447</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44336</v>
+        <v>44447</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44442</v>
+        <v>44336</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K44" t="n">
         <v>600</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44442</v>
+        <v>44336</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
         <v>500</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44168</v>
+        <v>44442</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K46" t="n">
         <v>600</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44168</v>
+        <v>44442</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44187</v>
+        <v>44168</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44187</v>
+        <v>44168</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44237</v>
+        <v>44187</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44237</v>
+        <v>44187</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44386</v>
+        <v>44237</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44386</v>
+        <v>44237</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44607</v>
+        <v>44386</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44607</v>
+        <v>44386</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44523</v>
+        <v>44607</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44523</v>
+        <v>44607</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44663</v>
+        <v>44523</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44663</v>
+        <v>44523</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44239</v>
+        <v>44663</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44239</v>
+        <v>44663</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44490</v>
+        <v>44239</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44490</v>
+        <v>44239</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44391</v>
+        <v>44490</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44391</v>
+        <v>44490</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44222</v>
+        <v>44391</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44222</v>
+        <v>44391</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44160</v>
+        <v>44222</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44160</v>
+        <v>44222</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44274</v>
+        <v>44160</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44553</v>
+        <v>44274</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44553</v>
+        <v>44274</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44579</v>
+        <v>44553</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44579</v>
+        <v>44553</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44272</v>
+        <v>44579</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44272</v>
+        <v>44579</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44679</v>
+        <v>44272</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44679</v>
+        <v>44272</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44203</v>
+        <v>44679</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44203</v>
+        <v>44679</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44616</v>
+        <v>44203</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44616</v>
+        <v>44203</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44292</v>
+        <v>44616</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44292</v>
+        <v>44616</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44231</v>
+        <v>44292</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44231</v>
+        <v>44292</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44252</v>
+        <v>44231</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44252</v>
+        <v>44231</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44250</v>
+        <v>44252</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P91" t="n">
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44469</v>
+        <v>44250</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44469</v>
+        <v>44250</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44224</v>
+        <v>44469</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44224</v>
+        <v>44469</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44435</v>
+        <v>44224</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44435</v>
+        <v>44224</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44692</v>
+        <v>44435</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44692</v>
+        <v>44435</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44327</v>
+        <v>44692</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44327</v>
+        <v>44692</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44665</v>
+        <v>44327</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44665</v>
+        <v>44327</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44460</v>
+        <v>44665</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44460</v>
+        <v>44665</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44476</v>
+        <v>44460</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44476</v>
+        <v>44460</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44525</v>
+        <v>44476</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44525</v>
+        <v>44476</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44475</v>
+        <v>44525</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44475</v>
+        <v>44525</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44582</v>
+        <v>44475</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44582</v>
+        <v>44475</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44365</v>
+        <v>44582</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44365</v>
+        <v>44582</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44217</v>
+        <v>44365</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44217</v>
+        <v>44365</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44453</v>
+        <v>44217</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44453</v>
+        <v>44217</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44609</v>
+        <v>44453</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44609</v>
+        <v>44453</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44405</v>
+        <v>44609</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44405</v>
+        <v>44609</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44334</v>
+        <v>44405</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44334</v>
+        <v>44405</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44754</v>
+        <v>44334</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44754</v>
+        <v>44334</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44398</v>
+        <v>44754</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44398</v>
+        <v>44754</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44349</v>
+        <v>44398</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44425</v>
+        <v>44349</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44425</v>
+        <v>44349</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44280</v>
+        <v>44425</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44280</v>
+        <v>44425</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44719</v>
+        <v>44280</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44719</v>
+        <v>44280</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44699</v>
+        <v>44719</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44699</v>
+        <v>44719</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44705</v>
+        <v>44699</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44358</v>
+        <v>44705</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44358</v>
+        <v>44705</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44278</v>
+        <v>44358</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44278</v>
+        <v>44358</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44355</v>
+        <v>44278</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K146" t="n">
         <v>600</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44355</v>
+        <v>44278</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K147" t="n">
         <v>500</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44166</v>
+        <v>44362</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44166</v>
+        <v>44362</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44320</v>
+        <v>44166</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44320</v>
+        <v>44166</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44344</v>
+        <v>44320</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11458,7 +11458,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44344</v>
+        <v>44320</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11530,21 +11530,165 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>1</v>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>11</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="E156" t="n">
+        <v>8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>200</v>
+      </c>
+      <c r="K156" t="n">
+        <v>600</v>
+      </c>
+      <c r="L156" t="n">
+        <v>700</v>
+      </c>
+      <c r="M156" t="n">
+        <v>650</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
           <t>$/docena de 1 kilo</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
-      </c>
-      <c r="P155" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q155" t="n">
-        <v>1</v>
-      </c>
-      <c r="R155" t="inlineStr">
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>1</v>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>11</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="E157" t="n">
+        <v>8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>100</v>
+      </c>
+      <c r="K157" t="n">
+        <v>500</v>
+      </c>
+      <c r="L157" t="n">
+        <v>500</v>
+      </c>
+      <c r="M157" t="n">
+        <v>500</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>$/docena de 1 kilo</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>1</v>
+      </c>
+      <c r="R157" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44574</v>
+        <v>44330</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44574</v>
+        <v>44330</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44565</v>
+        <v>44476</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44565</v>
+        <v>44476</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44400</v>
+        <v>44475</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44400</v>
+        <v>44475</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44756</v>
+        <v>44705</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>200</v>
       </c>
       <c r="K8" t="n">
+        <v>600</v>
+      </c>
+      <c r="L8" t="n">
         <v>700</v>
       </c>
-      <c r="L8" t="n">
-        <v>800</v>
-      </c>
       <c r="M8" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44756</v>
+        <v>44705</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44330</v>
+        <v>44442</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
         <v>600</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44330</v>
+        <v>44442</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K11" t="n">
         <v>500</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44512</v>
+        <v>44398</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44512</v>
+        <v>44398</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44433</v>
+        <v>44349</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44433</v>
+        <v>44349</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44316</v>
+        <v>44694</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44316</v>
+        <v>44694</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44350</v>
+        <v>44574</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44350</v>
+        <v>44574</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44708</v>
+        <v>44679</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44708</v>
+        <v>44679</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44694</v>
+        <v>44405</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44694</v>
+        <v>44405</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44383</v>
+        <v>44447</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44383</v>
+        <v>44447</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44306</v>
+        <v>44490</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44306</v>
+        <v>44490</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44194</v>
+        <v>44756</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>200</v>
       </c>
       <c r="K30" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L30" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M30" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44194</v>
+        <v>44756</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44308</v>
+        <v>44252</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44308</v>
+        <v>44252</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44488</v>
+        <v>44299</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44488</v>
+        <v>44299</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44285</v>
+        <v>44525</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44285</v>
+        <v>44525</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44313</v>
+        <v>44663</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44313</v>
+        <v>44663</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44341</v>
+        <v>44166</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44341</v>
+        <v>44166</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44447</v>
+        <v>44523</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44447</v>
+        <v>44523</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44336</v>
+        <v>44433</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44336</v>
+        <v>44433</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44442</v>
+        <v>44719</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K46" t="n">
         <v>600</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44442</v>
+        <v>44719</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44168</v>
+        <v>44400</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44168</v>
+        <v>44400</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44187</v>
+        <v>44224</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44187</v>
+        <v>44224</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44237</v>
+        <v>44160</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44237</v>
+        <v>44160</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44386</v>
+        <v>44320</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44386</v>
+        <v>44320</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44607</v>
+        <v>44386</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44607</v>
+        <v>44386</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44523</v>
+        <v>44187</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44523</v>
+        <v>44187</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44663</v>
+        <v>44272</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44663</v>
+        <v>44272</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44239</v>
+        <v>44699</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44239</v>
+        <v>44699</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44490</v>
+        <v>44308</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44490</v>
+        <v>44308</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44391</v>
+        <v>44350</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44391</v>
+        <v>44350</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44222</v>
+        <v>44250</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44222</v>
+        <v>44250</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44160</v>
+        <v>44383</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44160</v>
+        <v>44383</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44274</v>
+        <v>44168</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44274</v>
+        <v>44168</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44553</v>
+        <v>44665</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44553</v>
+        <v>44665</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44579</v>
+        <v>44217</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44579</v>
+        <v>44217</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44272</v>
+        <v>44553</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44272</v>
+        <v>44553</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44679</v>
+        <v>44306</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44679</v>
+        <v>44306</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44203</v>
+        <v>44435</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44203</v>
+        <v>44435</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44616</v>
+        <v>44582</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44616</v>
+        <v>44582</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44292</v>
+        <v>44274</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44292</v>
+        <v>44274</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44231</v>
+        <v>44334</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44231</v>
+        <v>44334</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44252</v>
+        <v>44692</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44252</v>
+        <v>44692</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44250</v>
+        <v>44278</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K92" t="n">
         <v>600</v>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44250</v>
+        <v>44278</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K93" t="n">
         <v>500</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44469</v>
+        <v>44222</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44469</v>
+        <v>44222</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44224</v>
+        <v>44344</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44224</v>
+        <v>44344</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44435</v>
+        <v>44754</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44435</v>
+        <v>44754</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44692</v>
+        <v>44365</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44692</v>
+        <v>44365</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44327</v>
+        <v>44239</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44327</v>
+        <v>44239</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44665</v>
+        <v>44194</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44665</v>
+        <v>44194</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44460</v>
+        <v>44313</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44460</v>
+        <v>44313</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44476</v>
+        <v>44579</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44476</v>
+        <v>44579</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44525</v>
+        <v>44616</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44525</v>
+        <v>44616</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44475</v>
+        <v>44327</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44475</v>
+        <v>44327</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44582</v>
+        <v>44460</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44582</v>
+        <v>44460</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44365</v>
+        <v>44607</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44365</v>
+        <v>44607</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44217</v>
+        <v>44292</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44217</v>
+        <v>44292</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44453</v>
+        <v>44341</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44453</v>
+        <v>44341</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44609</v>
+        <v>44203</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44609</v>
+        <v>44203</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44405</v>
+        <v>44565</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44405</v>
+        <v>44565</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44334</v>
+        <v>44708</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44334</v>
+        <v>44708</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44754</v>
+        <v>44280</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44754</v>
+        <v>44280</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44398</v>
+        <v>44237</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44349</v>
+        <v>44469</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44349</v>
+        <v>44469</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44425</v>
+        <v>44231</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44425</v>
+        <v>44231</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44280</v>
+        <v>44336</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44280</v>
+        <v>44336</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44719</v>
+        <v>44488</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44719</v>
+        <v>44488</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44699</v>
+        <v>44425</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44699</v>
+        <v>44425</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44705</v>
+        <v>44512</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44705</v>
+        <v>44512</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44358</v>
+        <v>44285</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44358</v>
+        <v>44285</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44278</v>
+        <v>44362</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K146" t="n">
         <v>600</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44278</v>
+        <v>44362</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K147" t="n">
         <v>500</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44362</v>
+        <v>44391</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44362</v>
+        <v>44391</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44166</v>
+        <v>44453</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44166</v>
+        <v>44453</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44320</v>
+        <v>44609</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44320</v>
+        <v>44609</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44344</v>
+        <v>44358</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44344</v>
+        <v>44358</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R157"/>
+  <dimension ref="A1:R159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44425</v>
+        <v>44769</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10440,13 +10440,13 @@
         <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L140" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44425</v>
+        <v>44769</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10512,13 +10512,13 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44512</v>
+        <v>44425</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44512</v>
+        <v>44425</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44285</v>
+        <v>44512</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44285</v>
+        <v>44512</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44362</v>
+        <v>44285</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44362</v>
+        <v>44285</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44391</v>
+        <v>44355</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44391</v>
+        <v>44355</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44453</v>
+        <v>44391</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44453</v>
+        <v>44391</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44609</v>
+        <v>44453</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44609</v>
+        <v>44453</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44358</v>
+        <v>44609</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44358</v>
+        <v>44609</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11689,6 +11689,150 @@
         <v>1</v>
       </c>
       <c r="R157" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>11</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E158" t="n">
+        <v>8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>200</v>
+      </c>
+      <c r="K158" t="n">
+        <v>600</v>
+      </c>
+      <c r="L158" t="n">
+        <v>700</v>
+      </c>
+      <c r="M158" t="n">
+        <v>650</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>1</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>11</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E159" t="n">
+        <v>8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>100</v>
+      </c>
+      <c r="K159" t="n">
+        <v>500</v>
+      </c>
+      <c r="L159" t="n">
+        <v>500</v>
+      </c>
+      <c r="M159" t="n">
+        <v>500</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R159" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R159"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44272</v>
+        <v>44771</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4680,13 +4680,13 @@
         <v>200</v>
       </c>
       <c r="K60" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L60" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M60" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44272</v>
+        <v>44771</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44699</v>
+        <v>44272</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44699</v>
+        <v>44272</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44308</v>
+        <v>44699</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44308</v>
+        <v>44699</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44250</v>
+        <v>44350</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44250</v>
+        <v>44350</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44383</v>
+        <v>44250</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44383</v>
+        <v>44250</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44168</v>
+        <v>44383</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44168</v>
+        <v>44383</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44665</v>
+        <v>44168</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44665</v>
+        <v>44168</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44217</v>
+        <v>44665</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44217</v>
+        <v>44665</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44553</v>
+        <v>44217</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44553</v>
+        <v>44217</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44306</v>
+        <v>44553</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44306</v>
+        <v>44553</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44435</v>
+        <v>44306</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44435</v>
+        <v>44306</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44582</v>
+        <v>44435</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44582</v>
+        <v>44435</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44274</v>
+        <v>44582</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44274</v>
+        <v>44582</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44334</v>
+        <v>44274</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44334</v>
+        <v>44274</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44692</v>
+        <v>44334</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44692</v>
+        <v>44334</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44278</v>
+        <v>44692</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K92" t="n">
         <v>600</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44278</v>
+        <v>44692</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K93" t="n">
         <v>500</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44222</v>
+        <v>44278</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44222</v>
+        <v>44278</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44344</v>
+        <v>44222</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44344</v>
+        <v>44222</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44754</v>
+        <v>44344</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44754</v>
+        <v>44344</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44365</v>
+        <v>44754</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44365</v>
+        <v>44754</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44239</v>
+        <v>44365</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44239</v>
+        <v>44365</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44194</v>
+        <v>44239</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44579</v>
+        <v>44313</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44579</v>
+        <v>44313</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8223,7 +8223,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44616</v>
+        <v>44579</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44616</v>
+        <v>44579</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44327</v>
+        <v>44616</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44327</v>
+        <v>44616</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44460</v>
+        <v>44327</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44460</v>
+        <v>44327</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44607</v>
+        <v>44460</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44607</v>
+        <v>44460</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44292</v>
+        <v>44607</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44292</v>
+        <v>44607</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44341</v>
+        <v>44292</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44341</v>
+        <v>44292</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44203</v>
+        <v>44341</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44203</v>
+        <v>44341</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44565</v>
+        <v>44203</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44565</v>
+        <v>44203</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44708</v>
+        <v>44565</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44708</v>
+        <v>44565</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44280</v>
+        <v>44708</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44280</v>
+        <v>44708</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44237</v>
+        <v>44280</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44237</v>
+        <v>44280</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44469</v>
+        <v>44237</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44231</v>
+        <v>44469</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44231</v>
+        <v>44469</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44336</v>
+        <v>44231</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44336</v>
+        <v>44231</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44488</v>
+        <v>44336</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44488</v>
+        <v>44336</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44769</v>
+        <v>44488</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10440,13 +10440,13 @@
         <v>200</v>
       </c>
       <c r="K140" t="n">
+        <v>600</v>
+      </c>
+      <c r="L140" t="n">
         <v>700</v>
       </c>
-      <c r="L140" t="n">
-        <v>800</v>
-      </c>
       <c r="M140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44769</v>
+        <v>44488</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10512,13 +10512,13 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44425</v>
+        <v>44769</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10584,13 +10584,13 @@
         <v>200</v>
       </c>
       <c r="K142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L142" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44425</v>
+        <v>44769</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10656,13 +10656,13 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44512</v>
+        <v>44425</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44512</v>
+        <v>44425</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44285</v>
+        <v>44512</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44285</v>
+        <v>44512</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44362</v>
+        <v>44285</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44362</v>
+        <v>44285</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44391</v>
+        <v>44355</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44391</v>
+        <v>44355</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44453</v>
+        <v>44391</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44453</v>
+        <v>44391</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44609</v>
+        <v>44453</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44609</v>
+        <v>44453</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44358</v>
+        <v>44609</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44358</v>
+        <v>44609</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11833,6 +11833,150 @@
         <v>1</v>
       </c>
       <c r="R159" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>11</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E160" t="n">
+        <v>8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>200</v>
+      </c>
+      <c r="K160" t="n">
+        <v>600</v>
+      </c>
+      <c r="L160" t="n">
+        <v>700</v>
+      </c>
+      <c r="M160" t="n">
+        <v>650</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>1</v>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>11</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E161" t="n">
+        <v>8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>100</v>
+      </c>
+      <c r="K161" t="n">
+        <v>500</v>
+      </c>
+      <c r="L161" t="n">
+        <v>500</v>
+      </c>
+      <c r="M161" t="n">
+        <v>500</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:R163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44425</v>
+        <v>44783</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10728,13 +10728,13 @@
         <v>200</v>
       </c>
       <c r="K144" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L144" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M144" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44425</v>
+        <v>44783</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10800,13 +10800,13 @@
         <v>100</v>
       </c>
       <c r="K145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44512</v>
+        <v>44425</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44512</v>
+        <v>44425</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44285</v>
+        <v>44512</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44285</v>
+        <v>44512</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44362</v>
+        <v>44285</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44362</v>
+        <v>44285</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44355</v>
+        <v>44362</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44391</v>
+        <v>44355</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44391</v>
+        <v>44355</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44453</v>
+        <v>44391</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44453</v>
+        <v>44391</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44609</v>
+        <v>44453</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44609</v>
+        <v>44453</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44358</v>
+        <v>44609</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44358</v>
+        <v>44609</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11977,6 +11977,150 @@
         <v>1</v>
       </c>
       <c r="R161" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>11</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E162" t="n">
+        <v>8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>200</v>
+      </c>
+      <c r="K162" t="n">
+        <v>600</v>
+      </c>
+      <c r="L162" t="n">
+        <v>700</v>
+      </c>
+      <c r="M162" t="n">
+        <v>650</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>11</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E163" t="n">
+        <v>8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>100</v>
+      </c>
+      <c r="K163" t="n">
+        <v>500</v>
+      </c>
+      <c r="L163" t="n">
+        <v>500</v>
+      </c>
+      <c r="M163" t="n">
+        <v>500</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
+      <c r="R163" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44330</v>
+        <v>44306</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44476</v>
+        <v>44203</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44476</v>
+        <v>44203</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44475</v>
+        <v>44274</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44475</v>
+        <v>44274</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44705</v>
+        <v>44400</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44705</v>
+        <v>44400</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44442</v>
+        <v>44187</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
         <v>600</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44442</v>
+        <v>44187</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
         <v>500</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44398</v>
+        <v>44358</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44398</v>
+        <v>44358</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44349</v>
+        <v>44754</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44349</v>
+        <v>44754</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44694</v>
+        <v>44433</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44694</v>
+        <v>44433</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44316</v>
+        <v>44398</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44574</v>
+        <v>44313</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44574</v>
+        <v>44313</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44679</v>
+        <v>44285</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44679</v>
+        <v>44285</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44405</v>
+        <v>44280</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44405</v>
+        <v>44280</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44447</v>
+        <v>44166</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44490</v>
+        <v>44362</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44490</v>
+        <v>44362</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44756</v>
+        <v>44475</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2520,13 +2520,13 @@
         <v>200</v>
       </c>
       <c r="K30" t="n">
+        <v>600</v>
+      </c>
+      <c r="L30" t="n">
         <v>700</v>
       </c>
-      <c r="L30" t="n">
-        <v>800</v>
-      </c>
       <c r="M30" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44756</v>
+        <v>44475</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2592,13 +2592,13 @@
         <v>100</v>
       </c>
       <c r="K31" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L31" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M31" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44252</v>
+        <v>44694</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44252</v>
+        <v>44694</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44299</v>
+        <v>44553</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44299</v>
+        <v>44553</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44525</v>
+        <v>44383</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44525</v>
+        <v>44383</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44663</v>
+        <v>44239</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44663</v>
+        <v>44239</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44166</v>
+        <v>44334</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44166</v>
+        <v>44334</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44523</v>
+        <v>44250</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44523</v>
+        <v>44250</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44719</v>
+        <v>44769</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>200</v>
       </c>
       <c r="K46" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L46" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M46" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44719</v>
+        <v>44769</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3744,13 +3744,13 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44400</v>
+        <v>44708</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44400</v>
+        <v>44708</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44224</v>
+        <v>44525</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44224</v>
+        <v>44525</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44160</v>
+        <v>44607</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44160</v>
+        <v>44607</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44320</v>
+        <v>44453</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44320</v>
+        <v>44453</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44386</v>
+        <v>44783</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4392,13 +4392,13 @@
         <v>200</v>
       </c>
       <c r="K56" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L56" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M56" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44386</v>
+        <v>44783</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4464,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44187</v>
+        <v>44222</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44771</v>
+        <v>44663</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4680,13 +4680,13 @@
         <v>200</v>
       </c>
       <c r="K60" t="n">
+        <v>600</v>
+      </c>
+      <c r="L60" t="n">
         <v>700</v>
       </c>
-      <c r="L60" t="n">
-        <v>800</v>
-      </c>
       <c r="M60" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44771</v>
+        <v>44663</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44272</v>
+        <v>44756</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4824,13 +4824,13 @@
         <v>200</v>
       </c>
       <c r="K62" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L62" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M62" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44272</v>
+        <v>44756</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4896,13 +4896,13 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44699</v>
+        <v>44447</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44699</v>
+        <v>44447</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44350</v>
+        <v>44679</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44350</v>
+        <v>44679</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44250</v>
+        <v>44330</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44383</v>
+        <v>44350</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44383</v>
+        <v>44350</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44168</v>
+        <v>44292</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44168</v>
+        <v>44292</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44665</v>
+        <v>44299</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44665</v>
+        <v>44299</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44217</v>
+        <v>44308</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44217</v>
+        <v>44308</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44553</v>
+        <v>44224</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44553</v>
+        <v>44224</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44306</v>
+        <v>44705</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44306</v>
+        <v>44705</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44435</v>
+        <v>44574</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44435</v>
+        <v>44574</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44582</v>
+        <v>44719</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44582</v>
+        <v>44719</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44274</v>
+        <v>44469</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44274</v>
+        <v>44469</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44334</v>
+        <v>44488</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44334</v>
+        <v>44488</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44692</v>
+        <v>44425</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44692</v>
+        <v>44425</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44278</v>
+        <v>44349</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44278</v>
+        <v>44349</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44222</v>
+        <v>44341</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44222</v>
+        <v>44341</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44344</v>
+        <v>44609</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44344</v>
+        <v>44609</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44754</v>
+        <v>44512</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44754</v>
+        <v>44512</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44365</v>
+        <v>44582</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44365</v>
+        <v>44582</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44239</v>
+        <v>44692</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44239</v>
+        <v>44692</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44579</v>
+        <v>44616</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44579</v>
+        <v>44616</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44616</v>
+        <v>44252</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44616</v>
+        <v>44252</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44327</v>
+        <v>44386</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44327</v>
+        <v>44386</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44460</v>
+        <v>44327</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44460</v>
+        <v>44327</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44607</v>
+        <v>44316</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44607</v>
+        <v>44316</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44292</v>
+        <v>44523</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44292</v>
+        <v>44523</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44341</v>
+        <v>44320</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44341</v>
+        <v>44320</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44203</v>
+        <v>44565</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44203</v>
+        <v>44565</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44565</v>
+        <v>44231</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44708</v>
+        <v>44490</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44708</v>
+        <v>44490</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44280</v>
+        <v>44476</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44280</v>
+        <v>44476</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44469</v>
+        <v>44217</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44469</v>
+        <v>44217</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44231</v>
+        <v>44391</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44336</v>
+        <v>44355</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44336</v>
+        <v>44355</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44488</v>
+        <v>44579</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44488</v>
+        <v>44579</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44769</v>
+        <v>44278</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K142" t="n">
+        <v>600</v>
+      </c>
+      <c r="L142" t="n">
         <v>700</v>
       </c>
-      <c r="L142" t="n">
-        <v>800</v>
-      </c>
       <c r="M142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44769</v>
+        <v>44278</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44783</v>
+        <v>44442</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K144" t="n">
+        <v>600</v>
+      </c>
+      <c r="L144" t="n">
         <v>700</v>
       </c>
-      <c r="L144" t="n">
-        <v>800</v>
-      </c>
       <c r="M144" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44783</v>
+        <v>44442</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44425</v>
+        <v>44272</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44425</v>
+        <v>44272</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44512</v>
+        <v>44336</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44512</v>
+        <v>44336</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44285</v>
+        <v>44365</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44285</v>
+        <v>44365</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44362</v>
+        <v>44699</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44362</v>
+        <v>44699</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44355</v>
+        <v>44405</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44355</v>
+        <v>44405</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44391</v>
+        <v>44771</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11592,13 +11592,13 @@
         <v>200</v>
       </c>
       <c r="K156" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L156" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M156" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44391</v>
+        <v>44771</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11664,13 +11664,13 @@
         <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44609</v>
+        <v>44344</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44609</v>
+        <v>44344</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44358</v>
+        <v>44665</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44358</v>
+        <v>44665</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R163"/>
+  <dimension ref="A1:R165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44391</v>
+        <v>44798</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10152,13 +10152,13 @@
         <v>200</v>
       </c>
       <c r="K136" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L136" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M136" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44391</v>
+        <v>44798</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10224,13 +10224,13 @@
         <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44579</v>
+        <v>44355</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P140" t="n">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44579</v>
+        <v>44355</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P141" t="n">
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K142" t="n">
         <v>600</v>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P142" t="n">
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K143" t="n">
         <v>500</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44442</v>
+        <v>44278</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44442</v>
+        <v>44278</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K146" t="n">
         <v>600</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K147" t="n">
         <v>500</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44699</v>
+        <v>44365</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44699</v>
+        <v>44365</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44405</v>
+        <v>44699</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44405</v>
+        <v>44699</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11592,13 +11592,13 @@
         <v>200</v>
       </c>
       <c r="K156" t="n">
+        <v>600</v>
+      </c>
+      <c r="L156" t="n">
         <v>700</v>
       </c>
-      <c r="L156" t="n">
-        <v>800</v>
-      </c>
       <c r="M156" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11664,13 +11664,13 @@
         <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L157" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M157" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44435</v>
+        <v>44771</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11736,13 +11736,13 @@
         <v>200</v>
       </c>
       <c r="K158" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L158" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M158" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44435</v>
+        <v>44771</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11808,13 +11808,13 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44344</v>
+        <v>44435</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44344</v>
+        <v>44435</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12121,6 +12121,150 @@
         <v>1</v>
       </c>
       <c r="R163" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>11</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E164" t="n">
+        <v>8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>200</v>
+      </c>
+      <c r="K164" t="n">
+        <v>600</v>
+      </c>
+      <c r="L164" t="n">
+        <v>700</v>
+      </c>
+      <c r="M164" t="n">
+        <v>650</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>1</v>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>11</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E165" t="n">
+        <v>8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>100</v>
+      </c>
+      <c r="K165" t="n">
+        <v>500</v>
+      </c>
+      <c r="L165" t="n">
+        <v>500</v>
+      </c>
+      <c r="M165" t="n">
+        <v>500</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>1</v>
+      </c>
+      <c r="R165" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R165"/>
+  <dimension ref="A1:R167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44400</v>
+        <v>44812</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L8" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M8" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44400</v>
+        <v>44812</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44187</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44358</v>
+        <v>44187</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44754</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44754</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44433</v>
+        <v>44754</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44433</v>
+        <v>44754</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44313</v>
+        <v>44398</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44313</v>
+        <v>44398</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44285</v>
+        <v>44313</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44285</v>
+        <v>44313</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44280</v>
+        <v>44285</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44280</v>
+        <v>44285</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44166</v>
+        <v>44280</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44166</v>
+        <v>44280</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44362</v>
+        <v>44166</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44362</v>
+        <v>44166</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44475</v>
+        <v>44362</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44475</v>
+        <v>44362</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44694</v>
+        <v>44475</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44694</v>
+        <v>44475</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44553</v>
+        <v>44694</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44553</v>
+        <v>44694</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44383</v>
+        <v>44553</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44383</v>
+        <v>44553</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44239</v>
+        <v>44383</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44239</v>
+        <v>44383</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44334</v>
+        <v>44239</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44334</v>
+        <v>44239</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44250</v>
+        <v>44334</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44250</v>
+        <v>44334</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44168</v>
+        <v>44250</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44769</v>
+        <v>44168</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>200</v>
       </c>
       <c r="K46" t="n">
+        <v>600</v>
+      </c>
+      <c r="L46" t="n">
         <v>700</v>
       </c>
-      <c r="L46" t="n">
-        <v>800</v>
-      </c>
       <c r="M46" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44769</v>
+        <v>44168</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3744,13 +3744,13 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44708</v>
+        <v>44769</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3816,13 +3816,13 @@
         <v>200</v>
       </c>
       <c r="K48" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L48" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M48" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44708</v>
+        <v>44769</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44525</v>
+        <v>44708</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44525</v>
+        <v>44708</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44607</v>
+        <v>44525</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44607</v>
+        <v>44525</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44453</v>
+        <v>44607</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44453</v>
+        <v>44607</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44783</v>
+        <v>44453</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4392,13 +4392,13 @@
         <v>200</v>
       </c>
       <c r="K56" t="n">
+        <v>600</v>
+      </c>
+      <c r="L56" t="n">
         <v>700</v>
       </c>
-      <c r="L56" t="n">
-        <v>800</v>
-      </c>
       <c r="M56" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44783</v>
+        <v>44453</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4464,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44222</v>
+        <v>44783</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4536,13 +4536,13 @@
         <v>200</v>
       </c>
       <c r="K58" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L58" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M58" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44222</v>
+        <v>44783</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4608,13 +4608,13 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44663</v>
+        <v>44222</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44663</v>
+        <v>44222</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44756</v>
+        <v>44663</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4824,13 +4824,13 @@
         <v>200</v>
       </c>
       <c r="K62" t="n">
+        <v>600</v>
+      </c>
+      <c r="L62" t="n">
         <v>700</v>
       </c>
-      <c r="L62" t="n">
-        <v>800</v>
-      </c>
       <c r="M62" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44756</v>
+        <v>44663</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4896,13 +4896,13 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44447</v>
+        <v>44756</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4968,13 +4968,13 @@
         <v>200</v>
       </c>
       <c r="K64" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L64" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M64" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44447</v>
+        <v>44756</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5040,13 +5040,13 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L65" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M65" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44160</v>
+        <v>44447</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44160</v>
+        <v>44447</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44679</v>
+        <v>44160</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44679</v>
+        <v>44160</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44330</v>
+        <v>44679</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44292</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44299</v>
+        <v>44292</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44308</v>
+        <v>44299</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44308</v>
+        <v>44299</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44224</v>
+        <v>44308</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44224</v>
+        <v>44308</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44705</v>
+        <v>44224</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44705</v>
+        <v>44224</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44574</v>
+        <v>44705</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44574</v>
+        <v>44705</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44719</v>
+        <v>44574</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44719</v>
+        <v>44574</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44469</v>
+        <v>44719</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44469</v>
+        <v>44719</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44425</v>
+        <v>44488</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44425</v>
+        <v>44488</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44349</v>
+        <v>44425</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7143,7 +7143,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44349</v>
+        <v>44425</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44341</v>
+        <v>44349</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44341</v>
+        <v>44349</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44512</v>
+        <v>44609</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44512</v>
+        <v>44609</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44582</v>
+        <v>44512</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44582</v>
+        <v>44512</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44692</v>
+        <v>44582</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44692</v>
+        <v>44582</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44460</v>
+        <v>44692</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44460</v>
+        <v>44692</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44616</v>
+        <v>44194</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44616</v>
+        <v>44194</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44252</v>
+        <v>44616</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44252</v>
+        <v>44616</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44386</v>
+        <v>44252</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44386</v>
+        <v>44252</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44327</v>
+        <v>44386</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44327</v>
+        <v>44386</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44523</v>
+        <v>44316</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44523</v>
+        <v>44316</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44320</v>
+        <v>44523</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44320</v>
+        <v>44523</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44565</v>
+        <v>44320</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44565</v>
+        <v>44320</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44231</v>
+        <v>44565</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44231</v>
+        <v>44565</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44476</v>
+        <v>44490</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44476</v>
+        <v>44490</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44237</v>
+        <v>44476</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44237</v>
+        <v>44476</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44217</v>
+        <v>44237</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44217</v>
+        <v>44237</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44798</v>
+        <v>44217</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10152,13 +10152,13 @@
         <v>200</v>
       </c>
       <c r="K136" t="n">
+        <v>600</v>
+      </c>
+      <c r="L136" t="n">
         <v>700</v>
       </c>
-      <c r="L136" t="n">
-        <v>800</v>
-      </c>
       <c r="M136" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44798</v>
+        <v>44217</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10224,13 +10224,13 @@
         <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44391</v>
+        <v>44798</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10296,13 +10296,13 @@
         <v>200</v>
       </c>
       <c r="K138" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L138" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M138" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44391</v>
+        <v>44798</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10368,13 +10368,13 @@
         <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L139" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M139" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44579</v>
+        <v>44355</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P142" t="n">
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44579</v>
+        <v>44355</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P143" t="n">
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P144" t="n">
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44442</v>
+        <v>44278</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44442</v>
+        <v>44278</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K148" t="n">
         <v>600</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K149" t="n">
         <v>500</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44699</v>
+        <v>44365</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44699</v>
+        <v>44365</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44405</v>
+        <v>44699</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44405</v>
+        <v>44699</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11736,13 +11736,13 @@
         <v>200</v>
       </c>
       <c r="K158" t="n">
+        <v>600</v>
+      </c>
+      <c r="L158" t="n">
         <v>700</v>
       </c>
-      <c r="L158" t="n">
-        <v>800</v>
-      </c>
       <c r="M158" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11808,13 +11808,13 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44435</v>
+        <v>44771</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11880,13 +11880,13 @@
         <v>200</v>
       </c>
       <c r="K160" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L160" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M160" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44435</v>
+        <v>44771</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11952,13 +11952,13 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44344</v>
+        <v>44435</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44344</v>
+        <v>44435</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12265,6 +12265,150 @@
         <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>11</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E166" t="n">
+        <v>8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>200</v>
+      </c>
+      <c r="K166" t="n">
+        <v>600</v>
+      </c>
+      <c r="L166" t="n">
+        <v>700</v>
+      </c>
+      <c r="M166" t="n">
+        <v>650</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>1</v>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>11</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E167" t="n">
+        <v>8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>100</v>
+      </c>
+      <c r="K167" t="n">
+        <v>500</v>
+      </c>
+      <c r="L167" t="n">
+        <v>500</v>
+      </c>
+      <c r="M167" t="n">
+        <v>500</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>1</v>
+      </c>
+      <c r="R167" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R167"/>
+  <dimension ref="A1:R169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44460</v>
+        <v>44825</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8136,13 +8136,13 @@
         <v>200</v>
       </c>
       <c r="K108" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L108" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M108" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44460</v>
+        <v>44825</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8208,13 +8208,13 @@
         <v>100</v>
       </c>
       <c r="K109" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L109" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M109" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44616</v>
+        <v>44194</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44616</v>
+        <v>44194</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44252</v>
+        <v>44616</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44252</v>
+        <v>44616</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44386</v>
+        <v>44252</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44386</v>
+        <v>44252</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44327</v>
+        <v>44386</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44327</v>
+        <v>44386</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44523</v>
+        <v>44316</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44523</v>
+        <v>44316</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44320</v>
+        <v>44523</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44320</v>
+        <v>44523</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44565</v>
+        <v>44320</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44565</v>
+        <v>44320</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44231</v>
+        <v>44565</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44231</v>
+        <v>44565</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44476</v>
+        <v>44490</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44476</v>
+        <v>44490</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44237</v>
+        <v>44476</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44237</v>
+        <v>44476</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44217</v>
+        <v>44237</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44217</v>
+        <v>44237</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44798</v>
+        <v>44217</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10296,13 +10296,13 @@
         <v>200</v>
       </c>
       <c r="K138" t="n">
+        <v>600</v>
+      </c>
+      <c r="L138" t="n">
         <v>700</v>
       </c>
-      <c r="L138" t="n">
-        <v>800</v>
-      </c>
       <c r="M138" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44798</v>
+        <v>44217</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10368,13 +10368,13 @@
         <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44391</v>
+        <v>44798</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10440,13 +10440,13 @@
         <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L140" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44391</v>
+        <v>44798</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10512,13 +10512,13 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44579</v>
+        <v>44355</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P144" t="n">
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44579</v>
+        <v>44355</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P145" t="n">
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K146" t="n">
         <v>600</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K147" t="n">
         <v>500</v>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44442</v>
+        <v>44278</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44442</v>
+        <v>44278</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K150" t="n">
         <v>600</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K151" t="n">
         <v>500</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44699</v>
+        <v>44365</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44699</v>
+        <v>44365</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44405</v>
+        <v>44699</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44405</v>
+        <v>44699</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11880,13 +11880,13 @@
         <v>200</v>
       </c>
       <c r="K160" t="n">
+        <v>600</v>
+      </c>
+      <c r="L160" t="n">
         <v>700</v>
       </c>
-      <c r="L160" t="n">
-        <v>800</v>
-      </c>
       <c r="M160" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11952,13 +11952,13 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44435</v>
+        <v>44771</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12024,13 +12024,13 @@
         <v>200</v>
       </c>
       <c r="K162" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L162" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M162" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44435</v>
+        <v>44771</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12096,13 +12096,13 @@
         <v>100</v>
       </c>
       <c r="K163" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L163" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M163" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44344</v>
+        <v>44435</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44344</v>
+        <v>44435</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12409,6 +12409,150 @@
         <v>1</v>
       </c>
       <c r="R167" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>11</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E168" t="n">
+        <v>8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>200</v>
+      </c>
+      <c r="K168" t="n">
+        <v>600</v>
+      </c>
+      <c r="L168" t="n">
+        <v>700</v>
+      </c>
+      <c r="M168" t="n">
+        <v>650</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1</v>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>11</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>100</v>
+      </c>
+      <c r="K169" t="n">
+        <v>500</v>
+      </c>
+      <c r="L169" t="n">
+        <v>500</v>
+      </c>
+      <c r="M169" t="n">
+        <v>500</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>1</v>
+      </c>
+      <c r="R169" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R169"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44574</v>
+        <v>44827</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6552,13 +6552,13 @@
         <v>200</v>
       </c>
       <c r="K86" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L86" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M86" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44574</v>
+        <v>44827</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6624,13 +6624,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44719</v>
+        <v>44574</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44719</v>
+        <v>44574</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44469</v>
+        <v>44719</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44469</v>
+        <v>44719</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44488</v>
+        <v>44469</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44425</v>
+        <v>44488</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44425</v>
+        <v>44488</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44349</v>
+        <v>44425</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44349</v>
+        <v>44425</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44341</v>
+        <v>44349</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44341</v>
+        <v>44349</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44609</v>
+        <v>44341</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44512</v>
+        <v>44609</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44512</v>
+        <v>44609</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44582</v>
+        <v>44512</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44582</v>
+        <v>44512</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44692</v>
+        <v>44582</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44692</v>
+        <v>44582</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44825</v>
+        <v>44692</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8136,13 +8136,13 @@
         <v>200</v>
       </c>
       <c r="K108" t="n">
+        <v>600</v>
+      </c>
+      <c r="L108" t="n">
         <v>700</v>
       </c>
-      <c r="L108" t="n">
-        <v>800</v>
-      </c>
       <c r="M108" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44825</v>
+        <v>44692</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8208,13 +8208,13 @@
         <v>100</v>
       </c>
       <c r="K109" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L109" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M109" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44460</v>
+        <v>44825</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8280,13 +8280,13 @@
         <v>200</v>
       </c>
       <c r="K110" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L110" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M110" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44460</v>
+        <v>44825</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8352,13 +8352,13 @@
         <v>100</v>
       </c>
       <c r="K111" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L111" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M111" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44616</v>
+        <v>44194</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44616</v>
+        <v>44194</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44252</v>
+        <v>44616</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44252</v>
+        <v>44616</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44386</v>
+        <v>44252</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44386</v>
+        <v>44252</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44327</v>
+        <v>44386</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44327</v>
+        <v>44386</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44316</v>
+        <v>44327</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44523</v>
+        <v>44316</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44523</v>
+        <v>44316</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44320</v>
+        <v>44523</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44320</v>
+        <v>44523</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44565</v>
+        <v>44320</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44565</v>
+        <v>44320</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44231</v>
+        <v>44565</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44231</v>
+        <v>44565</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44490</v>
+        <v>44231</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44476</v>
+        <v>44490</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44476</v>
+        <v>44490</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44237</v>
+        <v>44476</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44237</v>
+        <v>44476</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44217</v>
+        <v>44237</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44217</v>
+        <v>44237</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44798</v>
+        <v>44217</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10440,13 +10440,13 @@
         <v>200</v>
       </c>
       <c r="K140" t="n">
+        <v>600</v>
+      </c>
+      <c r="L140" t="n">
         <v>700</v>
       </c>
-      <c r="L140" t="n">
-        <v>800</v>
-      </c>
       <c r="M140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44798</v>
+        <v>44217</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10512,13 +10512,13 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44391</v>
+        <v>44798</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10584,13 +10584,13 @@
         <v>200</v>
       </c>
       <c r="K142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L142" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44391</v>
+        <v>44798</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10656,13 +10656,13 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44355</v>
+        <v>44391</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44579</v>
+        <v>44355</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44579</v>
+        <v>44355</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P147" t="n">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K148" t="n">
         <v>600</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44278</v>
+        <v>44579</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K149" t="n">
         <v>500</v>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44442</v>
+        <v>44278</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44442</v>
+        <v>44278</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K152" t="n">
         <v>600</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44272</v>
+        <v>44442</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K153" t="n">
         <v>500</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44336</v>
+        <v>44272</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44365</v>
+        <v>44336</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44699</v>
+        <v>44365</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44699</v>
+        <v>44365</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44405</v>
+        <v>44699</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44405</v>
+        <v>44699</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12024,13 +12024,13 @@
         <v>200</v>
       </c>
       <c r="K162" t="n">
+        <v>600</v>
+      </c>
+      <c r="L162" t="n">
         <v>700</v>
       </c>
-      <c r="L162" t="n">
-        <v>800</v>
-      </c>
       <c r="M162" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44771</v>
+        <v>44405</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12096,13 +12096,13 @@
         <v>100</v>
       </c>
       <c r="K163" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L163" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M163" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44435</v>
+        <v>44771</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12168,13 +12168,13 @@
         <v>200</v>
       </c>
       <c r="K164" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L164" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M164" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44435</v>
+        <v>44771</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12240,13 +12240,13 @@
         <v>100</v>
       </c>
       <c r="K165" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L165" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M165" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44344</v>
+        <v>44435</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44344</v>
+        <v>44435</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12394,7 +12394,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44665</v>
+        <v>44344</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12553,6 +12553,150 @@
         <v>1</v>
       </c>
       <c r="R169" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>11</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E170" t="n">
+        <v>8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>200</v>
+      </c>
+      <c r="K170" t="n">
+        <v>600</v>
+      </c>
+      <c r="L170" t="n">
+        <v>700</v>
+      </c>
+      <c r="M170" t="n">
+        <v>650</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>11</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>100</v>
+      </c>
+      <c r="K171" t="n">
+        <v>500</v>
+      </c>
+      <c r="L171" t="n">
+        <v>500</v>
+      </c>
+      <c r="M171" t="n">
+        <v>500</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>1</v>
+      </c>
+      <c r="R171" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44306</v>
+        <v>44754</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44306</v>
+        <v>44754</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44203</v>
+        <v>44607</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44203</v>
+        <v>44607</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44274</v>
+        <v>44425</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44274</v>
+        <v>44425</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44812</v>
+        <v>44699</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>200</v>
       </c>
       <c r="K8" t="n">
+        <v>600</v>
+      </c>
+      <c r="L8" t="n">
         <v>700</v>
       </c>
-      <c r="L8" t="n">
-        <v>800</v>
-      </c>
       <c r="M8" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44812</v>
+        <v>44699</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44400</v>
+        <v>44469</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44400</v>
+        <v>44469</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44187</v>
+        <v>44616</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44187</v>
+        <v>44616</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44383</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44383</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44754</v>
+        <v>44222</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44754</v>
+        <v>44222</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44433</v>
+        <v>44475</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44433</v>
+        <v>44475</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44398</v>
+        <v>44313</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44398</v>
+        <v>44313</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44313</v>
+        <v>44250</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44313</v>
+        <v>44250</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44285</v>
+        <v>44769</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M24" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44285</v>
+        <v>44769</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44280</v>
+        <v>44827</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L26" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M26" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44280</v>
+        <v>44827</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44166</v>
+        <v>44574</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44166</v>
+        <v>44574</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44362</v>
+        <v>44237</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44362</v>
+        <v>44237</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44475</v>
+        <v>44400</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44475</v>
+        <v>44400</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44694</v>
+        <v>44349</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44694</v>
+        <v>44349</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44553</v>
+        <v>44306</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44553</v>
+        <v>44306</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44383</v>
+        <v>44320</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44383</v>
+        <v>44320</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44239</v>
+        <v>44398</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44239</v>
+        <v>44398</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44334</v>
+        <v>44582</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44334</v>
+        <v>44582</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44250</v>
+        <v>44285</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44250</v>
+        <v>44285</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44168</v>
+        <v>44239</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44168</v>
+        <v>44239</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44769</v>
+        <v>44798</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44769</v>
+        <v>44798</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44708</v>
+        <v>44783</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3960,13 +3960,13 @@
         <v>200</v>
       </c>
       <c r="K50" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L50" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M50" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44708</v>
+        <v>44783</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4032,13 +4032,13 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44525</v>
+        <v>44447</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44525</v>
+        <v>44447</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44607</v>
+        <v>44523</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44607</v>
+        <v>44523</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44453</v>
+        <v>44316</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44783</v>
+        <v>44362</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4536,13 +4536,13 @@
         <v>200</v>
       </c>
       <c r="K58" t="n">
+        <v>600</v>
+      </c>
+      <c r="L58" t="n">
         <v>700</v>
       </c>
-      <c r="L58" t="n">
-        <v>800</v>
-      </c>
       <c r="M58" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44783</v>
+        <v>44362</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4608,13 +4608,13 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44222</v>
+        <v>44488</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44222</v>
+        <v>44488</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44663</v>
+        <v>44344</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44663</v>
+        <v>44344</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44756</v>
+        <v>44719</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -4968,13 +4968,13 @@
         <v>200</v>
       </c>
       <c r="K64" t="n">
+        <v>600</v>
+      </c>
+      <c r="L64" t="n">
         <v>700</v>
       </c>
-      <c r="L64" t="n">
-        <v>800</v>
-      </c>
       <c r="M64" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44756</v>
+        <v>44719</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5040,13 +5040,13 @@
         <v>100</v>
       </c>
       <c r="K65" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L65" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M65" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q65" t="n">
         <v>1</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44447</v>
+        <v>44365</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44447</v>
+        <v>44365</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44160</v>
+        <v>44386</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44160</v>
+        <v>44386</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44679</v>
+        <v>44692</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44679</v>
+        <v>44692</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44330</v>
+        <v>44350</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44330</v>
+        <v>44350</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44350</v>
+        <v>44663</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44350</v>
+        <v>44663</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44299</v>
+        <v>44812</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5976,13 +5976,13 @@
         <v>200</v>
       </c>
       <c r="K78" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L78" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M78" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44299</v>
+        <v>44812</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6048,13 +6048,13 @@
         <v>100</v>
       </c>
       <c r="K79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44308</v>
+        <v>44825</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6120,13 +6120,13 @@
         <v>200</v>
       </c>
       <c r="K80" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L80" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M80" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44308</v>
+        <v>44825</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6192,13 +6192,13 @@
         <v>100</v>
       </c>
       <c r="K81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44224</v>
+        <v>44708</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44224</v>
+        <v>44708</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44705</v>
+        <v>44217</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44705</v>
+        <v>44217</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44827</v>
+        <v>44341</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6552,13 +6552,13 @@
         <v>200</v>
       </c>
       <c r="K86" t="n">
+        <v>600</v>
+      </c>
+      <c r="L86" t="n">
         <v>700</v>
       </c>
-      <c r="L86" t="n">
-        <v>800</v>
-      </c>
       <c r="M86" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44827</v>
+        <v>44341</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6624,13 +6624,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44574</v>
+        <v>44280</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44574</v>
+        <v>44280</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44719</v>
+        <v>44525</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44719</v>
+        <v>44525</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44469</v>
+        <v>44756</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6984,13 +6984,13 @@
         <v>200</v>
       </c>
       <c r="K92" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L92" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M92" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44469</v>
+        <v>44756</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7056,13 +7056,13 @@
         <v>100</v>
       </c>
       <c r="K93" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L93" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M93" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44488</v>
+        <v>44705</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44488</v>
+        <v>44705</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44425</v>
+        <v>44272</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44425</v>
+        <v>44272</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44349</v>
+        <v>44490</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44349</v>
+        <v>44490</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44341</v>
+        <v>44476</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44341</v>
+        <v>44476</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44609</v>
+        <v>44278</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K102" t="n">
         <v>600</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44609</v>
+        <v>44278</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K103" t="n">
         <v>500</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44512</v>
+        <v>44299</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44512</v>
+        <v>44299</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44582</v>
+        <v>44665</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44582</v>
+        <v>44665</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44692</v>
+        <v>44512</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44692</v>
+        <v>44512</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44825</v>
+        <v>44579</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8280,13 +8280,13 @@
         <v>200</v>
       </c>
       <c r="K110" t="n">
+        <v>600</v>
+      </c>
+      <c r="L110" t="n">
         <v>700</v>
       </c>
-      <c r="L110" t="n">
-        <v>800</v>
-      </c>
       <c r="M110" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44825</v>
+        <v>44579</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8352,13 +8352,13 @@
         <v>100</v>
       </c>
       <c r="K111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44460</v>
+        <v>44358</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44460</v>
+        <v>44358</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44194</v>
+        <v>44327</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44194</v>
+        <v>44327</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44616</v>
+        <v>44460</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44616</v>
+        <v>44460</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44252</v>
+        <v>44160</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44252</v>
+        <v>44160</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44386</v>
+        <v>44609</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44386</v>
+        <v>44609</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44327</v>
+        <v>44771</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9144,13 +9144,13 @@
         <v>200</v>
       </c>
       <c r="K122" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L122" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M122" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44327</v>
+        <v>44771</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9216,13 +9216,13 @@
         <v>100</v>
       </c>
       <c r="K123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44316</v>
+        <v>44308</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44316</v>
+        <v>44308</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44523</v>
+        <v>44224</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44523</v>
+        <v>44224</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44320</v>
+        <v>44166</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44320</v>
+        <v>44166</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44565</v>
+        <v>44435</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44565</v>
+        <v>44435</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44231</v>
+        <v>44442</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K132" t="n">
         <v>600</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44231</v>
+        <v>44442</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K133" t="n">
         <v>500</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44490</v>
+        <v>44336</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44490</v>
+        <v>44336</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44476</v>
+        <v>44252</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44476</v>
+        <v>44252</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44237</v>
+        <v>44694</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44237</v>
+        <v>44694</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44217</v>
+        <v>44405</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44217</v>
+        <v>44405</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44798</v>
+        <v>44679</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10584,13 +10584,13 @@
         <v>200</v>
       </c>
       <c r="K142" t="n">
+        <v>600</v>
+      </c>
+      <c r="L142" t="n">
         <v>700</v>
       </c>
-      <c r="L142" t="n">
-        <v>800</v>
-      </c>
       <c r="M142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44798</v>
+        <v>44679</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10656,13 +10656,13 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44355</v>
+        <v>44334</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44579</v>
+        <v>44194</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44579</v>
+        <v>44194</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P149" t="n">
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44278</v>
+        <v>44330</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11157,7 +11157,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K150" t="n">
         <v>600</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44278</v>
+        <v>44330</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11229,7 +11229,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K151" t="n">
         <v>500</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44442</v>
+        <v>44274</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K152" t="n">
         <v>600</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44442</v>
+        <v>44274</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K153" t="n">
         <v>500</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44272</v>
+        <v>44391</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44272</v>
+        <v>44391</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44336</v>
+        <v>44433</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44336</v>
+        <v>44433</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44365</v>
+        <v>44203</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44365</v>
+        <v>44203</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44699</v>
+        <v>44355</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44405</v>
+        <v>44565</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P162" t="n">
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44405</v>
+        <v>44565</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P163" t="n">
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44771</v>
+        <v>44187</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12168,13 +12168,13 @@
         <v>200</v>
       </c>
       <c r="K164" t="n">
+        <v>600</v>
+      </c>
+      <c r="L164" t="n">
         <v>700</v>
       </c>
-      <c r="L164" t="n">
-        <v>800</v>
-      </c>
       <c r="M164" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44771</v>
+        <v>44187</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12240,13 +12240,13 @@
         <v>100</v>
       </c>
       <c r="K165" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L165" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M165" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44435</v>
+        <v>44553</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44435</v>
+        <v>44553</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44344</v>
+        <v>44292</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44665</v>
+        <v>44453</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44665</v>
+        <v>44453</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R171"/>
+  <dimension ref="A1:R173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44358</v>
+        <v>44839</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8424,13 +8424,13 @@
         <v>200</v>
       </c>
       <c r="K112" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L112" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M112" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44358</v>
+        <v>44839</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8496,13 +8496,13 @@
         <v>100</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L113" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M113" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44460</v>
+        <v>44327</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44460</v>
+        <v>44327</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44160</v>
+        <v>44460</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44160</v>
+        <v>44460</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44609</v>
+        <v>44160</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44609</v>
+        <v>44160</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44771</v>
+        <v>44609</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9144,13 +9144,13 @@
         <v>200</v>
       </c>
       <c r="K122" t="n">
+        <v>600</v>
+      </c>
+      <c r="L122" t="n">
         <v>700</v>
       </c>
-      <c r="L122" t="n">
-        <v>800</v>
-      </c>
       <c r="M122" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44771</v>
+        <v>44609</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9216,13 +9216,13 @@
         <v>100</v>
       </c>
       <c r="K123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44308</v>
+        <v>44771</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9288,13 +9288,13 @@
         <v>200</v>
       </c>
       <c r="K124" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L124" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M124" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44308</v>
+        <v>44771</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9360,13 +9360,13 @@
         <v>100</v>
       </c>
       <c r="K125" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L125" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M125" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44224</v>
+        <v>44308</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44224</v>
+        <v>44308</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44166</v>
+        <v>44224</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44166</v>
+        <v>44224</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44435</v>
+        <v>44166</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44435</v>
+        <v>44166</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K132" t="n">
         <v>600</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K133" t="n">
         <v>500</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44336</v>
+        <v>44442</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K134" t="n">
         <v>600</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44336</v>
+        <v>44442</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K135" t="n">
         <v>500</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44694</v>
+        <v>44252</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44694</v>
+        <v>44252</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44405</v>
+        <v>44694</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44405</v>
+        <v>44694</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44679</v>
+        <v>44405</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44679</v>
+        <v>44405</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44231</v>
+        <v>44679</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44231</v>
+        <v>44679</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44334</v>
+        <v>44231</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44334</v>
+        <v>44231</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44194</v>
+        <v>44334</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44194</v>
+        <v>44334</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44330</v>
+        <v>44194</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44330</v>
+        <v>44194</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44274</v>
+        <v>44330</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44274</v>
+        <v>44330</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44391</v>
+        <v>44274</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44391</v>
+        <v>44274</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44203</v>
+        <v>44433</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44203</v>
+        <v>44433</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44355</v>
+        <v>44203</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44355</v>
+        <v>44203</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44565</v>
+        <v>44355</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P162" t="n">
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44565</v>
+        <v>44355</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P163" t="n">
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44187</v>
+        <v>44565</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44187</v>
+        <v>44565</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44292</v>
+        <v>44553</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44292</v>
+        <v>44553</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44453</v>
+        <v>44292</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44453</v>
+        <v>44292</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12697,6 +12697,150 @@
         <v>1</v>
       </c>
       <c r="R171" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>11</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="E172" t="n">
+        <v>8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>200</v>
+      </c>
+      <c r="K172" t="n">
+        <v>600</v>
+      </c>
+      <c r="L172" t="n">
+        <v>700</v>
+      </c>
+      <c r="M172" t="n">
+        <v>650</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>11</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>100</v>
+      </c>
+      <c r="K173" t="n">
+        <v>500</v>
+      </c>
+      <c r="L173" t="n">
+        <v>500</v>
+      </c>
+      <c r="M173" t="n">
+        <v>500</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>1</v>
+      </c>
+      <c r="R173" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R173"/>
+  <dimension ref="A1:R175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44435</v>
+        <v>44841</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9864,13 +9864,13 @@
         <v>200</v>
       </c>
       <c r="K132" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L132" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M132" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44435</v>
+        <v>44841</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9936,13 +9936,13 @@
         <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K134" t="n">
         <v>600</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44442</v>
+        <v>44435</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10077,7 +10077,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K135" t="n">
         <v>500</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44336</v>
+        <v>44442</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10149,7 +10149,7 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K136" t="n">
         <v>600</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44336</v>
+        <v>44442</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K137" t="n">
         <v>500</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44252</v>
+        <v>44336</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44694</v>
+        <v>44252</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44694</v>
+        <v>44252</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44405</v>
+        <v>44694</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44405</v>
+        <v>44694</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44679</v>
+        <v>44405</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44679</v>
+        <v>44405</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44231</v>
+        <v>44679</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44231</v>
+        <v>44679</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44334</v>
+        <v>44231</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44334</v>
+        <v>44231</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44194</v>
+        <v>44334</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44194</v>
+        <v>44334</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44330</v>
+        <v>44194</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44330</v>
+        <v>44194</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44274</v>
+        <v>44330</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44274</v>
+        <v>44330</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44391</v>
+        <v>44274</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44391</v>
+        <v>44274</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44433</v>
+        <v>44391</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44203</v>
+        <v>44433</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44203</v>
+        <v>44433</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44355</v>
+        <v>44203</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44355</v>
+        <v>44203</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44565</v>
+        <v>44355</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P164" t="n">
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44565</v>
+        <v>44355</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12255,7 +12255,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P165" t="n">
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44187</v>
+        <v>44565</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44187</v>
+        <v>44565</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12399,7 +12399,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P167" t="n">
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44553</v>
+        <v>44187</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44292</v>
+        <v>44553</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44292</v>
+        <v>44553</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44453</v>
+        <v>44292</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44453</v>
+        <v>44292</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12841,6 +12841,150 @@
         <v>1</v>
       </c>
       <c r="R173" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>11</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="E174" t="n">
+        <v>8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>200</v>
+      </c>
+      <c r="K174" t="n">
+        <v>600</v>
+      </c>
+      <c r="L174" t="n">
+        <v>700</v>
+      </c>
+      <c r="M174" t="n">
+        <v>650</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>11</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>44453</v>
+      </c>
+      <c r="E175" t="n">
+        <v>8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>100</v>
+      </c>
+      <c r="K175" t="n">
+        <v>500</v>
+      </c>
+      <c r="L175" t="n">
+        <v>500</v>
+      </c>
+      <c r="M175" t="n">
+        <v>500</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44754</v>
+        <v>44798</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L2" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M2" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44754</v>
+        <v>44798</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44607</v>
+        <v>44336</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44607</v>
+        <v>44336</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44699</v>
+        <v>44447</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44699</v>
+        <v>44447</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44469</v>
+        <v>44231</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44469</v>
+        <v>44231</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44616</v>
+        <v>44320</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44616</v>
+        <v>44320</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44383</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44383</v>
+        <v>44425</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44222</v>
+        <v>44292</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44222</v>
+        <v>44292</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44313</v>
+        <v>44607</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44313</v>
+        <v>44607</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44250</v>
+        <v>44839</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1944,13 +1944,13 @@
         <v>200</v>
       </c>
       <c r="K22" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L22" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M22" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44250</v>
+        <v>44839</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L23" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M23" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2031,11 +2031,11 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44769</v>
+        <v>44523</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>200</v>
       </c>
       <c r="K24" t="n">
+        <v>600</v>
+      </c>
+      <c r="L24" t="n">
         <v>700</v>
       </c>
-      <c r="L24" t="n">
-        <v>800</v>
-      </c>
       <c r="M24" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44769</v>
+        <v>44523</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44827</v>
+        <v>44272</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>200</v>
       </c>
       <c r="K26" t="n">
+        <v>600</v>
+      </c>
+      <c r="L26" t="n">
         <v>700</v>
       </c>
-      <c r="L26" t="n">
-        <v>800</v>
-      </c>
       <c r="M26" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2247,11 +2247,11 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44827</v>
+        <v>44272</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2319,11 +2319,11 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44237</v>
+        <v>44274</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44237</v>
+        <v>44274</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44400</v>
+        <v>44442</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K32" t="n">
         <v>600</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44400</v>
+        <v>44442</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K33" t="n">
         <v>500</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44349</v>
+        <v>44708</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44349</v>
+        <v>44708</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44320</v>
+        <v>44460</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44320</v>
+        <v>44460</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44398</v>
+        <v>44313</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44398</v>
+        <v>44313</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44582</v>
+        <v>44344</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44582</v>
+        <v>44344</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44285</v>
+        <v>44217</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44285</v>
+        <v>44217</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44798</v>
+        <v>44699</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3816,13 +3816,13 @@
         <v>200</v>
       </c>
       <c r="K48" t="n">
+        <v>600</v>
+      </c>
+      <c r="L48" t="n">
         <v>700</v>
       </c>
-      <c r="L48" t="n">
-        <v>800</v>
-      </c>
       <c r="M48" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44798</v>
+        <v>44699</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44783</v>
+        <v>44616</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3960,13 +3960,13 @@
         <v>200</v>
       </c>
       <c r="K50" t="n">
+        <v>600</v>
+      </c>
+      <c r="L50" t="n">
         <v>700</v>
       </c>
-      <c r="L50" t="n">
-        <v>800</v>
-      </c>
       <c r="M50" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44783</v>
+        <v>44616</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4032,13 +4032,13 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44447</v>
+        <v>44476</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44447</v>
+        <v>44476</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44523</v>
+        <v>44812</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4248,13 +4248,13 @@
         <v>200</v>
       </c>
       <c r="K54" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L54" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M54" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44523</v>
+        <v>44812</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L55" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M55" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44316</v>
+        <v>44841</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4392,13 +4392,13 @@
         <v>200</v>
       </c>
       <c r="K56" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L56" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M56" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44316</v>
+        <v>44841</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4464,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44362</v>
+        <v>44565</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44362</v>
+        <v>44565</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44488</v>
+        <v>44400</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44488</v>
+        <v>44400</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44344</v>
+        <v>44512</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44344</v>
+        <v>44512</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44719</v>
+        <v>44405</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44719</v>
+        <v>44405</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44365</v>
+        <v>44609</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44365</v>
+        <v>44609</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44386</v>
+        <v>44825</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5256,13 +5256,13 @@
         <v>200</v>
       </c>
       <c r="K68" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M68" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44386</v>
+        <v>44825</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5328,13 +5328,13 @@
         <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44692</v>
+        <v>44679</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44692</v>
+        <v>44679</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44350</v>
+        <v>44754</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44350</v>
+        <v>44754</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44663</v>
+        <v>44308</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44663</v>
+        <v>44308</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44168</v>
+        <v>44299</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44168</v>
+        <v>44299</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44812</v>
+        <v>44365</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5976,13 +5976,13 @@
         <v>200</v>
       </c>
       <c r="K78" t="n">
+        <v>600</v>
+      </c>
+      <c r="L78" t="n">
         <v>700</v>
       </c>
-      <c r="L78" t="n">
-        <v>800</v>
-      </c>
       <c r="M78" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44812</v>
+        <v>44365</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6048,13 +6048,13 @@
         <v>100</v>
       </c>
       <c r="K79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44825</v>
+        <v>44663</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6120,13 +6120,13 @@
         <v>200</v>
       </c>
       <c r="K80" t="n">
+        <v>600</v>
+      </c>
+      <c r="L80" t="n">
         <v>700</v>
       </c>
-      <c r="L80" t="n">
-        <v>800</v>
-      </c>
       <c r="M80" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44825</v>
+        <v>44663</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6192,13 +6192,13 @@
         <v>100</v>
       </c>
       <c r="K81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44708</v>
+        <v>44350</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44708</v>
+        <v>44350</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44217</v>
+        <v>44525</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44217</v>
+        <v>44525</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44341</v>
+        <v>44827</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6552,13 +6552,13 @@
         <v>200</v>
       </c>
       <c r="K86" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L86" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M86" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44341</v>
+        <v>44827</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6624,13 +6624,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44280</v>
+        <v>44252</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44280</v>
+        <v>44252</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44525</v>
+        <v>44355</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44525</v>
+        <v>44355</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44756</v>
+        <v>44719</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6984,13 +6984,13 @@
         <v>200</v>
       </c>
       <c r="K92" t="n">
+        <v>600</v>
+      </c>
+      <c r="L92" t="n">
         <v>700</v>
       </c>
-      <c r="L92" t="n">
-        <v>800</v>
-      </c>
       <c r="M92" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44756</v>
+        <v>44719</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7056,13 +7056,13 @@
         <v>100</v>
       </c>
       <c r="K93" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L93" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M93" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44705</v>
+        <v>44453</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44705</v>
+        <v>44453</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44272</v>
+        <v>44756</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7272,13 +7272,13 @@
         <v>200</v>
       </c>
       <c r="K96" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L96" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M96" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44272</v>
+        <v>44756</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7344,13 +7344,13 @@
         <v>100</v>
       </c>
       <c r="K97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44490</v>
+        <v>44383</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44490</v>
+        <v>44383</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44476</v>
+        <v>44692</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44476</v>
+        <v>44692</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44278</v>
+        <v>44694</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K102" t="n">
         <v>600</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44278</v>
+        <v>44694</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K103" t="n">
         <v>500</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44299</v>
+        <v>44553</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44299</v>
+        <v>44553</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44665</v>
+        <v>44237</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44665</v>
+        <v>44237</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44512</v>
+        <v>44391</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44512</v>
+        <v>44391</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44579</v>
+        <v>44160</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44579</v>
+        <v>44160</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44839</v>
+        <v>44285</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8424,13 +8424,13 @@
         <v>200</v>
       </c>
       <c r="K112" t="n">
+        <v>600</v>
+      </c>
+      <c r="L112" t="n">
         <v>700</v>
       </c>
-      <c r="L112" t="n">
-        <v>800</v>
-      </c>
       <c r="M112" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44839</v>
+        <v>44285</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8496,13 +8496,13 @@
         <v>100</v>
       </c>
       <c r="K113" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L113" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M113" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44358</v>
+        <v>44327</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44358</v>
+        <v>44327</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44327</v>
+        <v>44469</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44327</v>
+        <v>44469</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44460</v>
+        <v>44386</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44460</v>
+        <v>44386</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44160</v>
+        <v>44194</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44609</v>
+        <v>44435</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44609</v>
+        <v>44435</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44771</v>
+        <v>44665</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9288,13 +9288,13 @@
         <v>200</v>
       </c>
       <c r="K124" t="n">
+        <v>600</v>
+      </c>
+      <c r="L124" t="n">
         <v>700</v>
       </c>
-      <c r="L124" t="n">
-        <v>800</v>
-      </c>
       <c r="M124" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44771</v>
+        <v>44665</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9360,13 +9360,13 @@
         <v>100</v>
       </c>
       <c r="K125" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L125" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M125" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44308</v>
+        <v>44349</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44308</v>
+        <v>44349</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44224</v>
+        <v>44771</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9576,13 +9576,13 @@
         <v>200</v>
       </c>
       <c r="K128" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L128" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M128" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44224</v>
+        <v>44771</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9648,13 +9648,13 @@
         <v>100</v>
       </c>
       <c r="K129" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L129" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M129" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44166</v>
+        <v>44783</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9720,13 +9720,13 @@
         <v>200</v>
       </c>
       <c r="K130" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L130" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M130" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44166</v>
+        <v>44783</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9792,13 +9792,13 @@
         <v>100</v>
       </c>
       <c r="K131" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L131" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M131" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44841</v>
+        <v>44203</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9864,13 +9864,13 @@
         <v>200</v>
       </c>
       <c r="K132" t="n">
+        <v>600</v>
+      </c>
+      <c r="L132" t="n">
         <v>700</v>
       </c>
-      <c r="L132" t="n">
-        <v>800</v>
-      </c>
       <c r="M132" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44841</v>
+        <v>44203</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9936,13 +9936,13 @@
         <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44435</v>
+        <v>44582</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44435</v>
+        <v>44582</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44442</v>
+        <v>44330</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10149,7 +10149,7 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K136" t="n">
         <v>600</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44442</v>
+        <v>44330</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K137" t="n">
         <v>500</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44336</v>
+        <v>44187</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44336</v>
+        <v>44187</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44252</v>
+        <v>44769</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10440,13 +10440,13 @@
         <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L140" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44252</v>
+        <v>44769</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10512,13 +10512,13 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44694</v>
+        <v>44250</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P142" t="n">
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44694</v>
+        <v>44250</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P143" t="n">
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44405</v>
+        <v>44316</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44405</v>
+        <v>44316</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44679</v>
+        <v>44166</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44679</v>
+        <v>44166</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44231</v>
+        <v>44334</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44231</v>
+        <v>44334</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44334</v>
+        <v>44705</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44334</v>
+        <v>44705</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44194</v>
+        <v>44488</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44194</v>
+        <v>44488</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44330</v>
+        <v>44341</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44330</v>
+        <v>44341</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K156" t="n">
         <v>600</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44274</v>
+        <v>44278</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K157" t="n">
         <v>500</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44391</v>
+        <v>44168</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44391</v>
+        <v>44168</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44203</v>
+        <v>44222</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44203</v>
+        <v>44222</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44355</v>
+        <v>44224</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44355</v>
+        <v>44224</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44565</v>
+        <v>44433</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P166" t="n">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44565</v>
+        <v>44433</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12399,7 +12399,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P167" t="n">
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44187</v>
+        <v>44362</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44187</v>
+        <v>44362</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44553</v>
+        <v>44579</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P170" t="n">
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44553</v>
+        <v>44579</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44292</v>
+        <v>44490</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44292</v>
+        <v>44490</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44453</v>
+        <v>44280</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44453</v>
+        <v>44280</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44334</v>
+        <v>44855</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11016,13 +11016,13 @@
         <v>200</v>
       </c>
       <c r="K148" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L148" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M148" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44334</v>
+        <v>44855</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11088,13 +11088,13 @@
         <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L149" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M149" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44705</v>
+        <v>44334</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44705</v>
+        <v>44334</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44488</v>
+        <v>44705</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44488</v>
+        <v>44705</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K156" t="n">
         <v>600</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K157" t="n">
         <v>500</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44168</v>
+        <v>44278</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K158" t="n">
         <v>600</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44168</v>
+        <v>44278</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K159" t="n">
         <v>500</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44398</v>
+        <v>44168</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44398</v>
+        <v>44168</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44222</v>
+        <v>44398</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44222</v>
+        <v>44398</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44433</v>
+        <v>44224</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44433</v>
+        <v>44224</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44362</v>
+        <v>44433</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44362</v>
+        <v>44433</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44579</v>
+        <v>44362</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12615,7 +12615,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P170" t="n">
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44579</v>
+        <v>44362</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P171" t="n">
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44490</v>
+        <v>44579</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44490</v>
+        <v>44579</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44280</v>
+        <v>44490</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44280</v>
+        <v>44490</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -12985,6 +12985,150 @@
         <v>1</v>
       </c>
       <c r="R175" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>11</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>200</v>
+      </c>
+      <c r="K176" t="n">
+        <v>600</v>
+      </c>
+      <c r="L176" t="n">
+        <v>700</v>
+      </c>
+      <c r="M176" t="n">
+        <v>650</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>11</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="E177" t="n">
+        <v>8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>100</v>
+      </c>
+      <c r="K177" t="n">
+        <v>500</v>
+      </c>
+      <c r="L177" t="n">
+        <v>500</v>
+      </c>
+      <c r="M177" t="n">
+        <v>500</v>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>1</v>
+      </c>
+      <c r="R177" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44453</v>
+        <v>44880</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7128,13 +7128,13 @@
         <v>200</v>
       </c>
       <c r="K94" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L94" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M94" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44453</v>
+        <v>44880</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7200,13 +7200,13 @@
         <v>100</v>
       </c>
       <c r="K95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44756</v>
+        <v>44453</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7272,13 +7272,13 @@
         <v>200</v>
       </c>
       <c r="K96" t="n">
+        <v>600</v>
+      </c>
+      <c r="L96" t="n">
         <v>700</v>
       </c>
-      <c r="L96" t="n">
-        <v>800</v>
-      </c>
       <c r="M96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44756</v>
+        <v>44453</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7344,13 +7344,13 @@
         <v>100</v>
       </c>
       <c r="K97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44383</v>
+        <v>44756</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7416,13 +7416,13 @@
         <v>200</v>
       </c>
       <c r="K98" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L98" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M98" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44383</v>
+        <v>44756</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7488,13 +7488,13 @@
         <v>100</v>
       </c>
       <c r="K99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44692</v>
+        <v>44383</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44692</v>
+        <v>44383</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44553</v>
+        <v>44694</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44553</v>
+        <v>44694</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44237</v>
+        <v>44553</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44237</v>
+        <v>44553</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44391</v>
+        <v>44237</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44391</v>
+        <v>44237</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44160</v>
+        <v>44391</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44160</v>
+        <v>44391</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44285</v>
+        <v>44160</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44285</v>
+        <v>44160</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44327</v>
+        <v>44285</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44327</v>
+        <v>44285</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44469</v>
+        <v>44327</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44469</v>
+        <v>44327</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44386</v>
+        <v>44469</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44386</v>
+        <v>44469</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44194</v>
+        <v>44386</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44194</v>
+        <v>44386</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44435</v>
+        <v>44194</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44435</v>
+        <v>44194</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44665</v>
+        <v>44435</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44665</v>
+        <v>44435</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44349</v>
+        <v>44665</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44349</v>
+        <v>44665</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44771</v>
+        <v>44349</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9576,13 +9576,13 @@
         <v>200</v>
       </c>
       <c r="K128" t="n">
+        <v>600</v>
+      </c>
+      <c r="L128" t="n">
         <v>700</v>
       </c>
-      <c r="L128" t="n">
-        <v>800</v>
-      </c>
       <c r="M128" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44771</v>
+        <v>44349</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9648,13 +9648,13 @@
         <v>100</v>
       </c>
       <c r="K129" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L129" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M129" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44783</v>
+        <v>44771</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44783</v>
+        <v>44771</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44203</v>
+        <v>44783</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9864,13 +9864,13 @@
         <v>200</v>
       </c>
       <c r="K132" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L132" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M132" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44203</v>
+        <v>44783</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9936,13 +9936,13 @@
         <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44582</v>
+        <v>44203</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44582</v>
+        <v>44203</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44330</v>
+        <v>44582</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44330</v>
+        <v>44582</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44769</v>
+        <v>44187</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10440,13 +10440,13 @@
         <v>200</v>
       </c>
       <c r="K140" t="n">
+        <v>600</v>
+      </c>
+      <c r="L140" t="n">
         <v>700</v>
       </c>
-      <c r="L140" t="n">
-        <v>800</v>
-      </c>
       <c r="M140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44769</v>
+        <v>44187</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10512,13 +10512,13 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44250</v>
+        <v>44769</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10584,13 +10584,13 @@
         <v>200</v>
       </c>
       <c r="K142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L142" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44250</v>
+        <v>44769</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10656,13 +10656,13 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44316</v>
+        <v>44250</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P144" t="n">
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44316</v>
+        <v>44250</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P145" t="n">
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44166</v>
+        <v>44316</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44166</v>
+        <v>44316</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11016,13 +11016,13 @@
         <v>200</v>
       </c>
       <c r="K148" t="n">
+        <v>600</v>
+      </c>
+      <c r="L148" t="n">
         <v>700</v>
       </c>
-      <c r="L148" t="n">
-        <v>800</v>
-      </c>
       <c r="M148" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11088,13 +11088,13 @@
         <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44334</v>
+        <v>44855</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11160,13 +11160,13 @@
         <v>200</v>
       </c>
       <c r="K150" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L150" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M150" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44334</v>
+        <v>44855</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11232,13 +11232,13 @@
         <v>100</v>
       </c>
       <c r="K151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44705</v>
+        <v>44334</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44705</v>
+        <v>44334</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44488</v>
+        <v>44705</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44488</v>
+        <v>44705</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K158" t="n">
         <v>600</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K159" t="n">
         <v>500</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44168</v>
+        <v>44278</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K160" t="n">
         <v>600</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44168</v>
+        <v>44278</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K161" t="n">
         <v>500</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44398</v>
+        <v>44168</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44398</v>
+        <v>44168</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44222</v>
+        <v>44398</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44222</v>
+        <v>44398</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44433</v>
+        <v>44224</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44433</v>
+        <v>44224</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44362</v>
+        <v>44433</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44362</v>
+        <v>44433</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44579</v>
+        <v>44362</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P172" t="n">
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44579</v>
+        <v>44362</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P173" t="n">
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44490</v>
+        <v>44579</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P174" t="n">
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44490</v>
+        <v>44579</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44280</v>
+        <v>44490</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44280</v>
+        <v>44490</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13129,6 +13129,150 @@
         <v>1</v>
       </c>
       <c r="R177" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>11</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="E178" t="n">
+        <v>8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>200</v>
+      </c>
+      <c r="K178" t="n">
+        <v>600</v>
+      </c>
+      <c r="L178" t="n">
+        <v>700</v>
+      </c>
+      <c r="M178" t="n">
+        <v>650</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>1</v>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>11</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>100</v>
+      </c>
+      <c r="K179" t="n">
+        <v>500</v>
+      </c>
+      <c r="L179" t="n">
+        <v>500</v>
+      </c>
+      <c r="M179" t="n">
+        <v>500</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>1</v>
+      </c>
+      <c r="R179" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R179"/>
+  <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44320</v>
+        <v>44882</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L12" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M12" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44320</v>
+        <v>44882</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1296,13 +1296,13 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44320</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44425</v>
+        <v>44320</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44292</v>
+        <v>44425</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44292</v>
+        <v>44425</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44475</v>
+        <v>44292</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44475</v>
+        <v>44292</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44607</v>
+        <v>44475</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44607</v>
+        <v>44475</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44839</v>
+        <v>44607</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1944,13 +1944,13 @@
         <v>200</v>
       </c>
       <c r="K22" t="n">
+        <v>600</v>
+      </c>
+      <c r="L22" t="n">
         <v>700</v>
       </c>
-      <c r="L22" t="n">
-        <v>800</v>
-      </c>
       <c r="M22" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44839</v>
+        <v>44607</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2016,13 +2016,13 @@
         <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L23" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M23" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44523</v>
+        <v>44839</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M24" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44523</v>
+        <v>44839</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44272</v>
+        <v>44523</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44272</v>
+        <v>44523</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44574</v>
+        <v>44272</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44574</v>
+        <v>44272</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44274</v>
+        <v>44574</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44274</v>
+        <v>44574</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44442</v>
+        <v>44274</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
         <v>600</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44442</v>
+        <v>44274</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K33" t="n">
         <v>500</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44708</v>
+        <v>44442</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K34" t="n">
         <v>600</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44708</v>
+        <v>44442</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K35" t="n">
         <v>500</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44306</v>
+        <v>44708</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44306</v>
+        <v>44708</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44460</v>
+        <v>44306</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44460</v>
+        <v>44306</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44313</v>
+        <v>44460</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44313</v>
+        <v>44460</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44344</v>
+        <v>44313</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44239</v>
+        <v>44217</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44239</v>
+        <v>44217</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44699</v>
+        <v>44239</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44699</v>
+        <v>44239</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44616</v>
+        <v>44699</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44616</v>
+        <v>44699</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44476</v>
+        <v>44616</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44476</v>
+        <v>44616</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44812</v>
+        <v>44476</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4248,13 +4248,13 @@
         <v>200</v>
       </c>
       <c r="K54" t="n">
+        <v>600</v>
+      </c>
+      <c r="L54" t="n">
         <v>700</v>
       </c>
-      <c r="L54" t="n">
-        <v>800</v>
-      </c>
       <c r="M54" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44812</v>
+        <v>44476</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4320,13 +4320,13 @@
         <v>100</v>
       </c>
       <c r="K55" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L55" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M55" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44841</v>
+        <v>44812</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44841</v>
+        <v>44812</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44565</v>
+        <v>44841</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4536,13 +4536,13 @@
         <v>200</v>
       </c>
       <c r="K58" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L58" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M58" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44565</v>
+        <v>44841</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4608,13 +4608,13 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44400</v>
+        <v>44565</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44512</v>
+        <v>44400</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44512</v>
+        <v>44400</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44405</v>
+        <v>44512</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44405</v>
+        <v>44512</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44609</v>
+        <v>44405</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44609</v>
+        <v>44405</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44825</v>
+        <v>44609</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5256,13 +5256,13 @@
         <v>200</v>
       </c>
       <c r="K68" t="n">
+        <v>600</v>
+      </c>
+      <c r="L68" t="n">
         <v>700</v>
       </c>
-      <c r="L68" t="n">
-        <v>800</v>
-      </c>
       <c r="M68" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44825</v>
+        <v>44609</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5328,13 +5328,13 @@
         <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44679</v>
+        <v>44825</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5400,13 +5400,13 @@
         <v>200</v>
       </c>
       <c r="K70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L70" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M70" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44679</v>
+        <v>44825</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5472,13 +5472,13 @@
         <v>100</v>
       </c>
       <c r="K71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44754</v>
+        <v>44679</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44754</v>
+        <v>44679</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44308</v>
+        <v>44754</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44308</v>
+        <v>44754</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44308</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44299</v>
+        <v>44308</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44365</v>
+        <v>44299</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44365</v>
+        <v>44299</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44663</v>
+        <v>44365</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44663</v>
+        <v>44365</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44350</v>
+        <v>44663</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44350</v>
+        <v>44663</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44525</v>
+        <v>44350</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44525</v>
+        <v>44350</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44827</v>
+        <v>44525</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6552,13 +6552,13 @@
         <v>200</v>
       </c>
       <c r="K86" t="n">
+        <v>600</v>
+      </c>
+      <c r="L86" t="n">
         <v>700</v>
       </c>
-      <c r="L86" t="n">
-        <v>800</v>
-      </c>
       <c r="M86" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44827</v>
+        <v>44525</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6624,13 +6624,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44252</v>
+        <v>44827</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6696,13 +6696,13 @@
         <v>200</v>
       </c>
       <c r="K88" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L88" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M88" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44252</v>
+        <v>44827</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6768,13 +6768,13 @@
         <v>100</v>
       </c>
       <c r="K89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44355</v>
+        <v>44252</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44355</v>
+        <v>44252</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44719</v>
+        <v>44355</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44719</v>
+        <v>44355</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44880</v>
+        <v>44719</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7128,13 +7128,13 @@
         <v>200</v>
       </c>
       <c r="K94" t="n">
+        <v>600</v>
+      </c>
+      <c r="L94" t="n">
         <v>700</v>
       </c>
-      <c r="L94" t="n">
-        <v>800</v>
-      </c>
       <c r="M94" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44880</v>
+        <v>44719</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7200,13 +7200,13 @@
         <v>100</v>
       </c>
       <c r="K95" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L95" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M95" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44453</v>
+        <v>44880</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7272,13 +7272,13 @@
         <v>200</v>
       </c>
       <c r="K96" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L96" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M96" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44453</v>
+        <v>44880</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7344,13 +7344,13 @@
         <v>100</v>
       </c>
       <c r="K97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44756</v>
+        <v>44453</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7416,13 +7416,13 @@
         <v>200</v>
       </c>
       <c r="K98" t="n">
+        <v>600</v>
+      </c>
+      <c r="L98" t="n">
         <v>700</v>
       </c>
-      <c r="L98" t="n">
-        <v>800</v>
-      </c>
       <c r="M98" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44756</v>
+        <v>44453</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7488,13 +7488,13 @@
         <v>100</v>
       </c>
       <c r="K99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44383</v>
+        <v>44756</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7560,13 +7560,13 @@
         <v>200</v>
       </c>
       <c r="K100" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L100" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M100" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44383</v>
+        <v>44756</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7632,13 +7632,13 @@
         <v>100</v>
       </c>
       <c r="K101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44692</v>
+        <v>44383</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44692</v>
+        <v>44383</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44553</v>
+        <v>44694</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44553</v>
+        <v>44694</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44237</v>
+        <v>44553</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44237</v>
+        <v>44553</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44391</v>
+        <v>44237</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44391</v>
+        <v>44237</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44160</v>
+        <v>44391</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44160</v>
+        <v>44391</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44285</v>
+        <v>44160</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44285</v>
+        <v>44160</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44327</v>
+        <v>44285</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44327</v>
+        <v>44285</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44469</v>
+        <v>44327</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44469</v>
+        <v>44327</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44386</v>
+        <v>44469</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44386</v>
+        <v>44469</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44194</v>
+        <v>44386</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44194</v>
+        <v>44386</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44435</v>
+        <v>44194</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44435</v>
+        <v>44194</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44665</v>
+        <v>44435</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44665</v>
+        <v>44435</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44349</v>
+        <v>44665</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44349</v>
+        <v>44665</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44771</v>
+        <v>44349</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9720,13 +9720,13 @@
         <v>200</v>
       </c>
       <c r="K130" t="n">
+        <v>600</v>
+      </c>
+      <c r="L130" t="n">
         <v>700</v>
       </c>
-      <c r="L130" t="n">
-        <v>800</v>
-      </c>
       <c r="M130" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44771</v>
+        <v>44349</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9792,13 +9792,13 @@
         <v>100</v>
       </c>
       <c r="K131" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L131" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M131" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44783</v>
+        <v>44771</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44783</v>
+        <v>44771</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44203</v>
+        <v>44783</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10008,13 +10008,13 @@
         <v>200</v>
       </c>
       <c r="K134" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L134" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M134" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44203</v>
+        <v>44783</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10080,13 +10080,13 @@
         <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L135" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M135" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44582</v>
+        <v>44203</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44582</v>
+        <v>44203</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44330</v>
+        <v>44582</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44330</v>
+        <v>44582</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44769</v>
+        <v>44187</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10584,13 +10584,13 @@
         <v>200</v>
       </c>
       <c r="K142" t="n">
+        <v>600</v>
+      </c>
+      <c r="L142" t="n">
         <v>700</v>
       </c>
-      <c r="L142" t="n">
-        <v>800</v>
-      </c>
       <c r="M142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44769</v>
+        <v>44187</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10656,13 +10656,13 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44250</v>
+        <v>44769</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10728,13 +10728,13 @@
         <v>200</v>
       </c>
       <c r="K144" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L144" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M144" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44250</v>
+        <v>44769</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10800,13 +10800,13 @@
         <v>100</v>
       </c>
       <c r="K145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44316</v>
+        <v>44250</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44316</v>
+        <v>44250</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P147" t="n">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44166</v>
+        <v>44316</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44166</v>
+        <v>44316</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11160,13 +11160,13 @@
         <v>200</v>
       </c>
       <c r="K150" t="n">
+        <v>600</v>
+      </c>
+      <c r="L150" t="n">
         <v>700</v>
       </c>
-      <c r="L150" t="n">
-        <v>800</v>
-      </c>
       <c r="M150" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44855</v>
+        <v>44166</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11232,13 +11232,13 @@
         <v>100</v>
       </c>
       <c r="K151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44334</v>
+        <v>44855</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11304,13 +11304,13 @@
         <v>200</v>
       </c>
       <c r="K152" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L152" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M152" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44334</v>
+        <v>44855</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11376,13 +11376,13 @@
         <v>100</v>
       </c>
       <c r="K153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44705</v>
+        <v>44334</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44705</v>
+        <v>44334</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44488</v>
+        <v>44705</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44488</v>
+        <v>44705</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K160" t="n">
         <v>600</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44278</v>
+        <v>44341</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K161" t="n">
         <v>500</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44168</v>
+        <v>44278</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K162" t="n">
         <v>600</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44168</v>
+        <v>44278</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K163" t="n">
         <v>500</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44398</v>
+        <v>44168</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44398</v>
+        <v>44168</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44222</v>
+        <v>44398</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44222</v>
+        <v>44398</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44433</v>
+        <v>44224</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44433</v>
+        <v>44224</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44362</v>
+        <v>44433</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44362</v>
+        <v>44433</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44579</v>
+        <v>44362</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P174" t="n">
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44579</v>
+        <v>44362</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P175" t="n">
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44490</v>
+        <v>44579</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13047,7 +13047,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44490</v>
+        <v>44579</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44280</v>
+        <v>44490</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44280</v>
+        <v>44490</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13273,6 +13273,150 @@
         <v>1</v>
       </c>
       <c r="R179" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>11</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="E180" t="n">
+        <v>8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>200</v>
+      </c>
+      <c r="K180" t="n">
+        <v>600</v>
+      </c>
+      <c r="L180" t="n">
+        <v>700</v>
+      </c>
+      <c r="M180" t="n">
+        <v>650</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>1</v>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>11</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="E181" t="n">
+        <v>8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>100</v>
+      </c>
+      <c r="K181" t="n">
+        <v>500</v>
+      </c>
+      <c r="L181" t="n">
+        <v>500</v>
+      </c>
+      <c r="M181" t="n">
+        <v>500</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>1</v>
+      </c>
+      <c r="R181" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44798</v>
+        <v>44694</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>200</v>
       </c>
       <c r="K2" t="n">
+        <v>600</v>
+      </c>
+      <c r="L2" t="n">
         <v>700</v>
       </c>
-      <c r="L2" t="n">
-        <v>800</v>
-      </c>
       <c r="M2" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44798</v>
+        <v>44694</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44336</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44336</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44358</v>
+        <v>44839</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L6" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M6" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44358</v>
+        <v>44839</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44447</v>
+        <v>44705</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44447</v>
+        <v>44705</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44231</v>
+        <v>44166</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44231</v>
+        <v>44166</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44882</v>
+        <v>44327</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>200</v>
       </c>
       <c r="K12" t="n">
+        <v>600</v>
+      </c>
+      <c r="L12" t="n">
         <v>700</v>
       </c>
-      <c r="L12" t="n">
-        <v>800</v>
-      </c>
       <c r="M12" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44882</v>
+        <v>44327</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1296,13 +1296,13 @@
         <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L13" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M13" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44320</v>
+        <v>44344</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44320</v>
+        <v>44344</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44425</v>
+        <v>44841</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L16" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44425</v>
+        <v>44841</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44292</v>
+        <v>44490</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44292</v>
+        <v>44490</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44475</v>
+        <v>44280</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44475</v>
+        <v>44280</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44607</v>
+        <v>44250</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44607</v>
+        <v>44250</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44839</v>
+        <v>44362</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>200</v>
       </c>
       <c r="K24" t="n">
+        <v>600</v>
+      </c>
+      <c r="L24" t="n">
         <v>700</v>
       </c>
-      <c r="L24" t="n">
-        <v>800</v>
-      </c>
       <c r="M24" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44839</v>
+        <v>44362</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44523</v>
+        <v>44194</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44523</v>
+        <v>44194</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44272</v>
+        <v>44616</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44272</v>
+        <v>44616</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44574</v>
+        <v>44460</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44574</v>
+        <v>44460</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44274</v>
+        <v>44355</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44274</v>
+        <v>44355</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44442</v>
+        <v>44553</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K34" t="n">
         <v>600</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44442</v>
+        <v>44553</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
         <v>500</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44708</v>
+        <v>44882</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2952,13 +2952,13 @@
         <v>200</v>
       </c>
       <c r="K36" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L36" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M36" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44708</v>
+        <v>44882</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44306</v>
+        <v>44574</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44306</v>
+        <v>44574</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44460</v>
+        <v>44523</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44460</v>
+        <v>44523</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44313</v>
+        <v>44433</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44313</v>
+        <v>44433</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44344</v>
+        <v>44469</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44344</v>
+        <v>44469</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44217</v>
+        <v>44607</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44217</v>
+        <v>44607</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44239</v>
+        <v>44579</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44239</v>
+        <v>44579</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44699</v>
+        <v>44783</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3960,13 +3960,13 @@
         <v>200</v>
       </c>
       <c r="K50" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L50" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M50" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44699</v>
+        <v>44783</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4032,13 +4032,13 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44616</v>
+        <v>44798</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4104,13 +4104,13 @@
         <v>200</v>
       </c>
       <c r="K52" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L52" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M52" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44616</v>
+        <v>44798</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4176,13 +4176,13 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44476</v>
+        <v>44405</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44476</v>
+        <v>44405</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44812</v>
+        <v>44756</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44812</v>
+        <v>44756</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44841</v>
+        <v>44827</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44841</v>
+        <v>44827</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44565</v>
+        <v>44320</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44565</v>
+        <v>44320</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44400</v>
+        <v>44292</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44400</v>
+        <v>44292</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44512</v>
+        <v>44708</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44512</v>
+        <v>44708</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44405</v>
+        <v>44855</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5112,13 +5112,13 @@
         <v>200</v>
       </c>
       <c r="K66" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L66" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M66" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44405</v>
+        <v>44855</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5184,13 +5184,13 @@
         <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L67" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M67" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44609</v>
+        <v>44825</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5256,13 +5256,13 @@
         <v>200</v>
       </c>
       <c r="K68" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M68" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44609</v>
+        <v>44825</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5328,13 +5328,13 @@
         <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44825</v>
+        <v>44222</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5400,13 +5400,13 @@
         <v>200</v>
       </c>
       <c r="K70" t="n">
+        <v>600</v>
+      </c>
+      <c r="L70" t="n">
         <v>700</v>
       </c>
-      <c r="L70" t="n">
-        <v>800</v>
-      </c>
       <c r="M70" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44825</v>
+        <v>44222</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5472,13 +5472,13 @@
         <v>100</v>
       </c>
       <c r="K71" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L71" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M71" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44679</v>
+        <v>44349</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44679</v>
+        <v>44349</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44754</v>
+        <v>44160</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44754</v>
+        <v>44160</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44308</v>
+        <v>44692</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44308</v>
+        <v>44692</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44299</v>
+        <v>44769</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5976,13 +5976,13 @@
         <v>200</v>
       </c>
       <c r="K78" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L78" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M78" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44299</v>
+        <v>44769</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6048,13 +6048,13 @@
         <v>100</v>
       </c>
       <c r="K79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44365</v>
+        <v>44880</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6120,13 +6120,13 @@
         <v>200</v>
       </c>
       <c r="K80" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L80" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M80" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44365</v>
+        <v>44880</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6192,13 +6192,13 @@
         <v>100</v>
       </c>
       <c r="K81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44663</v>
+        <v>44383</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44663</v>
+        <v>44383</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44525</v>
+        <v>44350</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44525</v>
+        <v>44350</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44827</v>
+        <v>44341</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6696,13 +6696,13 @@
         <v>200</v>
       </c>
       <c r="K88" t="n">
+        <v>600</v>
+      </c>
+      <c r="L88" t="n">
         <v>700</v>
       </c>
-      <c r="L88" t="n">
-        <v>800</v>
-      </c>
       <c r="M88" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44827</v>
+        <v>44341</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6768,13 +6768,13 @@
         <v>100</v>
       </c>
       <c r="K89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44252</v>
+        <v>44453</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44252</v>
+        <v>44453</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44355</v>
+        <v>44217</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44355</v>
+        <v>44217</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44719</v>
+        <v>44663</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44719</v>
+        <v>44663</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44880</v>
+        <v>44237</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7272,13 +7272,13 @@
         <v>200</v>
       </c>
       <c r="K96" t="n">
+        <v>600</v>
+      </c>
+      <c r="L96" t="n">
         <v>700</v>
       </c>
-      <c r="L96" t="n">
-        <v>800</v>
-      </c>
       <c r="M96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44880</v>
+        <v>44237</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7344,13 +7344,13 @@
         <v>100</v>
       </c>
       <c r="K97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44453</v>
+        <v>44224</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44453</v>
+        <v>44224</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44756</v>
+        <v>44316</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7560,13 +7560,13 @@
         <v>200</v>
       </c>
       <c r="K100" t="n">
+        <v>600</v>
+      </c>
+      <c r="L100" t="n">
         <v>700</v>
       </c>
-      <c r="L100" t="n">
-        <v>800</v>
-      </c>
       <c r="M100" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44756</v>
+        <v>44316</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7632,13 +7632,13 @@
         <v>100</v>
       </c>
       <c r="K101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44692</v>
+        <v>44308</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44692</v>
+        <v>44308</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44694</v>
+        <v>44358</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44694</v>
+        <v>44358</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44553</v>
+        <v>44330</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44553</v>
+        <v>44330</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44237</v>
+        <v>44719</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44237</v>
+        <v>44719</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44391</v>
+        <v>44285</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44391</v>
+        <v>44285</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44160</v>
+        <v>44447</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44160</v>
+        <v>44447</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44285</v>
+        <v>44812</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8712,13 +8712,13 @@
         <v>200</v>
       </c>
       <c r="K116" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L116" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M116" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44285</v>
+        <v>44812</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8784,13 +8784,13 @@
         <v>100</v>
       </c>
       <c r="K117" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L117" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M117" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44327</v>
+        <v>44582</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44327</v>
+        <v>44582</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44469</v>
+        <v>44391</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44469</v>
+        <v>44391</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44386</v>
+        <v>44609</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44386</v>
+        <v>44609</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44194</v>
+        <v>44665</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44194</v>
+        <v>44665</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44435</v>
+        <v>44525</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44435</v>
+        <v>44525</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44665</v>
+        <v>44306</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44665</v>
+        <v>44306</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44349</v>
+        <v>44313</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44349</v>
+        <v>44313</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44771</v>
+        <v>44699</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9864,13 +9864,13 @@
         <v>200</v>
       </c>
       <c r="K132" t="n">
+        <v>600</v>
+      </c>
+      <c r="L132" t="n">
         <v>700</v>
       </c>
-      <c r="L132" t="n">
-        <v>800</v>
-      </c>
       <c r="M132" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44771</v>
+        <v>44699</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9936,13 +9936,13 @@
         <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44783</v>
+        <v>44168</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10008,13 +10008,13 @@
         <v>200</v>
       </c>
       <c r="K134" t="n">
+        <v>600</v>
+      </c>
+      <c r="L134" t="n">
         <v>700</v>
       </c>
-      <c r="L134" t="n">
-        <v>800</v>
-      </c>
       <c r="M134" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44783</v>
+        <v>44168</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10080,13 +10080,13 @@
         <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44203</v>
+        <v>44512</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44203</v>
+        <v>44512</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44582</v>
+        <v>44442</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K138" t="n">
         <v>600</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44582</v>
+        <v>44442</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K139" t="n">
         <v>500</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44330</v>
+        <v>44274</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44330</v>
+        <v>44274</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44187</v>
+        <v>44336</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44187</v>
+        <v>44336</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44769</v>
+        <v>44476</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10728,13 +10728,13 @@
         <v>200</v>
       </c>
       <c r="K144" t="n">
+        <v>600</v>
+      </c>
+      <c r="L144" t="n">
         <v>700</v>
       </c>
-      <c r="L144" t="n">
-        <v>800</v>
-      </c>
       <c r="M144" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44769</v>
+        <v>44476</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10800,13 +10800,13 @@
         <v>100</v>
       </c>
       <c r="K145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44250</v>
+        <v>44398</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44250</v>
+        <v>44398</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P147" t="n">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44316</v>
+        <v>44475</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44316</v>
+        <v>44475</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44166</v>
+        <v>44565</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44166</v>
+        <v>44565</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44855</v>
+        <v>44679</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11304,13 +11304,13 @@
         <v>200</v>
       </c>
       <c r="K152" t="n">
+        <v>600</v>
+      </c>
+      <c r="L152" t="n">
         <v>700</v>
       </c>
-      <c r="L152" t="n">
-        <v>800</v>
-      </c>
       <c r="M152" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44855</v>
+        <v>44679</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11376,13 +11376,13 @@
         <v>100</v>
       </c>
       <c r="K153" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L153" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M153" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44334</v>
+        <v>44187</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44334</v>
+        <v>44187</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44705</v>
+        <v>44425</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44705</v>
+        <v>44425</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44488</v>
+        <v>44771</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11736,13 +11736,13 @@
         <v>200</v>
       </c>
       <c r="K158" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L158" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M158" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44488</v>
+        <v>44771</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11808,13 +11808,13 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44341</v>
+        <v>44272</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44341</v>
+        <v>44272</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44278</v>
+        <v>44334</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K162" t="n">
         <v>600</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44278</v>
+        <v>44334</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K163" t="n">
         <v>500</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44398</v>
+        <v>44203</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44398</v>
+        <v>44203</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44222</v>
+        <v>44278</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K168" t="n">
         <v>600</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44222</v>
+        <v>44278</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K169" t="n">
         <v>500</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44224</v>
+        <v>44239</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44224</v>
+        <v>44239</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44433</v>
+        <v>44299</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44433</v>
+        <v>44299</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44579</v>
+        <v>44754</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13047,7 +13047,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44579</v>
+        <v>44754</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44490</v>
+        <v>44252</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44490</v>
+        <v>44252</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44280</v>
+        <v>44400</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44280</v>
+        <v>44400</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R181"/>
+  <dimension ref="A1:R183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44383</v>
+        <v>44895</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6264,13 +6264,13 @@
         <v>200</v>
       </c>
       <c r="K82" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L82" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M82" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44383</v>
+        <v>44895</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6336,13 +6336,13 @@
         <v>100</v>
       </c>
       <c r="K83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44231</v>
+        <v>44383</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44231</v>
+        <v>44383</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44341</v>
+        <v>44350</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44341</v>
+        <v>44350</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44453</v>
+        <v>44341</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44453</v>
+        <v>44341</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44217</v>
+        <v>44453</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44217</v>
+        <v>44453</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44663</v>
+        <v>44217</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44663</v>
+        <v>44217</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44237</v>
+        <v>44663</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44237</v>
+        <v>44663</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44224</v>
+        <v>44237</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44224</v>
+        <v>44237</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44316</v>
+        <v>44224</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44316</v>
+        <v>44224</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44386</v>
+        <v>44316</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44386</v>
+        <v>44316</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44358</v>
+        <v>44308</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44358</v>
+        <v>44308</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44330</v>
+        <v>44358</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44719</v>
+        <v>44330</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44719</v>
+        <v>44330</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44285</v>
+        <v>44719</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44285</v>
+        <v>44719</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44447</v>
+        <v>44285</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44447</v>
+        <v>44285</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44812</v>
+        <v>44447</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8712,13 +8712,13 @@
         <v>200</v>
       </c>
       <c r="K116" t="n">
+        <v>600</v>
+      </c>
+      <c r="L116" t="n">
         <v>700</v>
       </c>
-      <c r="L116" t="n">
-        <v>800</v>
-      </c>
       <c r="M116" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44812</v>
+        <v>44447</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8784,13 +8784,13 @@
         <v>100</v>
       </c>
       <c r="K117" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L117" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M117" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44582</v>
+        <v>44812</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8856,13 +8856,13 @@
         <v>200</v>
       </c>
       <c r="K118" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L118" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M118" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44582</v>
+        <v>44812</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8928,13 +8928,13 @@
         <v>100</v>
       </c>
       <c r="K119" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L119" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M119" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44391</v>
+        <v>44582</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44391</v>
+        <v>44582</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44609</v>
+        <v>44391</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44609</v>
+        <v>44391</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44665</v>
+        <v>44609</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44665</v>
+        <v>44609</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44525</v>
+        <v>44665</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44525</v>
+        <v>44665</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44306</v>
+        <v>44525</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44306</v>
+        <v>44525</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44313</v>
+        <v>44306</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44699</v>
+        <v>44313</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44168</v>
+        <v>44699</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44168</v>
+        <v>44699</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44512</v>
+        <v>44168</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44512</v>
+        <v>44168</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44442</v>
+        <v>44512</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K138" t="n">
         <v>600</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44442</v>
+        <v>44512</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K139" t="n">
         <v>500</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44274</v>
+        <v>44442</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K140" t="n">
         <v>600</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44274</v>
+        <v>44442</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K141" t="n">
         <v>500</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44336</v>
+        <v>44274</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44336</v>
+        <v>44274</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44476</v>
+        <v>44336</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44476</v>
+        <v>44336</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44398</v>
+        <v>44476</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44398</v>
+        <v>44476</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44475</v>
+        <v>44398</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44475</v>
+        <v>44398</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44565</v>
+        <v>44475</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44565</v>
+        <v>44475</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P151" t="n">
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44679</v>
+        <v>44565</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44679</v>
+        <v>44565</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44187</v>
+        <v>44679</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44187</v>
+        <v>44679</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44425</v>
+        <v>44187</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44425</v>
+        <v>44187</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44771</v>
+        <v>44425</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11736,13 +11736,13 @@
         <v>200</v>
       </c>
       <c r="K158" t="n">
+        <v>600</v>
+      </c>
+      <c r="L158" t="n">
         <v>700</v>
       </c>
-      <c r="L158" t="n">
-        <v>800</v>
-      </c>
       <c r="M158" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44771</v>
+        <v>44425</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11808,13 +11808,13 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44272</v>
+        <v>44771</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11880,13 +11880,13 @@
         <v>200</v>
       </c>
       <c r="K160" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L160" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M160" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44272</v>
+        <v>44771</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11952,13 +11952,13 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44334</v>
+        <v>44272</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44334</v>
+        <v>44272</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44488</v>
+        <v>44334</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44488</v>
+        <v>44334</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44203</v>
+        <v>44488</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44203</v>
+        <v>44488</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44278</v>
+        <v>44203</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12453,7 +12453,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K168" t="n">
         <v>600</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44278</v>
+        <v>44203</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K169" t="n">
         <v>500</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44239</v>
+        <v>44278</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K170" t="n">
         <v>600</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44239</v>
+        <v>44278</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K171" t="n">
         <v>500</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44299</v>
+        <v>44239</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44299</v>
+        <v>44239</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44365</v>
+        <v>44299</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44365</v>
+        <v>44299</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44754</v>
+        <v>44365</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44754</v>
+        <v>44365</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44252</v>
+        <v>44754</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44252</v>
+        <v>44754</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44400</v>
+        <v>44252</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44400</v>
+        <v>44252</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13417,6 +13417,150 @@
         <v>1</v>
       </c>
       <c r="R181" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>11</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E182" t="n">
+        <v>8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>200</v>
+      </c>
+      <c r="K182" t="n">
+        <v>600</v>
+      </c>
+      <c r="L182" t="n">
+        <v>700</v>
+      </c>
+      <c r="M182" t="n">
+        <v>650</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>1</v>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>11</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E183" t="n">
+        <v>8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>100</v>
+      </c>
+      <c r="K183" t="n">
+        <v>500</v>
+      </c>
+      <c r="L183" t="n">
+        <v>500</v>
+      </c>
+      <c r="M183" t="n">
+        <v>500</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>1</v>
+      </c>
+      <c r="R183" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44694</v>
+        <v>44699</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44694</v>
+        <v>44699</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44841</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L4" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M4" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44841</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>44391</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -792,13 +792,13 @@
         <v>200</v>
       </c>
       <c r="K6" t="n">
+        <v>600</v>
+      </c>
+      <c r="L6" t="n">
         <v>700</v>
       </c>
-      <c r="L6" t="n">
-        <v>800</v>
-      </c>
       <c r="M6" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44839</v>
+        <v>44391</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44705</v>
+        <v>44488</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44705</v>
+        <v>44488</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44166</v>
+        <v>44769</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,13 +1080,13 @@
         <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L10" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M10" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44166</v>
+        <v>44769</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44327</v>
+        <v>44231</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44327</v>
+        <v>44231</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44344</v>
+        <v>44194</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44344</v>
+        <v>44194</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44841</v>
+        <v>44160</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>200</v>
       </c>
       <c r="K16" t="n">
+        <v>600</v>
+      </c>
+      <c r="L16" t="n">
         <v>700</v>
       </c>
-      <c r="L16" t="n">
-        <v>800</v>
-      </c>
       <c r="M16" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44841</v>
+        <v>44160</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44490</v>
+        <v>44308</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44490</v>
+        <v>44308</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44280</v>
+        <v>44306</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44250</v>
+        <v>44447</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44250</v>
+        <v>44447</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44362</v>
+        <v>44525</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44362</v>
+        <v>44525</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44616</v>
+        <v>44217</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44616</v>
+        <v>44217</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44460</v>
+        <v>44250</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44460</v>
+        <v>44250</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44355</v>
+        <v>44222</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44355</v>
+        <v>44222</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44553</v>
+        <v>44579</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44553</v>
+        <v>44579</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44882</v>
+        <v>44880</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44882</v>
+        <v>44880</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44574</v>
+        <v>44166</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44574</v>
+        <v>44166</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44523</v>
+        <v>44679</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44523</v>
+        <v>44679</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44433</v>
+        <v>44398</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44469</v>
+        <v>44783</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3528,13 +3528,13 @@
         <v>200</v>
       </c>
       <c r="K44" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L44" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M44" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44469</v>
+        <v>44783</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3600,13 +3600,13 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L45" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M45" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44607</v>
+        <v>44355</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44607</v>
+        <v>44355</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44579</v>
+        <v>44719</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44579</v>
+        <v>44719</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44783</v>
+        <v>44574</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -3960,13 +3960,13 @@
         <v>200</v>
       </c>
       <c r="K50" t="n">
+        <v>600</v>
+      </c>
+      <c r="L50" t="n">
         <v>700</v>
       </c>
-      <c r="L50" t="n">
-        <v>800</v>
-      </c>
       <c r="M50" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44783</v>
+        <v>44574</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4032,13 +4032,13 @@
         <v>100</v>
       </c>
       <c r="K51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44798</v>
+        <v>44341</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4104,13 +4104,13 @@
         <v>200</v>
       </c>
       <c r="K52" t="n">
+        <v>600</v>
+      </c>
+      <c r="L52" t="n">
         <v>700</v>
       </c>
-      <c r="L52" t="n">
-        <v>800</v>
-      </c>
       <c r="M52" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44798</v>
+        <v>44341</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4176,13 +4176,13 @@
         <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L53" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M53" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44405</v>
+        <v>44292</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44405</v>
+        <v>44292</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44756</v>
+        <v>44187</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4392,13 +4392,13 @@
         <v>200</v>
       </c>
       <c r="K56" t="n">
+        <v>600</v>
+      </c>
+      <c r="L56" t="n">
         <v>700</v>
       </c>
-      <c r="L56" t="n">
-        <v>800</v>
-      </c>
       <c r="M56" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44756</v>
+        <v>44187</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4464,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44827</v>
+        <v>44692</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4536,13 +4536,13 @@
         <v>200</v>
       </c>
       <c r="K58" t="n">
+        <v>600</v>
+      </c>
+      <c r="L58" t="n">
         <v>700</v>
       </c>
-      <c r="L58" t="n">
-        <v>800</v>
-      </c>
       <c r="M58" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4551,11 +4551,11 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44827</v>
+        <v>44692</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4608,13 +4608,13 @@
         <v>100</v>
       </c>
       <c r="K59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44320</v>
+        <v>44812</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4680,13 +4680,13 @@
         <v>200</v>
       </c>
       <c r="K60" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L60" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M60" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44320</v>
+        <v>44812</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44292</v>
+        <v>44708</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44292</v>
+        <v>44708</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44708</v>
+        <v>44553</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44708</v>
+        <v>44553</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44855</v>
+        <v>44705</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5112,13 +5112,13 @@
         <v>200</v>
       </c>
       <c r="K66" t="n">
+        <v>600</v>
+      </c>
+      <c r="L66" t="n">
         <v>700</v>
       </c>
-      <c r="L66" t="n">
-        <v>800</v>
-      </c>
       <c r="M66" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44855</v>
+        <v>44705</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5184,13 +5184,13 @@
         <v>100</v>
       </c>
       <c r="K67" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L67" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M67" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44825</v>
+        <v>44435</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5256,13 +5256,13 @@
         <v>200</v>
       </c>
       <c r="K68" t="n">
+        <v>600</v>
+      </c>
+      <c r="L68" t="n">
         <v>700</v>
       </c>
-      <c r="L68" t="n">
-        <v>800</v>
-      </c>
       <c r="M68" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44825</v>
+        <v>44435</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5328,13 +5328,13 @@
         <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44349</v>
+        <v>44798</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5544,13 +5544,13 @@
         <v>200</v>
       </c>
       <c r="K72" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L72" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M72" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44349</v>
+        <v>44798</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5616,13 +5616,13 @@
         <v>100</v>
       </c>
       <c r="K73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44160</v>
+        <v>44469</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44160</v>
+        <v>44469</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44692</v>
+        <v>44825</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5832,13 +5832,13 @@
         <v>200</v>
       </c>
       <c r="K76" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L76" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M76" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44692</v>
+        <v>44825</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5904,13 +5904,13 @@
         <v>100</v>
       </c>
       <c r="K77" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L77" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M77" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44769</v>
+        <v>44358</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -5976,13 +5976,13 @@
         <v>200</v>
       </c>
       <c r="K78" t="n">
+        <v>600</v>
+      </c>
+      <c r="L78" t="n">
         <v>700</v>
       </c>
-      <c r="L78" t="n">
-        <v>800</v>
-      </c>
       <c r="M78" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44769</v>
+        <v>44358</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6048,13 +6048,13 @@
         <v>100</v>
       </c>
       <c r="K79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44880</v>
+        <v>44442</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K80" t="n">
+        <v>600</v>
+      </c>
+      <c r="L80" t="n">
         <v>700</v>
       </c>
-      <c r="L80" t="n">
-        <v>800</v>
-      </c>
       <c r="M80" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44880</v>
+        <v>44442</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44895</v>
+        <v>44616</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6264,13 +6264,13 @@
         <v>200</v>
       </c>
       <c r="K82" t="n">
+        <v>600</v>
+      </c>
+      <c r="L82" t="n">
         <v>700</v>
       </c>
-      <c r="L82" t="n">
-        <v>800</v>
-      </c>
       <c r="M82" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44895</v>
+        <v>44616</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6336,13 +6336,13 @@
         <v>100</v>
       </c>
       <c r="K83" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L83" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M83" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44383</v>
+        <v>44330</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44383</v>
+        <v>44330</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44231</v>
+        <v>44895</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6552,13 +6552,13 @@
         <v>200</v>
       </c>
       <c r="K86" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L86" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M86" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44231</v>
+        <v>44895</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6624,13 +6624,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44350</v>
+        <v>44855</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6696,13 +6696,13 @@
         <v>200</v>
       </c>
       <c r="K88" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L88" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M88" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44350</v>
+        <v>44855</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6768,13 +6768,13 @@
         <v>100</v>
       </c>
       <c r="K89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44341</v>
+        <v>44582</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44341</v>
+        <v>44582</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44453</v>
+        <v>44344</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44453</v>
+        <v>44344</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44217</v>
+        <v>44278</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44217</v>
+        <v>44278</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44663</v>
+        <v>44400</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44663</v>
+        <v>44400</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44237</v>
+        <v>44827</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7416,13 +7416,13 @@
         <v>200</v>
       </c>
       <c r="K98" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L98" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M98" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44237</v>
+        <v>44827</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7488,13 +7488,13 @@
         <v>100</v>
       </c>
       <c r="K99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44224</v>
+        <v>44299</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44224</v>
+        <v>44299</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44316</v>
+        <v>44350</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44308</v>
+        <v>44272</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44308</v>
+        <v>44272</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44358</v>
+        <v>44476</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44358</v>
+        <v>44476</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44719</v>
+        <v>44274</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44719</v>
+        <v>44274</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44285</v>
+        <v>44334</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44285</v>
+        <v>44334</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44447</v>
+        <v>44453</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44812</v>
+        <v>44383</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8856,13 +8856,13 @@
         <v>200</v>
       </c>
       <c r="K118" t="n">
+        <v>600</v>
+      </c>
+      <c r="L118" t="n">
         <v>700</v>
       </c>
-      <c r="L118" t="n">
-        <v>800</v>
-      </c>
       <c r="M118" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44812</v>
+        <v>44383</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8928,13 +8928,13 @@
         <v>100</v>
       </c>
       <c r="K119" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L119" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M119" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44582</v>
+        <v>44882</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9000,13 +9000,13 @@
         <v>200</v>
       </c>
       <c r="K120" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L120" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M120" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44582</v>
+        <v>44882</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9072,13 +9072,13 @@
         <v>100</v>
       </c>
       <c r="K121" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L121" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M121" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44391</v>
+        <v>44694</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44391</v>
+        <v>44694</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44609</v>
+        <v>44285</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44609</v>
+        <v>44285</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44665</v>
+        <v>44349</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44665</v>
+        <v>44349</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44525</v>
+        <v>44365</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44525</v>
+        <v>44365</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44306</v>
+        <v>44320</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44313</v>
+        <v>44239</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44313</v>
+        <v>44239</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44699</v>
+        <v>44237</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44699</v>
+        <v>44237</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44168</v>
+        <v>44839</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10152,13 +10152,13 @@
         <v>200</v>
       </c>
       <c r="K136" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L136" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M136" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44168</v>
+        <v>44839</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10224,13 +10224,13 @@
         <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44512</v>
+        <v>44327</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44512</v>
+        <v>44327</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44442</v>
+        <v>44771</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L140" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44442</v>
+        <v>44771</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44274</v>
+        <v>44203</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44274</v>
+        <v>44203</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44336</v>
+        <v>44523</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44336</v>
+        <v>44523</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44476</v>
+        <v>44280</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44398</v>
+        <v>44565</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44398</v>
+        <v>44565</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44475</v>
+        <v>44168</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44475</v>
+        <v>44168</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44565</v>
+        <v>44475</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P152" t="n">
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44565</v>
+        <v>44475</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P153" t="n">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44679</v>
+        <v>44665</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44679</v>
+        <v>44665</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44425</v>
+        <v>44490</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44425</v>
+        <v>44490</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44771</v>
+        <v>44609</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11880,13 +11880,13 @@
         <v>200</v>
       </c>
       <c r="K160" t="n">
+        <v>600</v>
+      </c>
+      <c r="L160" t="n">
         <v>700</v>
       </c>
-      <c r="L160" t="n">
-        <v>800</v>
-      </c>
       <c r="M160" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44771</v>
+        <v>44609</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11952,13 +11952,13 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44272</v>
+        <v>44512</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44272</v>
+        <v>44512</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44334</v>
+        <v>44405</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44334</v>
+        <v>44405</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44488</v>
+        <v>44663</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44488</v>
+        <v>44663</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44203</v>
+        <v>44362</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44203</v>
+        <v>44362</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44278</v>
+        <v>44433</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K170" t="n">
         <v>600</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44278</v>
+        <v>44433</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12669,7 +12669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K171" t="n">
         <v>500</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44239</v>
+        <v>44316</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44239</v>
+        <v>44316</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44299</v>
+        <v>44607</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44299</v>
+        <v>44607</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44365</v>
+        <v>44460</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44365</v>
+        <v>44460</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44754</v>
+        <v>44336</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44754</v>
+        <v>44336</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44252</v>
+        <v>44756</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13320,13 +13320,13 @@
         <v>200</v>
       </c>
       <c r="K180" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L180" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M180" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44252</v>
+        <v>44756</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13392,13 +13392,13 @@
         <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L181" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M181" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44400</v>
+        <v>44754</v>
       </c>
       <c r="E182" t="n">
         <v>8</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44400</v>
+        <v>44754</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R183"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44442</v>
+        <v>44897</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K80" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L80" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M80" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44442</v>
+        <v>44897</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44616</v>
+        <v>44442</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K82" t="n">
         <v>600</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44616</v>
+        <v>44442</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K83" t="n">
         <v>500</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44330</v>
+        <v>44616</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44330</v>
+        <v>44616</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44895</v>
+        <v>44330</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6552,13 +6552,13 @@
         <v>200</v>
       </c>
       <c r="K86" t="n">
+        <v>600</v>
+      </c>
+      <c r="L86" t="n">
         <v>700</v>
       </c>
-      <c r="L86" t="n">
-        <v>800</v>
-      </c>
       <c r="M86" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44895</v>
+        <v>44330</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6624,13 +6624,13 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44855</v>
+        <v>44895</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44855</v>
+        <v>44895</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44582</v>
+        <v>44855</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6840,13 +6840,13 @@
         <v>200</v>
       </c>
       <c r="K90" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L90" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M90" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44582</v>
+        <v>44855</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6912,13 +6912,13 @@
         <v>100</v>
       </c>
       <c r="K91" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L91" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M91" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44344</v>
+        <v>44582</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44344</v>
+        <v>44582</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44278</v>
+        <v>44344</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K94" t="n">
         <v>600</v>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44278</v>
+        <v>44344</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44400</v>
+        <v>44278</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
         <v>600</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44400</v>
+        <v>44278</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44827</v>
+        <v>44400</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7416,13 +7416,13 @@
         <v>200</v>
       </c>
       <c r="K98" t="n">
+        <v>600</v>
+      </c>
+      <c r="L98" t="n">
         <v>700</v>
       </c>
-      <c r="L98" t="n">
-        <v>800</v>
-      </c>
       <c r="M98" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44827</v>
+        <v>44400</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7488,13 +7488,13 @@
         <v>100</v>
       </c>
       <c r="K99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44299</v>
+        <v>44827</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7560,13 +7560,13 @@
         <v>200</v>
       </c>
       <c r="K100" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L100" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M100" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44299</v>
+        <v>44827</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7632,13 +7632,13 @@
         <v>100</v>
       </c>
       <c r="K101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44350</v>
+        <v>44299</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44386</v>
+        <v>44350</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44386</v>
+        <v>44350</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44272</v>
+        <v>44386</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44272</v>
+        <v>44386</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44476</v>
+        <v>44272</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44476</v>
+        <v>44272</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44313</v>
+        <v>44476</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44313</v>
+        <v>44476</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44274</v>
+        <v>44313</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44274</v>
+        <v>44313</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44334</v>
+        <v>44274</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44334</v>
+        <v>44274</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44453</v>
+        <v>44334</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44453</v>
+        <v>44334</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44383</v>
+        <v>44453</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44383</v>
+        <v>44453</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44882</v>
+        <v>44383</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9000,13 +9000,13 @@
         <v>200</v>
       </c>
       <c r="K120" t="n">
+        <v>600</v>
+      </c>
+      <c r="L120" t="n">
         <v>700</v>
       </c>
-      <c r="L120" t="n">
-        <v>800</v>
-      </c>
       <c r="M120" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44882</v>
+        <v>44383</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9072,13 +9072,13 @@
         <v>100</v>
       </c>
       <c r="K121" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L121" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M121" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44694</v>
+        <v>44882</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9144,13 +9144,13 @@
         <v>200</v>
       </c>
       <c r="K122" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L122" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M122" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44694</v>
+        <v>44882</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9216,13 +9216,13 @@
         <v>100</v>
       </c>
       <c r="K123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44285</v>
+        <v>44694</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44349</v>
+        <v>44285</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44349</v>
+        <v>44285</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44365</v>
+        <v>44349</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44365</v>
+        <v>44349</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44320</v>
+        <v>44365</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44320</v>
+        <v>44365</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44239</v>
+        <v>44320</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44239</v>
+        <v>44320</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44237</v>
+        <v>44239</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44237</v>
+        <v>44239</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44839</v>
+        <v>44237</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10152,13 +10152,13 @@
         <v>200</v>
       </c>
       <c r="K136" t="n">
+        <v>600</v>
+      </c>
+      <c r="L136" t="n">
         <v>700</v>
       </c>
-      <c r="L136" t="n">
-        <v>800</v>
-      </c>
       <c r="M136" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44839</v>
+        <v>44237</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10224,13 +10224,13 @@
         <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44327</v>
+        <v>44839</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10296,13 +10296,13 @@
         <v>200</v>
       </c>
       <c r="K138" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L138" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M138" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44327</v>
+        <v>44839</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10368,13 +10368,13 @@
         <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L139" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M139" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44771</v>
+        <v>44327</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10440,13 +10440,13 @@
         <v>200</v>
       </c>
       <c r="K140" t="n">
+        <v>600</v>
+      </c>
+      <c r="L140" t="n">
         <v>700</v>
       </c>
-      <c r="L140" t="n">
-        <v>800</v>
-      </c>
       <c r="M140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44771</v>
+        <v>44327</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10512,13 +10512,13 @@
         <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44203</v>
+        <v>44771</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10584,13 +10584,13 @@
         <v>200</v>
       </c>
       <c r="K142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L142" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44203</v>
+        <v>44771</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10656,13 +10656,13 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44523</v>
+        <v>44203</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44523</v>
+        <v>44203</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44280</v>
+        <v>44523</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44280</v>
+        <v>44523</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44565</v>
+        <v>44280</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44565</v>
+        <v>44280</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11103,7 +11103,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P149" t="n">
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44168</v>
+        <v>44565</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44168</v>
+        <v>44565</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44475</v>
+        <v>44168</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44475</v>
+        <v>44168</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44665</v>
+        <v>44475</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44665</v>
+        <v>44475</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44425</v>
+        <v>44665</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44425</v>
+        <v>44665</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44490</v>
+        <v>44425</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44490</v>
+        <v>44425</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44609</v>
+        <v>44490</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44609</v>
+        <v>44490</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44512</v>
+        <v>44609</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44512</v>
+        <v>44609</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44405</v>
+        <v>44512</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44405</v>
+        <v>44512</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44663</v>
+        <v>44405</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44663</v>
+        <v>44405</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44362</v>
+        <v>44663</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44362</v>
+        <v>44663</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44433</v>
+        <v>44362</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44433</v>
+        <v>44362</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44316</v>
+        <v>44433</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44607</v>
+        <v>44316</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44607</v>
+        <v>44316</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44460</v>
+        <v>44607</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44460</v>
+        <v>44607</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44336</v>
+        <v>44460</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44336</v>
+        <v>44460</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44756</v>
+        <v>44336</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13320,13 +13320,13 @@
         <v>200</v>
       </c>
       <c r="K180" t="n">
+        <v>600</v>
+      </c>
+      <c r="L180" t="n">
         <v>700</v>
       </c>
-      <c r="L180" t="n">
-        <v>800</v>
-      </c>
       <c r="M180" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44756</v>
+        <v>44336</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13392,13 +13392,13 @@
         <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L181" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M181" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44754</v>
+        <v>44756</v>
       </c>
       <c r="E182" t="n">
         <v>8</v>
@@ -13464,13 +13464,13 @@
         <v>200</v>
       </c>
       <c r="K182" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L182" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M182" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44754</v>
+        <v>44756</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>
@@ -13536,13 +13536,13 @@
         <v>100</v>
       </c>
       <c r="K183" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L183" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M183" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,12 +13555,156 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
       </c>
       <c r="R183" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>11</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E184" t="n">
+        <v>8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>200</v>
+      </c>
+      <c r="K184" t="n">
+        <v>600</v>
+      </c>
+      <c r="L184" t="n">
+        <v>700</v>
+      </c>
+      <c r="M184" t="n">
+        <v>650</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>1</v>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>11</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E185" t="n">
+        <v>8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>100</v>
+      </c>
+      <c r="K185" t="n">
+        <v>500</v>
+      </c>
+      <c r="L185" t="n">
+        <v>500</v>
+      </c>
+      <c r="M185" t="n">
+        <v>500</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>1</v>
+      </c>
+      <c r="R185" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44699</v>
+        <v>44391</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44699</v>
+        <v>44391</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44841</v>
+        <v>44349</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,13 +648,13 @@
         <v>200</v>
       </c>
       <c r="K4" t="n">
+        <v>600</v>
+      </c>
+      <c r="L4" t="n">
         <v>700</v>
       </c>
-      <c r="L4" t="n">
-        <v>800</v>
-      </c>
       <c r="M4" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44841</v>
+        <v>44349</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44391</v>
+        <v>44525</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44391</v>
+        <v>44525</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44488</v>
+        <v>44239</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44488</v>
+        <v>44239</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44769</v>
+        <v>44341</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,13 +1080,13 @@
         <v>200</v>
       </c>
       <c r="K10" t="n">
+        <v>600</v>
+      </c>
+      <c r="L10" t="n">
         <v>700</v>
       </c>
-      <c r="L10" t="n">
-        <v>800</v>
-      </c>
       <c r="M10" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44769</v>
+        <v>44341</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1152,13 +1152,13 @@
         <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44231</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44194</v>
+        <v>44250</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44194</v>
+        <v>44250</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44160</v>
+        <v>44825</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L16" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44160</v>
+        <v>44825</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44308</v>
+        <v>44582</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44308</v>
+        <v>44582</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44306</v>
+        <v>44231</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44306</v>
+        <v>44231</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44447</v>
+        <v>44320</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44447</v>
+        <v>44320</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44525</v>
+        <v>44841</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M24" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44525</v>
+        <v>44841</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44224</v>
+        <v>44798</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L26" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M26" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44224</v>
+        <v>44798</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44217</v>
+        <v>44330</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44250</v>
+        <v>44523</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44250</v>
+        <v>44523</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44222</v>
+        <v>44719</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44222</v>
+        <v>44719</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44579</v>
+        <v>44398</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44579</v>
+        <v>44398</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44880</v>
+        <v>44616</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2952,13 +2952,13 @@
         <v>200</v>
       </c>
       <c r="K36" t="n">
+        <v>600</v>
+      </c>
+      <c r="L36" t="n">
         <v>700</v>
       </c>
-      <c r="L36" t="n">
-        <v>800</v>
-      </c>
       <c r="M36" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44880</v>
+        <v>44616</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3024,13 +3024,13 @@
         <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L37" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M37" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44166</v>
+        <v>44699</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44166</v>
+        <v>44699</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44679</v>
+        <v>44224</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44679</v>
+        <v>44224</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44398</v>
+        <v>44607</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44398</v>
+        <v>44607</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44783</v>
+        <v>44272</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3528,13 +3528,13 @@
         <v>200</v>
       </c>
       <c r="K44" t="n">
+        <v>600</v>
+      </c>
+      <c r="L44" t="n">
         <v>700</v>
       </c>
-      <c r="L44" t="n">
-        <v>800</v>
-      </c>
       <c r="M44" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44783</v>
+        <v>44272</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3600,13 +3600,13 @@
         <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L45" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M45" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44355</v>
+        <v>44306</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44355</v>
+        <v>44306</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44719</v>
+        <v>44365</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44719</v>
+        <v>44365</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44574</v>
+        <v>44383</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44574</v>
+        <v>44383</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44341</v>
+        <v>44168</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44341</v>
+        <v>44168</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44292</v>
+        <v>44433</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44292</v>
+        <v>44433</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44187</v>
+        <v>44285</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44187</v>
+        <v>44285</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44692</v>
+        <v>44222</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44692</v>
+        <v>44222</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44812</v>
+        <v>44574</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4680,13 +4680,13 @@
         <v>200</v>
       </c>
       <c r="K60" t="n">
+        <v>600</v>
+      </c>
+      <c r="L60" t="n">
         <v>700</v>
       </c>
-      <c r="L60" t="n">
-        <v>800</v>
-      </c>
       <c r="M60" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44812</v>
+        <v>44574</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4752,13 +4752,13 @@
         <v>100</v>
       </c>
       <c r="K61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44708</v>
+        <v>44435</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44708</v>
+        <v>44435</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44553</v>
+        <v>44358</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44553</v>
+        <v>44358</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44705</v>
+        <v>44313</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44705</v>
+        <v>44313</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44435</v>
+        <v>44855</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5256,13 +5256,13 @@
         <v>200</v>
       </c>
       <c r="K68" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M68" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44435</v>
+        <v>44855</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5328,13 +5328,13 @@
         <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44252</v>
+        <v>44203</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44252</v>
+        <v>44203</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44798</v>
+        <v>44827</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44798</v>
+        <v>44827</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44469</v>
+        <v>44694</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44469</v>
+        <v>44694</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44825</v>
+        <v>44316</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5832,13 +5832,13 @@
         <v>200</v>
       </c>
       <c r="K76" t="n">
+        <v>600</v>
+      </c>
+      <c r="L76" t="n">
         <v>700</v>
       </c>
-      <c r="L76" t="n">
-        <v>800</v>
-      </c>
       <c r="M76" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44825</v>
+        <v>44316</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5904,13 +5904,13 @@
         <v>100</v>
       </c>
       <c r="K77" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L77" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M77" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44358</v>
+        <v>44405</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44358</v>
+        <v>44405</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44897</v>
+        <v>44160</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6120,13 +6120,13 @@
         <v>200</v>
       </c>
       <c r="K80" t="n">
+        <v>600</v>
+      </c>
+      <c r="L80" t="n">
         <v>700</v>
       </c>
-      <c r="L80" t="n">
-        <v>800</v>
-      </c>
       <c r="M80" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44897</v>
+        <v>44160</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6192,13 +6192,13 @@
         <v>100</v>
       </c>
       <c r="K81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44442</v>
+        <v>44771</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K82" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L82" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M82" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44442</v>
+        <v>44771</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44616</v>
+        <v>44692</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44616</v>
+        <v>44692</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44330</v>
+        <v>44334</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44895</v>
+        <v>44274</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6696,13 +6696,13 @@
         <v>200</v>
       </c>
       <c r="K88" t="n">
+        <v>600</v>
+      </c>
+      <c r="L88" t="n">
         <v>700</v>
       </c>
-      <c r="L88" t="n">
-        <v>800</v>
-      </c>
       <c r="M88" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44895</v>
+        <v>44274</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6768,13 +6768,13 @@
         <v>100</v>
       </c>
       <c r="K89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44855</v>
+        <v>44280</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6840,13 +6840,13 @@
         <v>200</v>
       </c>
       <c r="K90" t="n">
+        <v>600</v>
+      </c>
+      <c r="L90" t="n">
         <v>700</v>
       </c>
-      <c r="L90" t="n">
-        <v>800</v>
-      </c>
       <c r="M90" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44855</v>
+        <v>44280</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6912,13 +6912,13 @@
         <v>100</v>
       </c>
       <c r="K91" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L91" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M91" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44582</v>
+        <v>44187</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44582</v>
+        <v>44187</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44344</v>
+        <v>44166</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44344</v>
+        <v>44166</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44278</v>
+        <v>44308</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K96" t="n">
         <v>600</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44278</v>
+        <v>44308</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44400</v>
+        <v>44355</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44400</v>
+        <v>44355</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44827</v>
+        <v>44708</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7560,13 +7560,13 @@
         <v>200</v>
       </c>
       <c r="K100" t="n">
+        <v>600</v>
+      </c>
+      <c r="L100" t="n">
         <v>700</v>
       </c>
-      <c r="L100" t="n">
-        <v>800</v>
-      </c>
       <c r="M100" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7575,11 +7575,11 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44827</v>
+        <v>44708</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7632,13 +7632,13 @@
         <v>100</v>
       </c>
       <c r="K101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44299</v>
+        <v>44488</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44299</v>
+        <v>44488</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44350</v>
+        <v>44278</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K104" t="n">
         <v>600</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44350</v>
+        <v>44278</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K105" t="n">
         <v>500</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44386</v>
+        <v>44327</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44386</v>
+        <v>44327</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44272</v>
+        <v>44880</v>
       </c>
       <c r="E108" t="n">
         <v>8</v>
@@ -8136,13 +8136,13 @@
         <v>200</v>
       </c>
       <c r="K108" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L108" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M108" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44272</v>
+        <v>44880</v>
       </c>
       <c r="E109" t="n">
         <v>8</v>
@@ -8208,13 +8208,13 @@
         <v>100</v>
       </c>
       <c r="K109" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L109" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M109" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44476</v>
+        <v>44252</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44476</v>
+        <v>44252</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44313</v>
+        <v>44362</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44313</v>
+        <v>44362</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44274</v>
+        <v>44475</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44274</v>
+        <v>44475</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44334</v>
+        <v>44512</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44334</v>
+        <v>44512</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44453</v>
+        <v>44812</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8856,13 +8856,13 @@
         <v>200</v>
       </c>
       <c r="K118" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L118" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M118" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44453</v>
+        <v>44812</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8928,13 +8928,13 @@
         <v>100</v>
       </c>
       <c r="K119" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L119" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M119" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44383</v>
+        <v>44897</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9000,13 +9000,13 @@
         <v>200</v>
       </c>
       <c r="K120" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L120" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M120" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44383</v>
+        <v>44897</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9072,13 +9072,13 @@
         <v>100</v>
       </c>
       <c r="K121" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L121" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M121" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44882</v>
+        <v>44754</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9144,13 +9144,13 @@
         <v>200</v>
       </c>
       <c r="K122" t="n">
+        <v>600</v>
+      </c>
+      <c r="L122" t="n">
         <v>700</v>
       </c>
-      <c r="L122" t="n">
-        <v>800</v>
-      </c>
       <c r="M122" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44882</v>
+        <v>44754</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9216,13 +9216,13 @@
         <v>100</v>
       </c>
       <c r="K123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44694</v>
+        <v>44469</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44694</v>
+        <v>44469</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44285</v>
+        <v>44609</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44285</v>
+        <v>44609</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44349</v>
+        <v>44579</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44349</v>
+        <v>44579</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44365</v>
+        <v>44476</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44365</v>
+        <v>44476</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44239</v>
+        <v>44769</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10008,13 +10008,13 @@
         <v>200</v>
       </c>
       <c r="K134" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L134" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M134" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44239</v>
+        <v>44769</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10080,13 +10080,13 @@
         <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L135" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M135" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44237</v>
+        <v>44705</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44237</v>
+        <v>44705</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44839</v>
+        <v>44783</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44839</v>
+        <v>44783</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44327</v>
+        <v>44442</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K140" t="n">
         <v>600</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44327</v>
+        <v>44442</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K141" t="n">
         <v>500</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44771</v>
+        <v>44460</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10584,13 +10584,13 @@
         <v>200</v>
       </c>
       <c r="K142" t="n">
+        <v>600</v>
+      </c>
+      <c r="L142" t="n">
         <v>700</v>
       </c>
-      <c r="L142" t="n">
-        <v>800</v>
-      </c>
       <c r="M142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44771</v>
+        <v>44460</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10656,13 +10656,13 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44203</v>
+        <v>44194</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44203</v>
+        <v>44194</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44523</v>
+        <v>44344</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44523</v>
+        <v>44344</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44280</v>
+        <v>44882</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11016,13 +11016,13 @@
         <v>200</v>
       </c>
       <c r="K148" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L148" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M148" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44280</v>
+        <v>44882</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11088,13 +11088,13 @@
         <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L149" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M149" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44565</v>
+        <v>44663</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11175,7 +11175,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44565</v>
+        <v>44663</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P151" t="n">
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44168</v>
+        <v>44490</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44168</v>
+        <v>44490</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44475</v>
+        <v>44237</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44475</v>
+        <v>44237</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44665</v>
+        <v>44895</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11592,13 +11592,13 @@
         <v>200</v>
       </c>
       <c r="K156" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L156" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M156" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44665</v>
+        <v>44895</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11664,13 +11664,13 @@
         <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44425</v>
+        <v>44386</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44425</v>
+        <v>44386</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44490</v>
+        <v>44425</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44490</v>
+        <v>44425</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44609</v>
+        <v>44292</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44609</v>
+        <v>44292</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44512</v>
+        <v>44400</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44512</v>
+        <v>44400</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44405</v>
+        <v>44839</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12312,13 +12312,13 @@
         <v>200</v>
       </c>
       <c r="K166" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L166" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M166" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44405</v>
+        <v>44839</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12384,13 +12384,13 @@
         <v>100</v>
       </c>
       <c r="K167" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L167" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M167" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44663</v>
+        <v>44299</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44663</v>
+        <v>44299</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44362</v>
+        <v>44756</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12600,13 +12600,13 @@
         <v>200</v>
       </c>
       <c r="K170" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L170" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M170" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44362</v>
+        <v>44756</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12672,13 +12672,13 @@
         <v>100</v>
       </c>
       <c r="K171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44433</v>
+        <v>44453</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44433</v>
+        <v>44453</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44316</v>
+        <v>44665</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44316</v>
+        <v>44665</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44607</v>
+        <v>44217</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44607</v>
+        <v>44217</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44460</v>
+        <v>44679</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44460</v>
+        <v>44679</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44336</v>
+        <v>44350</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44336</v>
+        <v>44350</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44756</v>
+        <v>44447</v>
       </c>
       <c r="E182" t="n">
         <v>8</v>
@@ -13464,13 +13464,13 @@
         <v>200</v>
       </c>
       <c r="K182" t="n">
+        <v>600</v>
+      </c>
+      <c r="L182" t="n">
         <v>700</v>
       </c>
-      <c r="L182" t="n">
-        <v>800</v>
-      </c>
       <c r="M182" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44756</v>
+        <v>44447</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>
@@ -13536,13 +13536,13 @@
         <v>100</v>
       </c>
       <c r="K183" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L183" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M183" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44754</v>
+        <v>44565</v>
       </c>
       <c r="E184" t="n">
         <v>8</v>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44754</v>
+        <v>44565</v>
       </c>
       <c r="E185" t="n">
         <v>8</v>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R185"/>
+  <dimension ref="A1:R187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13710,6 +13710,150 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>11</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E186" t="n">
+        <v>8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>200</v>
+      </c>
+      <c r="K186" t="n">
+        <v>700</v>
+      </c>
+      <c r="L186" t="n">
+        <v>800</v>
+      </c>
+      <c r="M186" t="n">
+        <v>750</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>1</v>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>11</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E187" t="n">
+        <v>8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>100</v>
+      </c>
+      <c r="K187" t="n">
+        <v>600</v>
+      </c>
+      <c r="L187" t="n">
+        <v>600</v>
+      </c>
+      <c r="M187" t="n">
+        <v>600</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>1</v>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R187"/>
+  <dimension ref="A1:R189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44336</v>
+        <v>44917</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9864,13 +9864,13 @@
         <v>200</v>
       </c>
       <c r="K132" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L132" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M132" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44336</v>
+        <v>44917</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9936,13 +9936,13 @@
         <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44769</v>
+        <v>44336</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10008,13 +10008,13 @@
         <v>200</v>
       </c>
       <c r="K134" t="n">
+        <v>600</v>
+      </c>
+      <c r="L134" t="n">
         <v>700</v>
       </c>
-      <c r="L134" t="n">
-        <v>800</v>
-      </c>
       <c r="M134" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44769</v>
+        <v>44336</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10080,13 +10080,13 @@
         <v>100</v>
       </c>
       <c r="K135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44705</v>
+        <v>44769</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10152,13 +10152,13 @@
         <v>200</v>
       </c>
       <c r="K136" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L136" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M136" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44705</v>
+        <v>44769</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10224,13 +10224,13 @@
         <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44783</v>
+        <v>44705</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10296,13 +10296,13 @@
         <v>200</v>
       </c>
       <c r="K138" t="n">
+        <v>600</v>
+      </c>
+      <c r="L138" t="n">
         <v>700</v>
       </c>
-      <c r="L138" t="n">
-        <v>800</v>
-      </c>
       <c r="M138" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44783</v>
+        <v>44705</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10368,13 +10368,13 @@
         <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44442</v>
+        <v>44783</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K140" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L140" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44442</v>
+        <v>44783</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K142" t="n">
         <v>600</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K143" t="n">
         <v>500</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44344</v>
+        <v>44194</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10882,7 +10882,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44344</v>
+        <v>44194</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44882</v>
+        <v>44344</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11016,17 +11016,17 @@
         <v>200</v>
       </c>
       <c r="K148" t="n">
+        <v>600</v>
+      </c>
+      <c r="L148" t="n">
         <v>700</v>
       </c>
-      <c r="L148" t="n">
-        <v>800</v>
-      </c>
       <c r="M148" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44882</v>
+        <v>44344</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11088,17 +11088,17 @@
         <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44663</v>
+        <v>44882</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11160,13 +11160,13 @@
         <v>200</v>
       </c>
       <c r="K150" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L150" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M150" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44663</v>
+        <v>44882</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11232,13 +11232,13 @@
         <v>100</v>
       </c>
       <c r="K151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44490</v>
+        <v>44663</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44490</v>
+        <v>44663</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44895</v>
+        <v>44237</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11592,13 +11592,13 @@
         <v>200</v>
       </c>
       <c r="K156" t="n">
+        <v>600</v>
+      </c>
+      <c r="L156" t="n">
         <v>700</v>
       </c>
-      <c r="L156" t="n">
-        <v>800</v>
-      </c>
       <c r="M156" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44895</v>
+        <v>44237</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11664,13 +11664,13 @@
         <v>100</v>
       </c>
       <c r="K157" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L157" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M157" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44386</v>
+        <v>44895</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11736,13 +11736,13 @@
         <v>200</v>
       </c>
       <c r="K158" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L158" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M158" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44386</v>
+        <v>44895</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11808,13 +11808,13 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44425</v>
+        <v>44386</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44425</v>
+        <v>44386</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44292</v>
+        <v>44425</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44292</v>
+        <v>44425</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44400</v>
+        <v>44292</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44400</v>
+        <v>44292</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44839</v>
+        <v>44400</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12312,13 +12312,13 @@
         <v>200</v>
       </c>
       <c r="K166" t="n">
+        <v>600</v>
+      </c>
+      <c r="L166" t="n">
         <v>700</v>
       </c>
-      <c r="L166" t="n">
-        <v>800</v>
-      </c>
       <c r="M166" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44839</v>
+        <v>44400</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12384,13 +12384,13 @@
         <v>100</v>
       </c>
       <c r="K167" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L167" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M167" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44299</v>
+        <v>44839</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12456,13 +12456,13 @@
         <v>200</v>
       </c>
       <c r="K168" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L168" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M168" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44299</v>
+        <v>44839</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12528,13 +12528,13 @@
         <v>100</v>
       </c>
       <c r="K169" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L169" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M169" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44756</v>
+        <v>44299</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12600,13 +12600,13 @@
         <v>200</v>
       </c>
       <c r="K170" t="n">
+        <v>600</v>
+      </c>
+      <c r="L170" t="n">
         <v>700</v>
       </c>
-      <c r="L170" t="n">
-        <v>800</v>
-      </c>
       <c r="M170" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44756</v>
+        <v>44299</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12672,13 +12672,13 @@
         <v>100</v>
       </c>
       <c r="K171" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L171" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M171" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44453</v>
+        <v>44756</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12744,13 +12744,13 @@
         <v>200</v>
       </c>
       <c r="K172" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L172" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M172" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44453</v>
+        <v>44756</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12816,13 +12816,13 @@
         <v>100</v>
       </c>
       <c r="K173" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L173" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M173" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44665</v>
+        <v>44453</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44665</v>
+        <v>44453</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44217</v>
+        <v>44665</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44217</v>
+        <v>44665</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44679</v>
+        <v>44217</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44679</v>
+        <v>44217</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44350</v>
+        <v>44679</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44350</v>
+        <v>44679</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44447</v>
+        <v>44350</v>
       </c>
       <c r="E182" t="n">
         <v>8</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44447</v>
+        <v>44350</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44565</v>
+        <v>44447</v>
       </c>
       <c r="E184" t="n">
         <v>8</v>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P184" t="n">
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44565</v>
+        <v>44447</v>
       </c>
       <c r="E185" t="n">
         <v>8</v>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P185" t="n">
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E186" t="n">
         <v>8</v>
@@ -13752,13 +13752,13 @@
         <v>200</v>
       </c>
       <c r="K186" t="n">
+        <v>600</v>
+      </c>
+      <c r="L186" t="n">
         <v>700</v>
       </c>
-      <c r="L186" t="n">
-        <v>800</v>
-      </c>
       <c r="M186" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E187" t="n">
         <v>8</v>
@@ -13824,13 +13824,13 @@
         <v>100</v>
       </c>
       <c r="K187" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L187" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M187" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,16 +13839,160 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
       </c>
       <c r="R187" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>11</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E188" t="n">
+        <v>8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>200</v>
+      </c>
+      <c r="K188" t="n">
+        <v>700</v>
+      </c>
+      <c r="L188" t="n">
+        <v>800</v>
+      </c>
+      <c r="M188" t="n">
+        <v>750</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>1</v>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>11</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E189" t="n">
+        <v>8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>100</v>
+      </c>
+      <c r="K189" t="n">
+        <v>600</v>
+      </c>
+      <c r="L189" t="n">
+        <v>600</v>
+      </c>
+      <c r="M189" t="n">
+        <v>600</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>1</v>
+      </c>
+      <c r="R189" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R189"/>
+  <dimension ref="A1:R191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44442</v>
+        <v>44924</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K142" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L142" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44442</v>
+        <v>44924</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44460</v>
+        <v>44442</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44194</v>
+        <v>44460</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44344</v>
+        <v>44194</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44344</v>
+        <v>44194</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44882</v>
+        <v>44344</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11160,17 +11160,17 @@
         <v>200</v>
       </c>
       <c r="K150" t="n">
+        <v>600</v>
+      </c>
+      <c r="L150" t="n">
         <v>700</v>
       </c>
-      <c r="L150" t="n">
-        <v>800</v>
-      </c>
       <c r="M150" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44882</v>
+        <v>44344</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11232,17 +11232,17 @@
         <v>100</v>
       </c>
       <c r="K151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44663</v>
+        <v>44882</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11304,13 +11304,13 @@
         <v>200</v>
       </c>
       <c r="K152" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L152" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M152" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44663</v>
+        <v>44882</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11376,13 +11376,13 @@
         <v>100</v>
       </c>
       <c r="K153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44490</v>
+        <v>44663</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44490</v>
+        <v>44663</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44895</v>
+        <v>44237</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11736,13 +11736,13 @@
         <v>200</v>
       </c>
       <c r="K158" t="n">
+        <v>600</v>
+      </c>
+      <c r="L158" t="n">
         <v>700</v>
       </c>
-      <c r="L158" t="n">
-        <v>800</v>
-      </c>
       <c r="M158" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44895</v>
+        <v>44237</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11808,13 +11808,13 @@
         <v>100</v>
       </c>
       <c r="K159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44386</v>
+        <v>44895</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11880,13 +11880,13 @@
         <v>200</v>
       </c>
       <c r="K160" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L160" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M160" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44386</v>
+        <v>44895</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11952,13 +11952,13 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44425</v>
+        <v>44386</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44425</v>
+        <v>44386</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44292</v>
+        <v>44425</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44292</v>
+        <v>44425</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44400</v>
+        <v>44292</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44400</v>
+        <v>44292</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44839</v>
+        <v>44400</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12456,13 +12456,13 @@
         <v>200</v>
       </c>
       <c r="K168" t="n">
+        <v>600</v>
+      </c>
+      <c r="L168" t="n">
         <v>700</v>
       </c>
-      <c r="L168" t="n">
-        <v>800</v>
-      </c>
       <c r="M168" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44839</v>
+        <v>44400</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12528,13 +12528,13 @@
         <v>100</v>
       </c>
       <c r="K169" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L169" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M169" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44299</v>
+        <v>44839</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12600,13 +12600,13 @@
         <v>200</v>
       </c>
       <c r="K170" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L170" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M170" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44299</v>
+        <v>44839</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12672,13 +12672,13 @@
         <v>100</v>
       </c>
       <c r="K171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44756</v>
+        <v>44299</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12744,13 +12744,13 @@
         <v>200</v>
       </c>
       <c r="K172" t="n">
+        <v>600</v>
+      </c>
+      <c r="L172" t="n">
         <v>700</v>
       </c>
-      <c r="L172" t="n">
-        <v>800</v>
-      </c>
       <c r="M172" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44756</v>
+        <v>44299</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12816,13 +12816,13 @@
         <v>100</v>
       </c>
       <c r="K173" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L173" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M173" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44453</v>
+        <v>44756</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12888,13 +12888,13 @@
         <v>200</v>
       </c>
       <c r="K174" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L174" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M174" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44453</v>
+        <v>44756</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -12960,13 +12960,13 @@
         <v>100</v>
       </c>
       <c r="K175" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L175" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M175" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44665</v>
+        <v>44453</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44665</v>
+        <v>44453</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44217</v>
+        <v>44665</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44217</v>
+        <v>44665</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44679</v>
+        <v>44217</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44679</v>
+        <v>44217</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44350</v>
+        <v>44679</v>
       </c>
       <c r="E182" t="n">
         <v>8</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44350</v>
+        <v>44679</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44447</v>
+        <v>44350</v>
       </c>
       <c r="E184" t="n">
         <v>8</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44447</v>
+        <v>44350</v>
       </c>
       <c r="E185" t="n">
         <v>8</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44565</v>
+        <v>44447</v>
       </c>
       <c r="E186" t="n">
         <v>8</v>
@@ -13767,7 +13767,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44565</v>
+        <v>44447</v>
       </c>
       <c r="E187" t="n">
         <v>8</v>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E188" t="n">
         <v>8</v>
@@ -13896,13 +13896,13 @@
         <v>200</v>
       </c>
       <c r="K188" t="n">
+        <v>600</v>
+      </c>
+      <c r="L188" t="n">
         <v>700</v>
       </c>
-      <c r="L188" t="n">
-        <v>800</v>
-      </c>
       <c r="M188" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44911</v>
+        <v>44565</v>
       </c>
       <c r="E189" t="n">
         <v>8</v>
@@ -13968,13 +13968,13 @@
         <v>100</v>
       </c>
       <c r="K189" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M189" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,16 +13983,160 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
       </c>
       <c r="R189" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>11</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E190" t="n">
+        <v>8</v>
+      </c>
+      <c r="F190" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>200</v>
+      </c>
+      <c r="K190" t="n">
+        <v>700</v>
+      </c>
+      <c r="L190" t="n">
+        <v>800</v>
+      </c>
+      <c r="M190" t="n">
+        <v>750</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>1</v>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>11</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="E191" t="n">
+        <v>8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>100</v>
+      </c>
+      <c r="K191" t="n">
+        <v>600</v>
+      </c>
+      <c r="L191" t="n">
+        <v>600</v>
+      </c>
+      <c r="M191" t="n">
+        <v>600</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>1</v>
+      </c>
+      <c r="R191" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R191"/>
+  <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44391</v>
+        <v>44250</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44391</v>
+        <v>44250</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44349</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44349</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44525</v>
+        <v>44327</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44525</v>
+        <v>44327</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44239</v>
+        <v>44365</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44239</v>
+        <v>44365</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44341</v>
+        <v>44160</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44341</v>
+        <v>44160</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44553</v>
+        <v>44607</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44553</v>
+        <v>44607</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44250</v>
+        <v>44308</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44250</v>
+        <v>44308</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44825</v>
+        <v>44285</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>200</v>
       </c>
       <c r="K16" t="n">
+        <v>600</v>
+      </c>
+      <c r="L16" t="n">
         <v>700</v>
       </c>
-      <c r="L16" t="n">
-        <v>800</v>
-      </c>
       <c r="M16" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44825</v>
+        <v>44285</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44582</v>
+        <v>44187</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44582</v>
+        <v>44187</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44231</v>
+        <v>44841</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1800,13 +1800,13 @@
         <v>200</v>
       </c>
       <c r="K20" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L20" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M20" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44231</v>
+        <v>44841</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L21" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M21" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44320</v>
+        <v>44278</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
         <v>600</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44320</v>
+        <v>44278</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K23" t="n">
         <v>500</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44841</v>
+        <v>44582</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>200</v>
       </c>
       <c r="K24" t="n">
+        <v>600</v>
+      </c>
+      <c r="L24" t="n">
         <v>700</v>
       </c>
-      <c r="L24" t="n">
-        <v>800</v>
-      </c>
       <c r="M24" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44841</v>
+        <v>44582</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44798</v>
+        <v>44453</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>200</v>
       </c>
       <c r="K26" t="n">
+        <v>600</v>
+      </c>
+      <c r="L26" t="n">
         <v>700</v>
       </c>
-      <c r="L26" t="n">
-        <v>800</v>
-      </c>
       <c r="M26" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44798</v>
+        <v>44453</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44330</v>
+        <v>44512</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44330</v>
+        <v>44512</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44523</v>
+        <v>44663</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44523</v>
+        <v>44663</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44398</v>
+        <v>44447</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44398</v>
+        <v>44447</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44616</v>
+        <v>44679</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44616</v>
+        <v>44679</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44699</v>
+        <v>44386</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44699</v>
+        <v>44386</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44224</v>
+        <v>44272</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44224</v>
+        <v>44272</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44607</v>
+        <v>44855</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3384,13 +3384,13 @@
         <v>200</v>
       </c>
       <c r="K42" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L42" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M42" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44607</v>
+        <v>44855</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3456,13 +3456,13 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44272</v>
+        <v>44217</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44272</v>
+        <v>44217</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44306</v>
+        <v>44882</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>200</v>
       </c>
       <c r="K46" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L46" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M46" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44306</v>
+        <v>44882</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3744,13 +3744,13 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44365</v>
+        <v>44897</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3816,13 +3816,13 @@
         <v>200</v>
       </c>
       <c r="K48" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L48" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M48" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44365</v>
+        <v>44897</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44383</v>
+        <v>44398</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44383</v>
+        <v>44398</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44168</v>
+        <v>44391</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44168</v>
+        <v>44391</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44433</v>
+        <v>44754</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44433</v>
+        <v>44754</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44285</v>
+        <v>44771</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4392,13 +4392,13 @@
         <v>200</v>
       </c>
       <c r="K56" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L56" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M56" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44285</v>
+        <v>44771</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4464,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44222</v>
+        <v>44433</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44222</v>
+        <v>44433</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44574</v>
+        <v>44692</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44574</v>
+        <v>44692</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44435</v>
+        <v>44825</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4824,13 +4824,13 @@
         <v>200</v>
       </c>
       <c r="K62" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L62" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M62" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44435</v>
+        <v>44825</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4896,13 +4896,13 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44358</v>
+        <v>44280</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44358</v>
+        <v>44280</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44313</v>
+        <v>44299</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44313</v>
+        <v>44299</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44855</v>
+        <v>44708</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5256,13 +5256,13 @@
         <v>200</v>
       </c>
       <c r="K68" t="n">
+        <v>600</v>
+      </c>
+      <c r="L68" t="n">
         <v>700</v>
       </c>
-      <c r="L68" t="n">
-        <v>800</v>
-      </c>
       <c r="M68" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44855</v>
+        <v>44708</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5328,13 +5328,13 @@
         <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44203</v>
+        <v>44936</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5400,13 +5400,13 @@
         <v>200</v>
       </c>
       <c r="K70" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L70" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M70" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44203</v>
+        <v>44936</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5472,13 +5472,13 @@
         <v>100</v>
       </c>
       <c r="K71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44827</v>
+        <v>44719</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5544,13 +5544,13 @@
         <v>200</v>
       </c>
       <c r="K72" t="n">
+        <v>600</v>
+      </c>
+      <c r="L72" t="n">
         <v>700</v>
       </c>
-      <c r="L72" t="n">
-        <v>800</v>
-      </c>
       <c r="M72" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44827</v>
+        <v>44719</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5616,13 +5616,13 @@
         <v>100</v>
       </c>
       <c r="K73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44694</v>
+        <v>44350</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44694</v>
+        <v>44350</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44316</v>
+        <v>44565</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44316</v>
+        <v>44565</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44405</v>
+        <v>44194</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44405</v>
+        <v>44194</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44160</v>
+        <v>44231</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44160</v>
+        <v>44231</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44771</v>
+        <v>44355</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6264,13 +6264,13 @@
         <v>200</v>
       </c>
       <c r="K82" t="n">
+        <v>600</v>
+      </c>
+      <c r="L82" t="n">
         <v>700</v>
       </c>
-      <c r="L82" t="n">
-        <v>800</v>
-      </c>
       <c r="M82" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44771</v>
+        <v>44355</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6336,13 +6336,13 @@
         <v>100</v>
       </c>
       <c r="K83" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L83" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M83" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44692</v>
+        <v>44699</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44692</v>
+        <v>44699</v>
       </c>
       <c r="E85" t="n">
         <v>8</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44334</v>
+        <v>44616</v>
       </c>
       <c r="E86" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44334</v>
+        <v>44616</v>
       </c>
       <c r="E87" t="n">
         <v>8</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44274</v>
+        <v>44224</v>
       </c>
       <c r="E88" t="n">
         <v>8</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44274</v>
+        <v>44224</v>
       </c>
       <c r="E89" t="n">
         <v>8</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44280</v>
+        <v>44362</v>
       </c>
       <c r="E90" t="n">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44280</v>
+        <v>44362</v>
       </c>
       <c r="E91" t="n">
         <v>8</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E92" t="n">
         <v>8</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44187</v>
+        <v>44400</v>
       </c>
       <c r="E93" t="n">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44166</v>
+        <v>44911</v>
       </c>
       <c r="E94" t="n">
         <v>8</v>
@@ -7128,13 +7128,13 @@
         <v>200</v>
       </c>
       <c r="K94" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L94" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M94" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44166</v>
+        <v>44911</v>
       </c>
       <c r="E95" t="n">
         <v>8</v>
@@ -7200,13 +7200,13 @@
         <v>100</v>
       </c>
       <c r="K95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44308</v>
+        <v>44442</v>
       </c>
       <c r="E96" t="n">
         <v>8</v>
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K96" t="n">
         <v>600</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44308</v>
+        <v>44442</v>
       </c>
       <c r="E97" t="n">
         <v>8</v>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K97" t="n">
         <v>500</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44355</v>
+        <v>44705</v>
       </c>
       <c r="E98" t="n">
         <v>8</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44355</v>
+        <v>44705</v>
       </c>
       <c r="E99" t="n">
         <v>8</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44708</v>
+        <v>44924</v>
       </c>
       <c r="E100" t="n">
         <v>8</v>
@@ -7560,13 +7560,13 @@
         <v>200</v>
       </c>
       <c r="K100" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L100" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M100" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44708</v>
+        <v>44924</v>
       </c>
       <c r="E101" t="n">
         <v>8</v>
@@ -7632,13 +7632,13 @@
         <v>100</v>
       </c>
       <c r="K101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44488</v>
+        <v>44336</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44488</v>
+        <v>44336</v>
       </c>
       <c r="E103" t="n">
         <v>8</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44278</v>
+        <v>44203</v>
       </c>
       <c r="E104" t="n">
         <v>8</v>
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K104" t="n">
         <v>600</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44278</v>
+        <v>44203</v>
       </c>
       <c r="E105" t="n">
         <v>8</v>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K105" t="n">
         <v>500</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44327</v>
+        <v>44334</v>
       </c>
       <c r="E106" t="n">
         <v>8</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44327</v>
+        <v>44334</v>
       </c>
       <c r="E107" t="n">
         <v>8</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44252</v>
+        <v>44344</v>
       </c>
       <c r="E110" t="n">
         <v>8</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44252</v>
+        <v>44344</v>
       </c>
       <c r="E111" t="n">
         <v>8</v>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/atado 0,5 a 1 kilo</t>
+          <t>$/docena de 1 kilo</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44362</v>
+        <v>44475</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44362</v>
+        <v>44475</v>
       </c>
       <c r="E113" t="n">
         <v>8</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44475</v>
+        <v>44460</v>
       </c>
       <c r="E114" t="n">
         <v>8</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44475</v>
+        <v>44460</v>
       </c>
       <c r="E115" t="n">
         <v>8</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44512</v>
+        <v>44292</v>
       </c>
       <c r="E116" t="n">
         <v>8</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44512</v>
+        <v>44292</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44812</v>
+        <v>44756</v>
       </c>
       <c r="E118" t="n">
         <v>8</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44812</v>
+        <v>44756</v>
       </c>
       <c r="E119" t="n">
         <v>8</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44897</v>
+        <v>44313</v>
       </c>
       <c r="E120" t="n">
         <v>8</v>
@@ -9000,13 +9000,13 @@
         <v>200</v>
       </c>
       <c r="K120" t="n">
+        <v>600</v>
+      </c>
+      <c r="L120" t="n">
         <v>700</v>
       </c>
-      <c r="L120" t="n">
-        <v>800</v>
-      </c>
       <c r="M120" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44897</v>
+        <v>44313</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -9072,13 +9072,13 @@
         <v>100</v>
       </c>
       <c r="K121" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L121" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M121" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44754</v>
+        <v>44274</v>
       </c>
       <c r="E122" t="n">
         <v>8</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44754</v>
+        <v>44274</v>
       </c>
       <c r="E123" t="n">
         <v>8</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44469</v>
+        <v>44222</v>
       </c>
       <c r="E124" t="n">
         <v>8</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44469</v>
+        <v>44222</v>
       </c>
       <c r="E125" t="n">
         <v>8</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44609</v>
+        <v>44383</v>
       </c>
       <c r="E126" t="n">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44609</v>
+        <v>44383</v>
       </c>
       <c r="E127" t="n">
         <v>8</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44579</v>
+        <v>44166</v>
       </c>
       <c r="E128" t="n">
         <v>8</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44579</v>
+        <v>44166</v>
       </c>
       <c r="E129" t="n">
         <v>8</v>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44476</v>
+        <v>44579</v>
       </c>
       <c r="E130" t="n">
         <v>8</v>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44476</v>
+        <v>44579</v>
       </c>
       <c r="E131" t="n">
         <v>8</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44917</v>
+        <v>44469</v>
       </c>
       <c r="E132" t="n">
         <v>8</v>
@@ -9864,13 +9864,13 @@
         <v>200</v>
       </c>
       <c r="K132" t="n">
+        <v>600</v>
+      </c>
+      <c r="L132" t="n">
         <v>700</v>
       </c>
-      <c r="L132" t="n">
-        <v>800</v>
-      </c>
       <c r="M132" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44917</v>
+        <v>44469</v>
       </c>
       <c r="E133" t="n">
         <v>8</v>
@@ -9936,13 +9936,13 @@
         <v>100</v>
       </c>
       <c r="K133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44336</v>
+        <v>44330</v>
       </c>
       <c r="E134" t="n">
         <v>8</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44336</v>
+        <v>44330</v>
       </c>
       <c r="E135" t="n">
         <v>8</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44769</v>
+        <v>44525</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
@@ -10152,13 +10152,13 @@
         <v>200</v>
       </c>
       <c r="K136" t="n">
+        <v>600</v>
+      </c>
+      <c r="L136" t="n">
         <v>700</v>
       </c>
-      <c r="L136" t="n">
-        <v>800</v>
-      </c>
       <c r="M136" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44769</v>
+        <v>44525</v>
       </c>
       <c r="E137" t="n">
         <v>8</v>
@@ -10224,13 +10224,13 @@
         <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44705</v>
+        <v>44358</v>
       </c>
       <c r="E138" t="n">
         <v>8</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44705</v>
+        <v>44358</v>
       </c>
       <c r="E139" t="n">
         <v>8</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44783</v>
+        <v>44917</v>
       </c>
       <c r="E140" t="n">
         <v>8</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44783</v>
+        <v>44917</v>
       </c>
       <c r="E141" t="n">
         <v>8</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44924</v>
+        <v>44553</v>
       </c>
       <c r="E142" t="n">
         <v>8</v>
@@ -10584,13 +10584,13 @@
         <v>200</v>
       </c>
       <c r="K142" t="n">
+        <v>600</v>
+      </c>
+      <c r="L142" t="n">
         <v>700</v>
       </c>
-      <c r="L142" t="n">
-        <v>800</v>
-      </c>
       <c r="M142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44924</v>
+        <v>44553</v>
       </c>
       <c r="E143" t="n">
         <v>8</v>
@@ -10656,13 +10656,13 @@
         <v>100</v>
       </c>
       <c r="K143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44442</v>
+        <v>44523</v>
       </c>
       <c r="E144" t="n">
         <v>8</v>
@@ -10725,7 +10725,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K144" t="n">
         <v>600</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44442</v>
+        <v>44523</v>
       </c>
       <c r="E145" t="n">
         <v>8</v>
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K145" t="n">
         <v>500</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44460</v>
+        <v>44609</v>
       </c>
       <c r="E146" t="n">
         <v>8</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44460</v>
+        <v>44609</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44194</v>
+        <v>44665</v>
       </c>
       <c r="E148" t="n">
         <v>8</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44194</v>
+        <v>44665</v>
       </c>
       <c r="E149" t="n">
         <v>8</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44344</v>
+        <v>44839</v>
       </c>
       <c r="E150" t="n">
         <v>8</v>
@@ -11160,17 +11160,17 @@
         <v>200</v>
       </c>
       <c r="K150" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L150" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M150" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44344</v>
+        <v>44839</v>
       </c>
       <c r="E151" t="n">
         <v>8</v>
@@ -11232,17 +11232,17 @@
         <v>100</v>
       </c>
       <c r="K151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/docena de 1 kilo</t>
+          <t>$/atado 0,5 a 1 kilo</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44882</v>
+        <v>44769</v>
       </c>
       <c r="E152" t="n">
         <v>8</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44882</v>
+        <v>44769</v>
       </c>
       <c r="E153" t="n">
         <v>8</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44663</v>
+        <v>44798</v>
       </c>
       <c r="E154" t="n">
         <v>8</v>
@@ -11448,13 +11448,13 @@
         <v>200</v>
       </c>
       <c r="K154" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L154" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M154" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44663</v>
+        <v>44798</v>
       </c>
       <c r="E155" t="n">
         <v>8</v>
@@ -11520,13 +11520,13 @@
         <v>100</v>
       </c>
       <c r="K155" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L155" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M155" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44490</v>
+        <v>44316</v>
       </c>
       <c r="E156" t="n">
         <v>8</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44490</v>
+        <v>44316</v>
       </c>
       <c r="E157" t="n">
         <v>8</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E158" t="n">
         <v>8</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44237</v>
+        <v>44490</v>
       </c>
       <c r="E159" t="n">
         <v>8</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44895</v>
+        <v>44252</v>
       </c>
       <c r="E160" t="n">
         <v>8</v>
@@ -11880,13 +11880,13 @@
         <v>200</v>
       </c>
       <c r="K160" t="n">
+        <v>600</v>
+      </c>
+      <c r="L160" t="n">
         <v>700</v>
       </c>
-      <c r="L160" t="n">
-        <v>800</v>
-      </c>
       <c r="M160" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44895</v>
+        <v>44252</v>
       </c>
       <c r="E161" t="n">
         <v>8</v>
@@ -11952,13 +11952,13 @@
         <v>100</v>
       </c>
       <c r="K161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44386</v>
+        <v>44895</v>
       </c>
       <c r="E162" t="n">
         <v>8</v>
@@ -12024,13 +12024,13 @@
         <v>200</v>
       </c>
       <c r="K162" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L162" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M162" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44386</v>
+        <v>44895</v>
       </c>
       <c r="E163" t="n">
         <v>8</v>
@@ -12096,13 +12096,13 @@
         <v>100</v>
       </c>
       <c r="K163" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L163" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M163" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44425</v>
+        <v>44405</v>
       </c>
       <c r="E164" t="n">
         <v>8</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44425</v>
+        <v>44405</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E166" t="n">
         <v>8</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44292</v>
+        <v>44237</v>
       </c>
       <c r="E167" t="n">
         <v>8</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44400</v>
+        <v>44239</v>
       </c>
       <c r="E168" t="n">
         <v>8</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44400</v>
+        <v>44239</v>
       </c>
       <c r="E169" t="n">
         <v>8</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44839</v>
+        <v>44783</v>
       </c>
       <c r="E170" t="n">
         <v>8</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44839</v>
+        <v>44783</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44299</v>
+        <v>44349</v>
       </c>
       <c r="E172" t="n">
         <v>8</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P172" t="n">
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44299</v>
+        <v>44349</v>
       </c>
       <c r="E173" t="n">
         <v>8</v>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44756</v>
+        <v>44574</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -12888,13 +12888,13 @@
         <v>200</v>
       </c>
       <c r="K174" t="n">
+        <v>600</v>
+      </c>
+      <c r="L174" t="n">
         <v>700</v>
       </c>
-      <c r="L174" t="n">
-        <v>800</v>
-      </c>
       <c r="M174" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44756</v>
+        <v>44574</v>
       </c>
       <c r="E175" t="n">
         <v>8</v>
@@ -12960,13 +12960,13 @@
         <v>100</v>
       </c>
       <c r="K175" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L175" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M175" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44453</v>
+        <v>44341</v>
       </c>
       <c r="E176" t="n">
         <v>8</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44453</v>
+        <v>44341</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44665</v>
+        <v>44168</v>
       </c>
       <c r="E178" t="n">
         <v>8</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44665</v>
+        <v>44168</v>
       </c>
       <c r="E179" t="n">
         <v>8</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44217</v>
+        <v>44476</v>
       </c>
       <c r="E180" t="n">
         <v>8</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44217</v>
+        <v>44476</v>
       </c>
       <c r="E181" t="n">
         <v>8</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44679</v>
+        <v>44694</v>
       </c>
       <c r="E182" t="n">
         <v>8</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44679</v>
+        <v>44694</v>
       </c>
       <c r="E183" t="n">
         <v>8</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44350</v>
+        <v>44425</v>
       </c>
       <c r="E184" t="n">
         <v>8</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44350</v>
+        <v>44425</v>
       </c>
       <c r="E185" t="n">
         <v>8</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44447</v>
+        <v>44827</v>
       </c>
       <c r="E186" t="n">
         <v>8</v>
@@ -13752,13 +13752,13 @@
         <v>200</v>
       </c>
       <c r="K186" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L186" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M186" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44447</v>
+        <v>44827</v>
       </c>
       <c r="E187" t="n">
         <v>8</v>
@@ -13824,13 +13824,13 @@
         <v>100</v>
       </c>
       <c r="K187" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L187" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M187" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44565</v>
+        <v>44488</v>
       </c>
       <c r="E188" t="n">
         <v>8</v>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P188" t="n">
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44565</v>
+        <v>44488</v>
       </c>
       <c r="E189" t="n">
         <v>8</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P189" t="n">
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44911</v>
+        <v>44306</v>
       </c>
       <c r="E190" t="n">
         <v>8</v>
@@ -14040,13 +14040,13 @@
         <v>200</v>
       </c>
       <c r="K190" t="n">
+        <v>600</v>
+      </c>
+      <c r="L190" t="n">
         <v>700</v>
       </c>
-      <c r="L190" t="n">
-        <v>800</v>
-      </c>
       <c r="M190" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44911</v>
+        <v>44306</v>
       </c>
       <c r="E191" t="n">
         <v>8</v>
@@ -14112,13 +14112,13 @@
         <v>100</v>
       </c>
       <c r="K191" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L191" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M191" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,12 +14131,156 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
       </c>
       <c r="R191" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>11</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="E192" t="n">
+        <v>8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>200</v>
+      </c>
+      <c r="K192" t="n">
+        <v>700</v>
+      </c>
+      <c r="L192" t="n">
+        <v>800</v>
+      </c>
+      <c r="M192" t="n">
+        <v>750</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>1</v>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>11</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="E193" t="n">
+        <v>8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>100112044</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Perejil</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>100</v>
+      </c>
+      <c r="K193" t="n">
+        <v>600</v>
+      </c>
+      <c r="L193" t="n">
+        <v>600</v>
+      </c>
+      <c r="M193" t="n">
+        <v>600</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>$/atado 0,5 a 1 kilo</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Región de Ñuble</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>1</v>
+      </c>
+      <c r="R193" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Perejil.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44250</v>
+        <v>44391</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44250</v>
+        <v>44391</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44349</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44349</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44365</v>
+        <v>44239</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44365</v>
+        <v>44239</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44160</v>
+        <v>44341</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44160</v>
+        <v>44341</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44607</v>
+        <v>44553</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44607</v>
+        <v>44553</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44308</v>
+        <v>44250</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44308</v>
+        <v>44250</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44285</v>
+        <v>44825</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1512,13 +1512,13 @@
         <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L16" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M16" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44285</v>
+        <v>44825</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1584,13 +1584,13 @@
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44187</v>
+        <v>44582</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44187</v>
+        <v>44582</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44841</v>
+        <v>44231</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1800,13 +1800,13 @@
         <v>200</v>
       </c>
       <c r="K20" t="n">
+        <v>600</v>
+      </c>
+      <c r="L20" t="n">
         <v>700</v>
       </c>
-      <c r="L20" t="n">
-        <v>800</v>
-      </c>
       <c r="M20" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44841</v>
+        <v>44231</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1872,13 +1872,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44278</v>
+        <v>44320</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" t="n">
         <v>600</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44278</v>
+        <v>44320</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
         <v>500</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44582</v>
+        <v>44841</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2088,13 +2088,13 @@
         <v>200</v>
       </c>
       <c r="K24" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L24" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M24" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44582</v>
+        <v>44841</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2160,13 +2160,13 @@
         <v>100</v>
       </c>
       <c r="K25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44453</v>
+        <v>44798</v>
       </c>
       <c r="E26" t="n">
         <v>8</v>
@@ -2232,13 +2232,13 @@
         <v>200</v>
       </c>
       <c r="K26" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L26" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M26" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44453</v>
+        <v>44798</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -2304,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="K27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44512</v>
+        <v>44330</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44512</v>
+        <v>44330</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44663</v>
+        <v>44523</v>
       </c>
       <c r="E30" t="n">
         <v>8</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44663</v>
+        <v>44523</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E32" t="n">
         <v>8</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44447</v>
+        <v>44398</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44447</v>
+        <v>44398</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44679</v>
+        <v>44616</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44679</v>
+        <v>44616</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44386</v>
+        <v>44699</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44386</v>
+        <v>44699</v>
       </c>
       <c r="E39" t="n">
         <v>8</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44272</v>
+        <v>44224</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44272</v>
+        <v>44224</v>
       </c>
       <c r="E41" t="n">
         <v>8</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44855</v>
+        <v>44607</v>
       </c>
       <c r="E42" t="n">
         <v>8</v>
@@ -3384,13 +3384,13 @@
         <v>200</v>
       </c>
       <c r="K42" t="n">
+        <v>600</v>
+      </c>
+      <c r="L42" t="n">
         <v>700</v>
       </c>
-      <c r="L42" t="n">
-        <v>800</v>
-      </c>
       <c r="M42" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44855</v>
+        <v>44607</v>
       </c>
       <c r="E43" t="n">
         <v>8</v>
@@ -3456,13 +3456,13 @@
         <v>100</v>
       </c>
       <c r="K43" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L43" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M43" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44217</v>
+        <v>44272</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44217</v>
+        <v>44272</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44882</v>
+        <v>44306</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
@@ -3672,13 +3672,13 @@
         <v>200</v>
       </c>
       <c r="K46" t="n">
+        <v>600</v>
+      </c>
+      <c r="L46" t="n">
         <v>700</v>
       </c>
-      <c r="L46" t="n">
-        <v>800</v>
-      </c>
       <c r="M46" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44882</v>
+        <v>44306</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
@@ -3744,13 +3744,13 @@
         <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44897</v>
+        <v>44365</v>
       </c>
       <c r="E48" t="n">
         <v>8</v>
@@ -3816,13 +3816,13 @@
         <v>200</v>
       </c>
       <c r="K48" t="n">
+        <v>600</v>
+      </c>
+      <c r="L48" t="n">
         <v>700</v>
       </c>
-      <c r="L48" t="n">
-        <v>800</v>
-      </c>
       <c r="M48" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44897</v>
+        <v>44365</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
@@ -3888,13 +3888,13 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44398</v>
+        <v>44383</v>
       </c>
       <c r="E51" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44391</v>
+        <v>44168</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44391</v>
+        <v>44168</v>
       </c>
       <c r="E53" t="n">
         <v>8</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44754</v>
+        <v>44433</v>
       </c>
       <c r="E54" t="n">
         <v>8</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44754</v>
+        <v>44433</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44771</v>
+        <v>44285</v>
       </c>
       <c r="E56" t="n">
         <v>8</v>
@@ -4392,13 +4392,13 @@
         <v>200</v>
       </c>
       <c r="K56" t="n">
+        <v>600</v>
+      </c>
+      <c r="L56" t="n">
         <v>700</v>
       </c>
-      <c r="L56" t="n">
-        <v>800</v>
-      </c>
       <c r="M56" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44771</v>
+        <v>44285</v>
       </c>
       <c r="E57" t="n">
         <v>8</v>
@@ -4464,13 +4464,13 @@
         <v>100</v>
       </c>
       <c r="K57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44433</v>
+        <v>44222</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44433</v>
+        <v>44222</v>
       </c>
       <c r="E59" t="n">
         <v>8</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44692</v>
+        <v>44574</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44692</v>
+        <v>44574</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44825</v>
+        <v>44435</v>
       </c>
       <c r="E62" t="n">
         <v>8</v>
@@ -4824,13 +4824,13 @@
         <v>200</v>
       </c>
       <c r="K62" t="n">
+        <v>600</v>
+      </c>
+      <c r="L62" t="n">
         <v>700</v>
       </c>
-      <c r="L62" t="n">
-        <v>800</v>
-      </c>
       <c r="M62" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44825</v>
+        <v>44435</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
@@ -4896,13 +4896,13 @@
         <v>100</v>
       </c>
       <c r="K63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q63" t="n">
         <v>1</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44280</v>
+        <v>44358</v>
       </c>
       <c r="E64" t="n">
         <v>8</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44280</v>
+        <v>44358</v>
       </c>
       <c r="E65" t="n">
         <v>8</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44299</v>
+        <v>44313</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44299</v>
+        <v>44313</v>
       </c>
       <c r="E67" t="n">
         <v>8</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44708</v>
+        <v>44855</v>
       </c>
       <c r="E68" t="n">
         <v>8</v>
@@ -5256,13 +5256,13 @@
         <v>200</v>
       </c>
       <c r="K68" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L68" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M68" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44708</v>
+        <v>44855</v>
       </c>
       <c r="E69" t="n">
         <v>8</v>
@@ -5328,13 +5328,13 @@
         <v>100</v>
       </c>
       <c r="K69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44936</v>
+        <v>44203</v>
       </c>
       <c r="E70" t="n">
         <v>8</v>
@@ -5400,13 +5400,13 @@
         <v>200</v>
       </c>
       <c r="K70" t="n">
+        <v>600</v>
+      </c>
+      <c r="L70" t="n">
         <v>700</v>
       </c>
-      <c r="L70" t="n">
-        <v>800</v>
-      </c>
       <c r="M70" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44936</v>
+        <v>44203</v>
       </c>
       <c r="E71" t="n">
         <v>8</v>
@@ -5472,13 +5472,13 @@
         <v>100</v>
       </c>
       <c r="K71" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L71" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M71" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44719</v>
+        <v>44827</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -5544,13 +5544,13 @@
         <v>200</v>
       </c>
       <c r="K72" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L72" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M72" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44719</v>
+        <v>44827</v>
       </c>
       <c r="E73" t="n">
         <v>8</v>
@@ -5616,13 +5616,13 @@
         <v>100</v>
       </c>
       <c r="K73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Región de Ñuble</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44350</v>
+        <v>44936</v>
       </c>
       <c r="E74" t="n">
         <v>8</v>
@@ -5688,13 +5688,13 @@
         <v>200</v>
       </c>
       <c r="K74" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L74" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M74" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44350</v>
+        <v>44936</v>
       </c>
       <c r="E75" t="n">
         <v>8</v>
@@ -5760,13 +5760,13 @@
         <v>100</v>
       </c>
       <c r="K75" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L75" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M75" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44565</v>
+        <v>44694</v>
       </c>
       <c r="E76" t="n">
         <v>8</v>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44565</v>
+        <v>44694</v>
       </c>
       <c r="E77" t="n">
         <v>8</v>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Ñuble</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44194</v>
+        <v>44316</v>
       </c>
       <c r="E78" t="n">
         <v>8</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44194</v>
+        <v>44316</v>
       </c>
       <c r="E79" t="n">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E81" t="n">
         <v>8</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44355</v>
+        <v>44160</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44355</v>
+        <v>44160</v>
       </c>
       <c r="E83" t="n">
         <v>8</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44699</v>
+        <v>44771</v>
       </c>
       <c r="E84" t="n">
         <v>8</v>
@@ -6408,13 +6408,13 @@
         <v>200</v>
       </c>
       <c r="K84" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
 